--- a/emr/exports/templates/export-template-detail.xlsx
+++ b/emr/exports/templates/export-template-detail.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="173">
   <si>
     <t>Date</t>
   </si>
@@ -564,6 +564,15 @@
   </si>
   <si>
     <t>Z10</t>
+  </si>
+  <si>
+    <t>02#03</t>
+  </si>
+  <si>
+    <t>02#04</t>
+  </si>
+  <si>
+    <t>datetable</t>
   </si>
 </sst>
 </file>
@@ -1532,8 +1541,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="25">
+  <cellStyleXfs count="33">
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2076,6 +2109,237 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="4" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="14" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2091,12 +2355,6 @@
     <xf numFmtId="1" fontId="2" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="12" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2106,12 +2364,6 @@
     <xf numFmtId="1" fontId="12" fillId="4" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2130,237 +2382,81 @@
     <xf numFmtId="1" fontId="0" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="4" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="14" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="3" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="4" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="4" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="5" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2370,71 +2466,8 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="47" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="46" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="10" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="25">
+  <cellStyles count="33">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2447,6 +2480,10 @@
     <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2459,6 +2496,10 @@
     <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3020,57 +3061,6 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10103" name="Rectangle 35"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2146300" y="7988300"/>
-          <a:ext cx="152400" cy="114300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
       <xdr:colOff>101600</xdr:colOff>
       <xdr:row>44</xdr:row>
       <xdr:rowOff>25400</xdr:rowOff>
@@ -3091,57 +3081,6 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="2133600" y="8191500"/>
-          <a:ext cx="152400" cy="114300"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
-        </a:solidFill>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr rtlCol="0"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>114300</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>12700</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10105" name="Rectangle 38"/>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2146300" y="7797800"/>
           <a:ext cx="152400" cy="114300"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -3646,134 +3585,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>120650</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9576</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>181504</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="81" name="TextBox 80"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1704975" y="7762875"/>
-          <a:ext cx="685800" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>02#04</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>88900</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>9576</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="82" name="TextBox 81"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1704975" y="8020050"/>
-          <a:ext cx="685800" cy="238125"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr lang="en-US" sz="1400"/>
-            <a:t>02#03</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4152,7 +3963,7 @@
   <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1:L1"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0"/>
@@ -4209,6 +4020,9 @@
       <c r="H2" s="153">
         <v>14</v>
       </c>
+      <c r="I2" s="153" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="3" spans="1:9" ht="11">
       <c r="A3" s="153">
@@ -4232,6 +4046,9 @@
       <c r="H3" s="153">
         <v>14</v>
       </c>
+      <c r="I3" s="153" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="4" spans="1:9" ht="11">
       <c r="D4" s="153">
@@ -4249,6 +4066,9 @@
       <c r="H4" s="153">
         <v>14</v>
       </c>
+      <c r="I4" s="153" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="5" spans="1:9" ht="11">
       <c r="D5" s="153">
@@ -4266,6 +4086,9 @@
       <c r="H5" s="153">
         <v>14</v>
       </c>
+      <c r="I5" s="153" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="6" spans="1:9" ht="11">
       <c r="D6" s="153">
@@ -4283,6 +4106,9 @@
       <c r="H6" s="153">
         <v>14</v>
       </c>
+      <c r="I6" s="153" t="s">
+        <v>172</v>
+      </c>
     </row>
     <row r="7" spans="1:9" ht="11">
       <c r="D7" s="153">
@@ -4299,6 +4125,9 @@
       </c>
       <c r="H7" s="153">
         <v>14</v>
+      </c>
+      <c r="I7" s="153" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="11">
@@ -4524,7 +4353,7 @@
   <dimension ref="A1:BE98"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D47" sqref="D47:AE47"/>
+      <selection activeCell="D47" sqref="D47:E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="4.5" defaultRowHeight="12" x14ac:dyDescent="0"/>
@@ -4543,27 +4372,27 @@
     <row r="1" spans="1:42" s="35" customFormat="1" ht="25.5" customHeight="1" thickBot="1">
       <c r="A1" s="86"/>
       <c r="B1" s="86"/>
-      <c r="C1" s="156" t="s">
+      <c r="C1" s="233" t="s">
         <v>37</v>
       </c>
-      <c r="D1" s="157"/>
-      <c r="E1" s="157"/>
-      <c r="F1" s="157"/>
-      <c r="G1" s="157"/>
-      <c r="H1" s="157"/>
-      <c r="I1" s="157"/>
-      <c r="J1" s="157"/>
-      <c r="K1" s="157"/>
-      <c r="L1" s="157"/>
-      <c r="M1" s="157"/>
-      <c r="N1" s="157"/>
-      <c r="O1" s="157"/>
-      <c r="P1" s="157"/>
-      <c r="Q1" s="157"/>
-      <c r="R1" s="157"/>
-      <c r="S1" s="157"/>
-      <c r="T1" s="157"/>
-      <c r="U1" s="158"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="234"/>
+      <c r="J1" s="234"/>
+      <c r="K1" s="234"/>
+      <c r="L1" s="234"/>
+      <c r="M1" s="234"/>
+      <c r="N1" s="234"/>
+      <c r="O1" s="234"/>
+      <c r="P1" s="234"/>
+      <c r="Q1" s="234"/>
+      <c r="R1" s="234"/>
+      <c r="S1" s="234"/>
+      <c r="T1" s="234"/>
+      <c r="U1" s="235"/>
       <c r="V1" s="86"/>
       <c r="W1" s="86"/>
       <c r="X1" s="86"/>
@@ -4613,25 +4442,25 @@
       <c r="AE2" s="88"/>
     </row>
     <row r="3" spans="1:42" s="8" customFormat="1" ht="15">
-      <c r="A3" s="180" t="s">
+      <c r="A3" s="222" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="181"/>
-      <c r="C3" s="181"/>
-      <c r="D3" s="181"/>
-      <c r="E3" s="181"/>
-      <c r="F3" s="181"/>
-      <c r="G3" s="181"/>
-      <c r="H3" s="181"/>
-      <c r="I3" s="181"/>
-      <c r="J3" s="181"/>
-      <c r="K3" s="181"/>
-      <c r="L3" s="181"/>
-      <c r="M3" s="181"/>
-      <c r="N3" s="181"/>
-      <c r="O3" s="181"/>
-      <c r="P3" s="181"/>
-      <c r="Q3" s="182"/>
+      <c r="B3" s="223"/>
+      <c r="C3" s="223"/>
+      <c r="D3" s="223"/>
+      <c r="E3" s="223"/>
+      <c r="F3" s="223"/>
+      <c r="G3" s="223"/>
+      <c r="H3" s="223"/>
+      <c r="I3" s="223"/>
+      <c r="J3" s="223"/>
+      <c r="K3" s="223"/>
+      <c r="L3" s="223"/>
+      <c r="M3" s="223"/>
+      <c r="N3" s="223"/>
+      <c r="O3" s="223"/>
+      <c r="P3" s="223"/>
+      <c r="Q3" s="224"/>
       <c r="R3" s="77"/>
       <c r="S3" s="77"/>
       <c r="T3" s="77"/>
@@ -4639,34 +4468,34 @@
       <c r="V3" s="77"/>
       <c r="W3" s="77"/>
       <c r="X3" s="77"/>
-      <c r="Y3" s="179" t="s">
+      <c r="Y3" s="221" t="s">
         <v>40</v>
       </c>
-      <c r="Z3" s="179"/>
-      <c r="AA3" s="179"/>
-      <c r="AB3" s="179"/>
-      <c r="AC3" s="179"/>
-      <c r="AD3" s="179"/>
+      <c r="Z3" s="221"/>
+      <c r="AA3" s="221"/>
+      <c r="AB3" s="221"/>
+      <c r="AC3" s="221"/>
+      <c r="AD3" s="221"/>
       <c r="AE3" s="77"/>
     </row>
     <row r="4" spans="1:42" s="8" customFormat="1" ht="16" thickBot="1">
-      <c r="A4" s="183"/>
-      <c r="B4" s="184"/>
-      <c r="C4" s="184"/>
-      <c r="D4" s="184"/>
-      <c r="E4" s="184"/>
-      <c r="F4" s="184"/>
-      <c r="G4" s="184"/>
-      <c r="H4" s="184"/>
-      <c r="I4" s="184"/>
-      <c r="J4" s="184"/>
-      <c r="K4" s="184"/>
-      <c r="L4" s="184"/>
-      <c r="M4" s="184"/>
-      <c r="N4" s="184"/>
-      <c r="O4" s="184"/>
-      <c r="P4" s="184"/>
-      <c r="Q4" s="185"/>
+      <c r="A4" s="225"/>
+      <c r="B4" s="226"/>
+      <c r="C4" s="226"/>
+      <c r="D4" s="226"/>
+      <c r="E4" s="226"/>
+      <c r="F4" s="226"/>
+      <c r="G4" s="226"/>
+      <c r="H4" s="226"/>
+      <c r="I4" s="226"/>
+      <c r="J4" s="226"/>
+      <c r="K4" s="226"/>
+      <c r="L4" s="226"/>
+      <c r="M4" s="226"/>
+      <c r="N4" s="226"/>
+      <c r="O4" s="226"/>
+      <c r="P4" s="226"/>
+      <c r="Q4" s="227"/>
       <c r="R4" s="77"/>
       <c r="S4" s="77"/>
       <c r="T4" s="77"/>
@@ -5156,10 +4985,10 @@
       <c r="C17" s="142"/>
       <c r="D17" s="142"/>
       <c r="E17" s="142"/>
-      <c r="F17" s="159" t="s">
+      <c r="F17" s="236" t="s">
         <v>26</v>
       </c>
-      <c r="G17" s="160"/>
+      <c r="G17" s="237"/>
       <c r="H17" s="88"/>
       <c r="I17" s="76"/>
       <c r="J17" s="142"/>
@@ -5667,42 +5496,42 @@
       <c r="M28" s="115"/>
       <c r="N28" s="116"/>
       <c r="O28" s="110"/>
-      <c r="P28" s="243" t="s">
+      <c r="P28" s="159" t="s">
         <v>83</v>
       </c>
-      <c r="Q28" s="244"/>
-      <c r="R28" s="244"/>
-      <c r="S28" s="244"/>
-      <c r="T28" s="244"/>
-      <c r="U28" s="244"/>
-      <c r="V28" s="244"/>
-      <c r="W28" s="244"/>
-      <c r="X28" s="244"/>
-      <c r="Y28" s="244"/>
-      <c r="Z28" s="244"/>
-      <c r="AA28" s="244"/>
-      <c r="AB28" s="244"/>
-      <c r="AC28" s="244"/>
-      <c r="AD28" s="244"/>
-      <c r="AE28" s="245"/>
+      <c r="Q28" s="160"/>
+      <c r="R28" s="160"/>
+      <c r="S28" s="160"/>
+      <c r="T28" s="160"/>
+      <c r="U28" s="160"/>
+      <c r="V28" s="160"/>
+      <c r="W28" s="160"/>
+      <c r="X28" s="160"/>
+      <c r="Y28" s="160"/>
+      <c r="Z28" s="160"/>
+      <c r="AA28" s="160"/>
+      <c r="AB28" s="160"/>
+      <c r="AC28" s="160"/>
+      <c r="AD28" s="160"/>
+      <c r="AE28" s="161"/>
     </row>
     <row r="29" spans="1:57" ht="15" customHeight="1">
-      <c r="A29" s="168" t="s">
+      <c r="A29" s="241" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="169"/>
-      <c r="C29" s="169"/>
-      <c r="D29" s="169"/>
-      <c r="E29" s="169"/>
-      <c r="F29" s="169"/>
-      <c r="G29" s="169"/>
-      <c r="H29" s="169"/>
-      <c r="I29" s="169"/>
-      <c r="J29" s="169"/>
-      <c r="K29" s="169"/>
-      <c r="L29" s="169"/>
-      <c r="M29" s="169"/>
-      <c r="N29" s="170"/>
+      <c r="B29" s="242"/>
+      <c r="C29" s="242"/>
+      <c r="D29" s="242"/>
+      <c r="E29" s="242"/>
+      <c r="F29" s="242"/>
+      <c r="G29" s="242"/>
+      <c r="H29" s="242"/>
+      <c r="I29" s="242"/>
+      <c r="J29" s="242"/>
+      <c r="K29" s="242"/>
+      <c r="L29" s="242"/>
+      <c r="M29" s="242"/>
+      <c r="N29" s="243"/>
       <c r="O29" s="110"/>
       <c r="P29" s="117"/>
       <c r="Q29" s="138"/>
@@ -5710,392 +5539,392 @@
       <c r="S29" s="138"/>
       <c r="T29" s="118"/>
       <c r="U29" s="118"/>
-      <c r="V29" s="240" t="s">
+      <c r="V29" s="156" t="s">
         <v>81</v>
       </c>
-      <c r="W29" s="241"/>
-      <c r="X29" s="241"/>
-      <c r="Y29" s="241"/>
-      <c r="Z29" s="241"/>
-      <c r="AA29" s="241"/>
-      <c r="AB29" s="241"/>
-      <c r="AC29" s="241"/>
-      <c r="AD29" s="241"/>
-      <c r="AE29" s="242"/>
+      <c r="W29" s="157"/>
+      <c r="X29" s="157"/>
+      <c r="Y29" s="157"/>
+      <c r="Z29" s="157"/>
+      <c r="AA29" s="157"/>
+      <c r="AB29" s="157"/>
+      <c r="AC29" s="157"/>
+      <c r="AD29" s="157"/>
+      <c r="AE29" s="158"/>
     </row>
     <row r="30" spans="1:57" ht="15" customHeight="1" thickBot="1">
-      <c r="A30" s="168"/>
-      <c r="B30" s="169"/>
-      <c r="C30" s="169"/>
-      <c r="D30" s="169"/>
-      <c r="E30" s="169"/>
-      <c r="F30" s="169"/>
-      <c r="G30" s="169"/>
-      <c r="H30" s="169"/>
-      <c r="I30" s="169"/>
-      <c r="J30" s="169"/>
-      <c r="K30" s="169"/>
-      <c r="L30" s="169"/>
-      <c r="M30" s="169"/>
-      <c r="N30" s="170"/>
+      <c r="A30" s="241"/>
+      <c r="B30" s="242"/>
+      <c r="C30" s="242"/>
+      <c r="D30" s="242"/>
+      <c r="E30" s="242"/>
+      <c r="F30" s="242"/>
+      <c r="G30" s="242"/>
+      <c r="H30" s="242"/>
+      <c r="I30" s="242"/>
+      <c r="J30" s="242"/>
+      <c r="K30" s="242"/>
+      <c r="L30" s="242"/>
+      <c r="M30" s="242"/>
+      <c r="N30" s="243"/>
       <c r="O30" s="110"/>
       <c r="P30" s="76"/>
       <c r="Q30" s="137"/>
       <c r="R30" s="137"/>
       <c r="S30" s="137"/>
-      <c r="T30" s="210"/>
-      <c r="U30" s="210"/>
-      <c r="V30" s="211" t="s">
+      <c r="T30" s="230"/>
+      <c r="U30" s="230"/>
+      <c r="V30" s="231" t="s">
         <v>77</v>
       </c>
-      <c r="W30" s="212"/>
-      <c r="X30" s="175" t="s">
+      <c r="W30" s="232"/>
+      <c r="X30" s="201" t="s">
         <v>78</v>
       </c>
-      <c r="Y30" s="175"/>
-      <c r="Z30" s="175" t="s">
+      <c r="Y30" s="201"/>
+      <c r="Z30" s="201" t="s">
         <v>79</v>
       </c>
-      <c r="AA30" s="175"/>
-      <c r="AB30" s="175" t="s">
+      <c r="AA30" s="201"/>
+      <c r="AB30" s="201" t="s">
         <v>80</v>
       </c>
-      <c r="AC30" s="175"/>
-      <c r="AD30" s="175" t="s">
+      <c r="AC30" s="201"/>
+      <c r="AD30" s="201" t="s">
         <v>82</v>
       </c>
-      <c r="AE30" s="213"/>
+      <c r="AE30" s="202"/>
     </row>
     <row r="31" spans="1:57" ht="15" customHeight="1" thickTop="1">
-      <c r="A31" s="168"/>
-      <c r="B31" s="169"/>
-      <c r="C31" s="169"/>
-      <c r="D31" s="169"/>
-      <c r="E31" s="169"/>
-      <c r="F31" s="169"/>
-      <c r="G31" s="169"/>
-      <c r="H31" s="169"/>
-      <c r="I31" s="169"/>
-      <c r="J31" s="169"/>
-      <c r="K31" s="169"/>
-      <c r="L31" s="169"/>
-      <c r="M31" s="169"/>
-      <c r="N31" s="170"/>
+      <c r="A31" s="241"/>
+      <c r="B31" s="242"/>
+      <c r="C31" s="242"/>
+      <c r="D31" s="242"/>
+      <c r="E31" s="242"/>
+      <c r="F31" s="242"/>
+      <c r="G31" s="242"/>
+      <c r="H31" s="242"/>
+      <c r="I31" s="242"/>
+      <c r="J31" s="242"/>
+      <c r="K31" s="242"/>
+      <c r="L31" s="242"/>
+      <c r="M31" s="242"/>
+      <c r="N31" s="243"/>
       <c r="O31" s="110"/>
-      <c r="P31" s="186" t="s">
+      <c r="P31" s="168" t="s">
         <v>8</v>
       </c>
-      <c r="Q31" s="187"/>
-      <c r="R31" s="187"/>
-      <c r="S31" s="187"/>
-      <c r="T31" s="187"/>
-      <c r="U31" s="187"/>
-      <c r="V31" s="176" t="s">
+      <c r="Q31" s="169"/>
+      <c r="R31" s="169"/>
+      <c r="S31" s="169"/>
+      <c r="T31" s="169"/>
+      <c r="U31" s="169"/>
+      <c r="V31" s="247" t="s">
         <v>105</v>
       </c>
-      <c r="W31" s="176"/>
-      <c r="X31" s="178"/>
-      <c r="Y31" s="178"/>
-      <c r="Z31" s="178"/>
-      <c r="AA31" s="178"/>
-      <c r="AB31" s="178"/>
-      <c r="AC31" s="178"/>
-      <c r="AD31" s="178"/>
-      <c r="AE31" s="246"/>
+      <c r="W31" s="247"/>
+      <c r="X31" s="162"/>
+      <c r="Y31" s="162"/>
+      <c r="Z31" s="162"/>
+      <c r="AA31" s="162"/>
+      <c r="AB31" s="162"/>
+      <c r="AC31" s="162"/>
+      <c r="AD31" s="162"/>
+      <c r="AE31" s="163"/>
     </row>
     <row r="32" spans="1:57" ht="15" customHeight="1">
-      <c r="A32" s="168"/>
-      <c r="B32" s="169"/>
-      <c r="C32" s="169"/>
-      <c r="D32" s="169"/>
-      <c r="E32" s="169"/>
-      <c r="F32" s="169"/>
-      <c r="G32" s="169"/>
-      <c r="H32" s="169"/>
-      <c r="I32" s="169"/>
-      <c r="J32" s="169"/>
-      <c r="K32" s="169"/>
-      <c r="L32" s="169"/>
-      <c r="M32" s="169"/>
-      <c r="N32" s="170"/>
+      <c r="A32" s="241"/>
+      <c r="B32" s="242"/>
+      <c r="C32" s="242"/>
+      <c r="D32" s="242"/>
+      <c r="E32" s="242"/>
+      <c r="F32" s="242"/>
+      <c r="G32" s="242"/>
+      <c r="H32" s="242"/>
+      <c r="I32" s="242"/>
+      <c r="J32" s="242"/>
+      <c r="K32" s="242"/>
+      <c r="L32" s="242"/>
+      <c r="M32" s="242"/>
+      <c r="N32" s="243"/>
       <c r="O32" s="110"/>
-      <c r="P32" s="186" t="s">
+      <c r="P32" s="168" t="s">
         <v>50</v>
       </c>
-      <c r="Q32" s="187"/>
-      <c r="R32" s="187"/>
-      <c r="S32" s="187"/>
-      <c r="T32" s="187"/>
-      <c r="U32" s="187"/>
-      <c r="V32" s="209" t="s">
+      <c r="Q32" s="169"/>
+      <c r="R32" s="169"/>
+      <c r="S32" s="169"/>
+      <c r="T32" s="169"/>
+      <c r="U32" s="169"/>
+      <c r="V32" s="170" t="s">
         <v>106</v>
       </c>
-      <c r="W32" s="209"/>
-      <c r="X32" s="177"/>
-      <c r="Y32" s="177"/>
-      <c r="Z32" s="177"/>
-      <c r="AA32" s="177"/>
-      <c r="AB32" s="177"/>
-      <c r="AC32" s="177"/>
-      <c r="AD32" s="177"/>
-      <c r="AE32" s="247"/>
+      <c r="W32" s="170"/>
+      <c r="X32" s="164"/>
+      <c r="Y32" s="164"/>
+      <c r="Z32" s="164"/>
+      <c r="AA32" s="164"/>
+      <c r="AB32" s="164"/>
+      <c r="AC32" s="164"/>
+      <c r="AD32" s="164"/>
+      <c r="AE32" s="165"/>
     </row>
     <row r="33" spans="1:31" ht="15" customHeight="1">
-      <c r="A33" s="168" t="s">
+      <c r="A33" s="241" t="s">
         <v>102</v>
       </c>
-      <c r="B33" s="169"/>
-      <c r="C33" s="169"/>
-      <c r="D33" s="169"/>
-      <c r="E33" s="169"/>
-      <c r="F33" s="169"/>
-      <c r="G33" s="169"/>
-      <c r="H33" s="169"/>
-      <c r="I33" s="169"/>
-      <c r="J33" s="169"/>
-      <c r="K33" s="169"/>
-      <c r="L33" s="169"/>
-      <c r="M33" s="169"/>
-      <c r="N33" s="170"/>
+      <c r="B33" s="242"/>
+      <c r="C33" s="242"/>
+      <c r="D33" s="242"/>
+      <c r="E33" s="242"/>
+      <c r="F33" s="242"/>
+      <c r="G33" s="242"/>
+      <c r="H33" s="242"/>
+      <c r="I33" s="242"/>
+      <c r="J33" s="242"/>
+      <c r="K33" s="242"/>
+      <c r="L33" s="242"/>
+      <c r="M33" s="242"/>
+      <c r="N33" s="243"/>
       <c r="O33" s="110"/>
-      <c r="P33" s="186" t="s">
+      <c r="P33" s="168" t="s">
         <v>51</v>
       </c>
-      <c r="Q33" s="187"/>
-      <c r="R33" s="187"/>
-      <c r="S33" s="187"/>
-      <c r="T33" s="187"/>
-      <c r="U33" s="187"/>
-      <c r="V33" s="174"/>
-      <c r="W33" s="174"/>
-      <c r="X33" s="209"/>
-      <c r="Y33" s="209"/>
-      <c r="Z33" s="174"/>
-      <c r="AA33" s="174"/>
-      <c r="AB33" s="174"/>
-      <c r="AC33" s="174"/>
-      <c r="AD33" s="174"/>
-      <c r="AE33" s="214"/>
+      <c r="Q33" s="169"/>
+      <c r="R33" s="169"/>
+      <c r="S33" s="169"/>
+      <c r="T33" s="169"/>
+      <c r="U33" s="169"/>
+      <c r="V33" s="166"/>
+      <c r="W33" s="166"/>
+      <c r="X33" s="170"/>
+      <c r="Y33" s="170"/>
+      <c r="Z33" s="166"/>
+      <c r="AA33" s="166"/>
+      <c r="AB33" s="166"/>
+      <c r="AC33" s="166"/>
+      <c r="AD33" s="166"/>
+      <c r="AE33" s="167"/>
     </row>
     <row r="34" spans="1:31" ht="15" customHeight="1">
-      <c r="A34" s="168"/>
-      <c r="B34" s="169"/>
-      <c r="C34" s="169"/>
-      <c r="D34" s="169"/>
-      <c r="E34" s="169"/>
-      <c r="F34" s="169"/>
-      <c r="G34" s="169"/>
-      <c r="H34" s="169"/>
-      <c r="I34" s="169"/>
-      <c r="J34" s="169"/>
-      <c r="K34" s="169"/>
-      <c r="L34" s="169"/>
-      <c r="M34" s="169"/>
-      <c r="N34" s="170"/>
+      <c r="A34" s="241"/>
+      <c r="B34" s="242"/>
+      <c r="C34" s="242"/>
+      <c r="D34" s="242"/>
+      <c r="E34" s="242"/>
+      <c r="F34" s="242"/>
+      <c r="G34" s="242"/>
+      <c r="H34" s="242"/>
+      <c r="I34" s="242"/>
+      <c r="J34" s="242"/>
+      <c r="K34" s="242"/>
+      <c r="L34" s="242"/>
+      <c r="M34" s="242"/>
+      <c r="N34" s="243"/>
       <c r="O34" s="110"/>
-      <c r="P34" s="186" t="s">
+      <c r="P34" s="168" t="s">
         <v>49</v>
       </c>
-      <c r="Q34" s="187"/>
-      <c r="R34" s="187"/>
-      <c r="S34" s="187"/>
-      <c r="T34" s="187"/>
-      <c r="U34" s="187"/>
-      <c r="V34" s="174"/>
-      <c r="W34" s="174"/>
-      <c r="X34" s="177" t="s">
+      <c r="Q34" s="169"/>
+      <c r="R34" s="169"/>
+      <c r="S34" s="169"/>
+      <c r="T34" s="169"/>
+      <c r="U34" s="169"/>
+      <c r="V34" s="166"/>
+      <c r="W34" s="166"/>
+      <c r="X34" s="164" t="s">
         <v>107</v>
       </c>
-      <c r="Y34" s="177"/>
-      <c r="Z34" s="177"/>
-      <c r="AA34" s="177"/>
-      <c r="AB34" s="177"/>
-      <c r="AC34" s="177"/>
-      <c r="AD34" s="177"/>
-      <c r="AE34" s="247"/>
+      <c r="Y34" s="164"/>
+      <c r="Z34" s="164"/>
+      <c r="AA34" s="164"/>
+      <c r="AB34" s="164"/>
+      <c r="AC34" s="164"/>
+      <c r="AD34" s="164"/>
+      <c r="AE34" s="165"/>
     </row>
     <row r="35" spans="1:31" ht="15" customHeight="1">
-      <c r="A35" s="168"/>
-      <c r="B35" s="169"/>
-      <c r="C35" s="169"/>
-      <c r="D35" s="169"/>
-      <c r="E35" s="169"/>
-      <c r="F35" s="169"/>
-      <c r="G35" s="169"/>
-      <c r="H35" s="169"/>
-      <c r="I35" s="169"/>
-      <c r="J35" s="169"/>
-      <c r="K35" s="169"/>
-      <c r="L35" s="169"/>
-      <c r="M35" s="169"/>
-      <c r="N35" s="170"/>
+      <c r="A35" s="241"/>
+      <c r="B35" s="242"/>
+      <c r="C35" s="242"/>
+      <c r="D35" s="242"/>
+      <c r="E35" s="242"/>
+      <c r="F35" s="242"/>
+      <c r="G35" s="242"/>
+      <c r="H35" s="242"/>
+      <c r="I35" s="242"/>
+      <c r="J35" s="242"/>
+      <c r="K35" s="242"/>
+      <c r="L35" s="242"/>
+      <c r="M35" s="242"/>
+      <c r="N35" s="243"/>
       <c r="O35" s="110"/>
-      <c r="P35" s="186" t="s">
+      <c r="P35" s="168" t="s">
         <v>52</v>
       </c>
-      <c r="Q35" s="187"/>
-      <c r="R35" s="187"/>
-      <c r="S35" s="187"/>
-      <c r="T35" s="187"/>
-      <c r="U35" s="187"/>
-      <c r="V35" s="174"/>
-      <c r="W35" s="174"/>
-      <c r="X35" s="177" t="s">
+      <c r="Q35" s="169"/>
+      <c r="R35" s="169"/>
+      <c r="S35" s="169"/>
+      <c r="T35" s="169"/>
+      <c r="U35" s="169"/>
+      <c r="V35" s="166"/>
+      <c r="W35" s="166"/>
+      <c r="X35" s="164" t="s">
         <v>108</v>
       </c>
-      <c r="Y35" s="177"/>
-      <c r="Z35" s="177"/>
-      <c r="AA35" s="177"/>
-      <c r="AB35" s="177"/>
-      <c r="AC35" s="177"/>
-      <c r="AD35" s="174"/>
-      <c r="AE35" s="214"/>
+      <c r="Y35" s="164"/>
+      <c r="Z35" s="164"/>
+      <c r="AA35" s="164"/>
+      <c r="AB35" s="164"/>
+      <c r="AC35" s="164"/>
+      <c r="AD35" s="166"/>
+      <c r="AE35" s="167"/>
     </row>
     <row r="36" spans="1:31" ht="15" customHeight="1">
-      <c r="A36" s="168" t="s">
+      <c r="A36" s="241" t="s">
         <v>103</v>
       </c>
-      <c r="B36" s="169"/>
-      <c r="C36" s="169"/>
-      <c r="D36" s="169"/>
-      <c r="E36" s="169"/>
-      <c r="F36" s="169"/>
-      <c r="G36" s="169"/>
-      <c r="H36" s="169"/>
-      <c r="I36" s="169"/>
-      <c r="J36" s="169"/>
-      <c r="K36" s="169"/>
-      <c r="L36" s="169"/>
-      <c r="M36" s="169"/>
-      <c r="N36" s="170"/>
+      <c r="B36" s="242"/>
+      <c r="C36" s="242"/>
+      <c r="D36" s="242"/>
+      <c r="E36" s="242"/>
+      <c r="F36" s="242"/>
+      <c r="G36" s="242"/>
+      <c r="H36" s="242"/>
+      <c r="I36" s="242"/>
+      <c r="J36" s="242"/>
+      <c r="K36" s="242"/>
+      <c r="L36" s="242"/>
+      <c r="M36" s="242"/>
+      <c r="N36" s="243"/>
       <c r="O36" s="110"/>
-      <c r="P36" s="186" t="s">
+      <c r="P36" s="168" t="s">
         <v>53</v>
       </c>
-      <c r="Q36" s="187"/>
-      <c r="R36" s="187"/>
-      <c r="S36" s="187"/>
-      <c r="T36" s="187"/>
-      <c r="U36" s="187"/>
-      <c r="V36" s="174"/>
-      <c r="W36" s="174"/>
-      <c r="X36" s="177"/>
-      <c r="Y36" s="177"/>
-      <c r="Z36" s="177"/>
-      <c r="AA36" s="177"/>
-      <c r="AB36" s="177"/>
-      <c r="AC36" s="177"/>
-      <c r="AD36" s="174"/>
-      <c r="AE36" s="214"/>
+      <c r="Q36" s="169"/>
+      <c r="R36" s="169"/>
+      <c r="S36" s="169"/>
+      <c r="T36" s="169"/>
+      <c r="U36" s="169"/>
+      <c r="V36" s="166"/>
+      <c r="W36" s="166"/>
+      <c r="X36" s="164"/>
+      <c r="Y36" s="164"/>
+      <c r="Z36" s="164"/>
+      <c r="AA36" s="164"/>
+      <c r="AB36" s="164"/>
+      <c r="AC36" s="164"/>
+      <c r="AD36" s="166"/>
+      <c r="AE36" s="167"/>
     </row>
     <row r="37" spans="1:31" ht="15" customHeight="1">
-      <c r="A37" s="168"/>
-      <c r="B37" s="169"/>
-      <c r="C37" s="169"/>
-      <c r="D37" s="169"/>
-      <c r="E37" s="169"/>
-      <c r="F37" s="169"/>
-      <c r="G37" s="169"/>
-      <c r="H37" s="169"/>
-      <c r="I37" s="169"/>
-      <c r="J37" s="169"/>
-      <c r="K37" s="169"/>
-      <c r="L37" s="169"/>
-      <c r="M37" s="169"/>
-      <c r="N37" s="170"/>
+      <c r="A37" s="241"/>
+      <c r="B37" s="242"/>
+      <c r="C37" s="242"/>
+      <c r="D37" s="242"/>
+      <c r="E37" s="242"/>
+      <c r="F37" s="242"/>
+      <c r="G37" s="242"/>
+      <c r="H37" s="242"/>
+      <c r="I37" s="242"/>
+      <c r="J37" s="242"/>
+      <c r="K37" s="242"/>
+      <c r="L37" s="242"/>
+      <c r="M37" s="242"/>
+      <c r="N37" s="243"/>
       <c r="O37" s="110"/>
-      <c r="P37" s="186" t="s">
+      <c r="P37" s="168" t="s">
         <v>59</v>
       </c>
-      <c r="Q37" s="187"/>
-      <c r="R37" s="187"/>
-      <c r="S37" s="187"/>
-      <c r="T37" s="187"/>
-      <c r="U37" s="187"/>
-      <c r="V37" s="209"/>
-      <c r="W37" s="209"/>
-      <c r="X37" s="177" t="s">
+      <c r="Q37" s="169"/>
+      <c r="R37" s="169"/>
+      <c r="S37" s="169"/>
+      <c r="T37" s="169"/>
+      <c r="U37" s="169"/>
+      <c r="V37" s="170"/>
+      <c r="W37" s="170"/>
+      <c r="X37" s="164" t="s">
         <v>104</v>
       </c>
-      <c r="Y37" s="177"/>
-      <c r="Z37" s="209"/>
-      <c r="AA37" s="209"/>
-      <c r="AB37" s="174"/>
-      <c r="AC37" s="174"/>
-      <c r="AD37" s="174"/>
-      <c r="AE37" s="214"/>
+      <c r="Y37" s="164"/>
+      <c r="Z37" s="170"/>
+      <c r="AA37" s="170"/>
+      <c r="AB37" s="166"/>
+      <c r="AC37" s="166"/>
+      <c r="AD37" s="166"/>
+      <c r="AE37" s="167"/>
     </row>
     <row r="38" spans="1:31" ht="15" customHeight="1">
-      <c r="A38" s="168"/>
-      <c r="B38" s="169"/>
-      <c r="C38" s="169"/>
-      <c r="D38" s="169"/>
-      <c r="E38" s="169"/>
-      <c r="F38" s="169"/>
-      <c r="G38" s="169"/>
-      <c r="H38" s="169"/>
-      <c r="I38" s="169"/>
-      <c r="J38" s="169"/>
-      <c r="K38" s="169"/>
-      <c r="L38" s="169"/>
-      <c r="M38" s="169"/>
-      <c r="N38" s="170"/>
+      <c r="A38" s="241"/>
+      <c r="B38" s="242"/>
+      <c r="C38" s="242"/>
+      <c r="D38" s="242"/>
+      <c r="E38" s="242"/>
+      <c r="F38" s="242"/>
+      <c r="G38" s="242"/>
+      <c r="H38" s="242"/>
+      <c r="I38" s="242"/>
+      <c r="J38" s="242"/>
+      <c r="K38" s="242"/>
+      <c r="L38" s="242"/>
+      <c r="M38" s="242"/>
+      <c r="N38" s="243"/>
       <c r="O38" s="110"/>
-      <c r="P38" s="186" t="s">
+      <c r="P38" s="168" t="s">
         <v>54</v>
       </c>
-      <c r="Q38" s="187"/>
-      <c r="R38" s="187"/>
-      <c r="S38" s="187"/>
-      <c r="T38" s="187"/>
-      <c r="U38" s="187"/>
-      <c r="V38" s="174"/>
-      <c r="W38" s="174"/>
-      <c r="X38" s="177" t="s">
+      <c r="Q38" s="169"/>
+      <c r="R38" s="169"/>
+      <c r="S38" s="169"/>
+      <c r="T38" s="169"/>
+      <c r="U38" s="169"/>
+      <c r="V38" s="166"/>
+      <c r="W38" s="166"/>
+      <c r="X38" s="164" t="s">
         <v>109</v>
       </c>
-      <c r="Y38" s="177"/>
-      <c r="Z38" s="174"/>
-      <c r="AA38" s="174"/>
-      <c r="AB38" s="174"/>
-      <c r="AC38" s="174"/>
-      <c r="AD38" s="174"/>
-      <c r="AE38" s="214"/>
+      <c r="Y38" s="164"/>
+      <c r="Z38" s="166"/>
+      <c r="AA38" s="166"/>
+      <c r="AB38" s="166"/>
+      <c r="AC38" s="166"/>
+      <c r="AD38" s="166"/>
+      <c r="AE38" s="167"/>
     </row>
     <row r="39" spans="1:31" ht="15" customHeight="1" thickBot="1">
-      <c r="A39" s="171"/>
-      <c r="B39" s="172"/>
-      <c r="C39" s="172"/>
-      <c r="D39" s="172"/>
-      <c r="E39" s="172"/>
-      <c r="F39" s="172"/>
-      <c r="G39" s="172"/>
-      <c r="H39" s="172"/>
-      <c r="I39" s="172"/>
-      <c r="J39" s="172"/>
-      <c r="K39" s="172"/>
-      <c r="L39" s="172"/>
-      <c r="M39" s="172"/>
-      <c r="N39" s="173"/>
+      <c r="A39" s="244"/>
+      <c r="B39" s="245"/>
+      <c r="C39" s="245"/>
+      <c r="D39" s="245"/>
+      <c r="E39" s="245"/>
+      <c r="F39" s="245"/>
+      <c r="G39" s="245"/>
+      <c r="H39" s="245"/>
+      <c r="I39" s="245"/>
+      <c r="J39" s="245"/>
+      <c r="K39" s="245"/>
+      <c r="L39" s="245"/>
+      <c r="M39" s="245"/>
+      <c r="N39" s="246"/>
       <c r="O39" s="110"/>
-      <c r="P39" s="237" t="s">
+      <c r="P39" s="198" t="s">
         <v>57</v>
       </c>
-      <c r="Q39" s="238"/>
-      <c r="R39" s="238"/>
-      <c r="S39" s="238"/>
-      <c r="T39" s="238"/>
-      <c r="U39" s="238"/>
-      <c r="V39" s="239"/>
-      <c r="W39" s="239"/>
-      <c r="X39" s="206"/>
-      <c r="Y39" s="206"/>
-      <c r="Z39" s="206"/>
-      <c r="AA39" s="206"/>
-      <c r="AB39" s="206"/>
-      <c r="AC39" s="206"/>
-      <c r="AD39" s="206"/>
-      <c r="AE39" s="215"/>
+      <c r="Q39" s="199"/>
+      <c r="R39" s="199"/>
+      <c r="S39" s="199"/>
+      <c r="T39" s="199"/>
+      <c r="U39" s="199"/>
+      <c r="V39" s="200"/>
+      <c r="W39" s="200"/>
+      <c r="X39" s="174"/>
+      <c r="Y39" s="174"/>
+      <c r="Z39" s="174"/>
+      <c r="AA39" s="174"/>
+      <c r="AB39" s="174"/>
+      <c r="AC39" s="174"/>
+      <c r="AD39" s="174"/>
+      <c r="AE39" s="175"/>
     </row>
     <row r="40" spans="1:31" ht="9.75" customHeight="1" thickBot="1">
       <c r="A40" s="77"/>
@@ -6138,34 +5967,34 @@
       <c r="C41" s="120"/>
       <c r="D41" s="121"/>
       <c r="E41" s="110"/>
-      <c r="F41" s="163" t="s">
+      <c r="F41" s="238" t="s">
         <v>38</v>
       </c>
-      <c r="G41" s="164"/>
-      <c r="H41" s="164"/>
-      <c r="I41" s="164"/>
-      <c r="J41" s="164"/>
-      <c r="K41" s="164"/>
-      <c r="L41" s="164"/>
-      <c r="M41" s="164"/>
-      <c r="N41" s="164"/>
-      <c r="O41" s="164"/>
-      <c r="P41" s="164"/>
-      <c r="Q41" s="164"/>
-      <c r="R41" s="164"/>
-      <c r="S41" s="164"/>
-      <c r="T41" s="164"/>
-      <c r="U41" s="164"/>
-      <c r="V41" s="164"/>
-      <c r="W41" s="164"/>
-      <c r="X41" s="164"/>
-      <c r="Y41" s="164"/>
-      <c r="Z41" s="164"/>
-      <c r="AA41" s="164"/>
-      <c r="AB41" s="164"/>
-      <c r="AC41" s="164"/>
-      <c r="AD41" s="164"/>
-      <c r="AE41" s="165"/>
+      <c r="G41" s="239"/>
+      <c r="H41" s="239"/>
+      <c r="I41" s="239"/>
+      <c r="J41" s="239"/>
+      <c r="K41" s="239"/>
+      <c r="L41" s="239"/>
+      <c r="M41" s="239"/>
+      <c r="N41" s="239"/>
+      <c r="O41" s="239"/>
+      <c r="P41" s="239"/>
+      <c r="Q41" s="239"/>
+      <c r="R41" s="239"/>
+      <c r="S41" s="239"/>
+      <c r="T41" s="239"/>
+      <c r="U41" s="239"/>
+      <c r="V41" s="239"/>
+      <c r="W41" s="239"/>
+      <c r="X41" s="239"/>
+      <c r="Y41" s="239"/>
+      <c r="Z41" s="239"/>
+      <c r="AA41" s="239"/>
+      <c r="AB41" s="239"/>
+      <c r="AC41" s="239"/>
+      <c r="AD41" s="239"/>
+      <c r="AE41" s="240"/>
     </row>
     <row r="42" spans="1:31" ht="15" customHeight="1" thickBot="1">
       <c r="A42" s="73"/>
@@ -6175,47 +6004,49 @@
       </c>
       <c r="D42" s="75"/>
       <c r="E42" s="110"/>
-      <c r="F42" s="188" t="s">
+      <c r="F42" s="172" t="s">
         <v>0</v>
       </c>
-      <c r="G42" s="189"/>
-      <c r="H42" s="189"/>
-      <c r="I42" s="188" t="s">
+      <c r="G42" s="173"/>
+      <c r="H42" s="173"/>
+      <c r="I42" s="172" t="s">
         <v>42</v>
       </c>
-      <c r="J42" s="189"/>
-      <c r="K42" s="189"/>
-      <c r="L42" s="189"/>
-      <c r="M42" s="189"/>
-      <c r="N42" s="189"/>
-      <c r="O42" s="189"/>
-      <c r="P42" s="189"/>
-      <c r="Q42" s="188" t="s">
+      <c r="J42" s="173"/>
+      <c r="K42" s="173"/>
+      <c r="L42" s="173"/>
+      <c r="M42" s="173"/>
+      <c r="N42" s="173"/>
+      <c r="O42" s="173"/>
+      <c r="P42" s="173"/>
+      <c r="Q42" s="172" t="s">
         <v>43</v>
       </c>
-      <c r="R42" s="189"/>
-      <c r="S42" s="203"/>
-      <c r="T42" s="189" t="s">
+      <c r="R42" s="173"/>
+      <c r="S42" s="215"/>
+      <c r="T42" s="173" t="s">
         <v>44</v>
       </c>
-      <c r="U42" s="189"/>
-      <c r="V42" s="189"/>
-      <c r="W42" s="189"/>
-      <c r="X42" s="189"/>
-      <c r="Y42" s="189"/>
-      <c r="Z42" s="189"/>
-      <c r="AA42" s="189"/>
-      <c r="AB42" s="189"/>
-      <c r="AC42" s="189"/>
-      <c r="AD42" s="189"/>
-      <c r="AE42" s="204"/>
+      <c r="U42" s="173"/>
+      <c r="V42" s="173"/>
+      <c r="W42" s="173"/>
+      <c r="X42" s="173"/>
+      <c r="Y42" s="173"/>
+      <c r="Z42" s="173"/>
+      <c r="AA42" s="173"/>
+      <c r="AB42" s="173"/>
+      <c r="AC42" s="173"/>
+      <c r="AD42" s="173"/>
+      <c r="AE42" s="176"/>
     </row>
     <row r="43" spans="1:31" ht="15" customHeight="1">
       <c r="A43" s="76" t="s">
         <v>48</v>
       </c>
       <c r="B43" s="77"/>
-      <c r="C43" s="77"/>
+      <c r="C43" s="77" t="s">
+        <v>171</v>
+      </c>
       <c r="D43" s="78"/>
       <c r="E43" s="110"/>
       <c r="F43" s="122"/>
@@ -6250,7 +6081,9 @@
         <v>15</v>
       </c>
       <c r="B44" s="77"/>
-      <c r="C44" s="77"/>
+      <c r="C44" s="77" t="s">
+        <v>170</v>
+      </c>
       <c r="D44" s="78"/>
       <c r="E44" s="110"/>
       <c r="F44" s="126"/>
@@ -6349,148 +6182,148 @@
       <c r="AE46" s="110"/>
     </row>
     <row r="47" spans="1:31" s="64" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A47" s="231" t="s">
+      <c r="A47" s="192" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="232"/>
-      <c r="C47" s="233"/>
-      <c r="D47" s="190" t="s">
+      <c r="B47" s="193"/>
+      <c r="C47" s="194"/>
+      <c r="D47" s="228" t="s">
         <v>149</v>
       </c>
-      <c r="E47" s="191"/>
-      <c r="F47" s="161" t="s">
+      <c r="E47" s="229"/>
+      <c r="F47" s="212" t="s">
         <v>145</v>
       </c>
-      <c r="G47" s="162"/>
-      <c r="H47" s="161" t="s">
+      <c r="G47" s="213"/>
+      <c r="H47" s="212" t="s">
         <v>133</v>
       </c>
-      <c r="I47" s="162"/>
-      <c r="J47" s="161" t="s">
+      <c r="I47" s="213"/>
+      <c r="J47" s="212" t="s">
         <v>134</v>
       </c>
-      <c r="K47" s="162"/>
-      <c r="L47" s="161" t="s">
+      <c r="K47" s="213"/>
+      <c r="L47" s="212" t="s">
         <v>135</v>
       </c>
-      <c r="M47" s="162"/>
-      <c r="N47" s="161" t="s">
+      <c r="M47" s="213"/>
+      <c r="N47" s="212" t="s">
         <v>136</v>
       </c>
-      <c r="O47" s="162"/>
-      <c r="P47" s="161" t="s">
+      <c r="O47" s="213"/>
+      <c r="P47" s="212" t="s">
         <v>137</v>
       </c>
-      <c r="Q47" s="162"/>
-      <c r="R47" s="161" t="s">
+      <c r="Q47" s="213"/>
+      <c r="R47" s="212" t="s">
         <v>138</v>
       </c>
-      <c r="S47" s="162"/>
-      <c r="T47" s="161" t="s">
+      <c r="S47" s="213"/>
+      <c r="T47" s="212" t="s">
         <v>139</v>
       </c>
-      <c r="U47" s="162"/>
-      <c r="V47" s="161" t="s">
+      <c r="U47" s="213"/>
+      <c r="V47" s="212" t="s">
         <v>140</v>
       </c>
-      <c r="W47" s="162"/>
-      <c r="X47" s="161" t="s">
+      <c r="W47" s="213"/>
+      <c r="X47" s="212" t="s">
         <v>141</v>
       </c>
-      <c r="Y47" s="162"/>
-      <c r="Z47" s="161" t="s">
+      <c r="Y47" s="213"/>
+      <c r="Z47" s="212" t="s">
         <v>142</v>
       </c>
-      <c r="AA47" s="162"/>
-      <c r="AB47" s="161" t="s">
+      <c r="AA47" s="213"/>
+      <c r="AB47" s="212" t="s">
         <v>143</v>
       </c>
-      <c r="AC47" s="162"/>
-      <c r="AD47" s="161" t="s">
+      <c r="AC47" s="213"/>
+      <c r="AD47" s="212" t="s">
         <v>144</v>
       </c>
-      <c r="AE47" s="162"/>
+      <c r="AE47" s="213"/>
     </row>
     <row r="48" spans="1:31" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A48" s="234" t="s">
+      <c r="A48" s="195" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="235"/>
-      <c r="C48" s="236"/>
-      <c r="D48" s="167" t="s">
+      <c r="B48" s="196"/>
+      <c r="C48" s="197"/>
+      <c r="D48" s="209" t="s">
         <v>111</v>
       </c>
-      <c r="E48" s="167"/>
-      <c r="F48" s="167"/>
-      <c r="G48" s="167"/>
-      <c r="H48" s="166"/>
-      <c r="I48" s="166"/>
-      <c r="J48" s="166"/>
-      <c r="K48" s="166"/>
-      <c r="L48" s="166"/>
-      <c r="M48" s="166"/>
-      <c r="N48" s="167"/>
-      <c r="O48" s="167"/>
-      <c r="P48" s="166"/>
-      <c r="Q48" s="166"/>
-      <c r="R48" s="166"/>
-      <c r="S48" s="166"/>
-      <c r="T48" s="166"/>
-      <c r="U48" s="166"/>
-      <c r="V48" s="167"/>
-      <c r="W48" s="167"/>
-      <c r="X48" s="166"/>
-      <c r="Y48" s="166"/>
-      <c r="Z48" s="166"/>
-      <c r="AA48" s="166"/>
-      <c r="AB48" s="166"/>
-      <c r="AC48" s="166"/>
-      <c r="AD48" s="167"/>
-      <c r="AE48" s="208"/>
+      <c r="E48" s="209"/>
+      <c r="F48" s="209"/>
+      <c r="G48" s="209"/>
+      <c r="H48" s="211"/>
+      <c r="I48" s="211"/>
+      <c r="J48" s="211"/>
+      <c r="K48" s="211"/>
+      <c r="L48" s="211"/>
+      <c r="M48" s="211"/>
+      <c r="N48" s="209"/>
+      <c r="O48" s="209"/>
+      <c r="P48" s="211"/>
+      <c r="Q48" s="211"/>
+      <c r="R48" s="211"/>
+      <c r="S48" s="211"/>
+      <c r="T48" s="211"/>
+      <c r="U48" s="211"/>
+      <c r="V48" s="209"/>
+      <c r="W48" s="209"/>
+      <c r="X48" s="211"/>
+      <c r="Y48" s="211"/>
+      <c r="Z48" s="211"/>
+      <c r="AA48" s="211"/>
+      <c r="AB48" s="211"/>
+      <c r="AC48" s="211"/>
+      <c r="AD48" s="209"/>
+      <c r="AE48" s="210"/>
     </row>
     <row r="49" spans="1:31" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A49" s="222" t="s">
+      <c r="A49" s="183" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="223"/>
-      <c r="C49" s="224"/>
-      <c r="D49" s="195" t="s">
+      <c r="B49" s="184"/>
+      <c r="C49" s="185"/>
+      <c r="D49" s="171" t="s">
         <v>110</v>
       </c>
-      <c r="E49" s="195"/>
-      <c r="F49" s="195"/>
-      <c r="G49" s="195"/>
-      <c r="H49" s="195"/>
-      <c r="I49" s="195"/>
-      <c r="J49" s="195"/>
-      <c r="K49" s="195"/>
-      <c r="L49" s="195"/>
-      <c r="M49" s="195"/>
-      <c r="N49" s="195"/>
-      <c r="O49" s="195"/>
-      <c r="P49" s="195"/>
-      <c r="Q49" s="195"/>
-      <c r="R49" s="195"/>
-      <c r="S49" s="195"/>
-      <c r="T49" s="195"/>
-      <c r="U49" s="195"/>
-      <c r="V49" s="195"/>
-      <c r="W49" s="195"/>
-      <c r="X49" s="195"/>
-      <c r="Y49" s="195"/>
-      <c r="Z49" s="195"/>
-      <c r="AA49" s="195"/>
-      <c r="AB49" s="195"/>
-      <c r="AC49" s="195"/>
-      <c r="AD49" s="195"/>
-      <c r="AE49" s="207"/>
+      <c r="E49" s="171"/>
+      <c r="F49" s="171"/>
+      <c r="G49" s="171"/>
+      <c r="H49" s="171"/>
+      <c r="I49" s="171"/>
+      <c r="J49" s="171"/>
+      <c r="K49" s="171"/>
+      <c r="L49" s="171"/>
+      <c r="M49" s="171"/>
+      <c r="N49" s="171"/>
+      <c r="O49" s="171"/>
+      <c r="P49" s="171"/>
+      <c r="Q49" s="171"/>
+      <c r="R49" s="171"/>
+      <c r="S49" s="171"/>
+      <c r="T49" s="171"/>
+      <c r="U49" s="171"/>
+      <c r="V49" s="171"/>
+      <c r="W49" s="171"/>
+      <c r="X49" s="171"/>
+      <c r="Y49" s="171"/>
+      <c r="Z49" s="171"/>
+      <c r="AA49" s="171"/>
+      <c r="AB49" s="171"/>
+      <c r="AC49" s="171"/>
+      <c r="AD49" s="171"/>
+      <c r="AE49" s="208"/>
     </row>
     <row r="50" spans="1:31" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A50" s="222" t="s">
+      <c r="A50" s="183" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="223"/>
-      <c r="C50" s="224"/>
+      <c r="B50" s="184"/>
+      <c r="C50" s="185"/>
       <c r="D50" s="67"/>
       <c r="E50" s="68"/>
       <c r="F50" s="67"/>
@@ -6521,185 +6354,185 @@
       <c r="AE50" s="85"/>
     </row>
     <row r="51" spans="1:31" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A51" s="222" t="s">
+      <c r="A51" s="183" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="223"/>
-      <c r="C51" s="224"/>
-      <c r="D51" s="193"/>
-      <c r="E51" s="193"/>
-      <c r="F51" s="192"/>
-      <c r="G51" s="192"/>
-      <c r="H51" s="192"/>
-      <c r="I51" s="192"/>
-      <c r="J51" s="192"/>
-      <c r="K51" s="192"/>
-      <c r="L51" s="192"/>
-      <c r="M51" s="192"/>
-      <c r="N51" s="192"/>
-      <c r="O51" s="192"/>
-      <c r="P51" s="192"/>
-      <c r="Q51" s="192"/>
-      <c r="R51" s="192"/>
-      <c r="S51" s="192"/>
-      <c r="T51" s="192"/>
-      <c r="U51" s="192"/>
-      <c r="V51" s="192"/>
-      <c r="W51" s="192"/>
-      <c r="X51" s="192"/>
-      <c r="Y51" s="192"/>
-      <c r="Z51" s="192"/>
-      <c r="AA51" s="192"/>
-      <c r="AB51" s="192"/>
-      <c r="AC51" s="192"/>
-      <c r="AD51" s="192"/>
-      <c r="AE51" s="205"/>
+      <c r="B51" s="184"/>
+      <c r="C51" s="185"/>
+      <c r="D51" s="220"/>
+      <c r="E51" s="220"/>
+      <c r="F51" s="206"/>
+      <c r="G51" s="206"/>
+      <c r="H51" s="206"/>
+      <c r="I51" s="206"/>
+      <c r="J51" s="206"/>
+      <c r="K51" s="206"/>
+      <c r="L51" s="206"/>
+      <c r="M51" s="206"/>
+      <c r="N51" s="206"/>
+      <c r="O51" s="206"/>
+      <c r="P51" s="206"/>
+      <c r="Q51" s="206"/>
+      <c r="R51" s="206"/>
+      <c r="S51" s="206"/>
+      <c r="T51" s="206"/>
+      <c r="U51" s="206"/>
+      <c r="V51" s="206"/>
+      <c r="W51" s="206"/>
+      <c r="X51" s="206"/>
+      <c r="Y51" s="206"/>
+      <c r="Z51" s="206"/>
+      <c r="AA51" s="206"/>
+      <c r="AB51" s="206"/>
+      <c r="AC51" s="206"/>
+      <c r="AD51" s="206"/>
+      <c r="AE51" s="207"/>
     </row>
     <row r="52" spans="1:31" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A52" s="222" t="s">
+      <c r="A52" s="183" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="223"/>
-      <c r="C52" s="224"/>
-      <c r="D52" s="195"/>
-      <c r="E52" s="195"/>
-      <c r="F52" s="192"/>
-      <c r="G52" s="192"/>
-      <c r="H52" s="192"/>
-      <c r="I52" s="192"/>
-      <c r="J52" s="192"/>
-      <c r="K52" s="192"/>
-      <c r="L52" s="192"/>
-      <c r="M52" s="192"/>
-      <c r="N52" s="192"/>
-      <c r="O52" s="192"/>
-      <c r="P52" s="192"/>
-      <c r="Q52" s="192"/>
-      <c r="R52" s="192"/>
-      <c r="S52" s="192"/>
-      <c r="T52" s="192"/>
-      <c r="U52" s="192"/>
-      <c r="V52" s="192"/>
-      <c r="W52" s="192"/>
-      <c r="X52" s="192"/>
-      <c r="Y52" s="192"/>
-      <c r="Z52" s="192"/>
-      <c r="AA52" s="192"/>
-      <c r="AB52" s="192"/>
-      <c r="AC52" s="192"/>
-      <c r="AD52" s="192"/>
-      <c r="AE52" s="205"/>
+      <c r="B52" s="184"/>
+      <c r="C52" s="185"/>
+      <c r="D52" s="171"/>
+      <c r="E52" s="171"/>
+      <c r="F52" s="206"/>
+      <c r="G52" s="206"/>
+      <c r="H52" s="206"/>
+      <c r="I52" s="206"/>
+      <c r="J52" s="206"/>
+      <c r="K52" s="206"/>
+      <c r="L52" s="206"/>
+      <c r="M52" s="206"/>
+      <c r="N52" s="206"/>
+      <c r="O52" s="206"/>
+      <c r="P52" s="206"/>
+      <c r="Q52" s="206"/>
+      <c r="R52" s="206"/>
+      <c r="S52" s="206"/>
+      <c r="T52" s="206"/>
+      <c r="U52" s="206"/>
+      <c r="V52" s="206"/>
+      <c r="W52" s="206"/>
+      <c r="X52" s="206"/>
+      <c r="Y52" s="206"/>
+      <c r="Z52" s="206"/>
+      <c r="AA52" s="206"/>
+      <c r="AB52" s="206"/>
+      <c r="AC52" s="206"/>
+      <c r="AD52" s="206"/>
+      <c r="AE52" s="207"/>
     </row>
     <row r="53" spans="1:31" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A53" s="222" t="s">
+      <c r="A53" s="183" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="223"/>
-      <c r="C53" s="224"/>
-      <c r="D53" s="195" t="s">
+      <c r="B53" s="184"/>
+      <c r="C53" s="185"/>
+      <c r="D53" s="171" t="s">
         <v>100</v>
       </c>
-      <c r="E53" s="195"/>
-      <c r="F53" s="195"/>
-      <c r="G53" s="195"/>
-      <c r="H53" s="195"/>
-      <c r="I53" s="195"/>
-      <c r="J53" s="195"/>
-      <c r="K53" s="195"/>
-      <c r="L53" s="195"/>
-      <c r="M53" s="195"/>
-      <c r="N53" s="195"/>
-      <c r="O53" s="195"/>
-      <c r="P53" s="195"/>
-      <c r="Q53" s="195"/>
-      <c r="R53" s="195"/>
-      <c r="S53" s="195"/>
-      <c r="T53" s="195"/>
-      <c r="U53" s="195"/>
-      <c r="V53" s="195"/>
-      <c r="W53" s="195"/>
-      <c r="X53" s="195"/>
-      <c r="Y53" s="195"/>
-      <c r="Z53" s="195"/>
-      <c r="AA53" s="195"/>
-      <c r="AB53" s="195"/>
-      <c r="AC53" s="195"/>
-      <c r="AD53" s="195"/>
-      <c r="AE53" s="195"/>
+      <c r="E53" s="171"/>
+      <c r="F53" s="171"/>
+      <c r="G53" s="171"/>
+      <c r="H53" s="171"/>
+      <c r="I53" s="171"/>
+      <c r="J53" s="171"/>
+      <c r="K53" s="171"/>
+      <c r="L53" s="171"/>
+      <c r="M53" s="171"/>
+      <c r="N53" s="171"/>
+      <c r="O53" s="171"/>
+      <c r="P53" s="171"/>
+      <c r="Q53" s="171"/>
+      <c r="R53" s="171"/>
+      <c r="S53" s="171"/>
+      <c r="T53" s="171"/>
+      <c r="U53" s="171"/>
+      <c r="V53" s="171"/>
+      <c r="W53" s="171"/>
+      <c r="X53" s="171"/>
+      <c r="Y53" s="171"/>
+      <c r="Z53" s="171"/>
+      <c r="AA53" s="171"/>
+      <c r="AB53" s="171"/>
+      <c r="AC53" s="171"/>
+      <c r="AD53" s="171"/>
+      <c r="AE53" s="171"/>
     </row>
     <row r="54" spans="1:31" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
-      <c r="A54" s="225" t="s">
+      <c r="A54" s="186" t="s">
         <v>24</v>
       </c>
-      <c r="B54" s="226"/>
-      <c r="C54" s="227"/>
-      <c r="D54" s="194" t="s">
+      <c r="B54" s="187"/>
+      <c r="C54" s="188"/>
+      <c r="D54" s="204" t="s">
         <v>112</v>
       </c>
-      <c r="E54" s="194"/>
-      <c r="F54" s="194"/>
-      <c r="G54" s="194"/>
-      <c r="H54" s="194"/>
-      <c r="I54" s="194"/>
-      <c r="J54" s="194"/>
-      <c r="K54" s="194"/>
-      <c r="L54" s="194"/>
-      <c r="M54" s="194"/>
-      <c r="N54" s="194"/>
-      <c r="O54" s="194"/>
-      <c r="P54" s="194"/>
-      <c r="Q54" s="194"/>
-      <c r="R54" s="194"/>
-      <c r="S54" s="194"/>
-      <c r="T54" s="194"/>
-      <c r="U54" s="194"/>
-      <c r="V54" s="194"/>
-      <c r="W54" s="194"/>
-      <c r="X54" s="194"/>
-      <c r="Y54" s="194"/>
-      <c r="Z54" s="194"/>
-      <c r="AA54" s="194"/>
-      <c r="AB54" s="194"/>
-      <c r="AC54" s="194"/>
-      <c r="AD54" s="194"/>
-      <c r="AE54" s="202"/>
+      <c r="E54" s="204"/>
+      <c r="F54" s="204"/>
+      <c r="G54" s="204"/>
+      <c r="H54" s="204"/>
+      <c r="I54" s="204"/>
+      <c r="J54" s="204"/>
+      <c r="K54" s="204"/>
+      <c r="L54" s="204"/>
+      <c r="M54" s="204"/>
+      <c r="N54" s="204"/>
+      <c r="O54" s="204"/>
+      <c r="P54" s="204"/>
+      <c r="Q54" s="204"/>
+      <c r="R54" s="204"/>
+      <c r="S54" s="204"/>
+      <c r="T54" s="204"/>
+      <c r="U54" s="204"/>
+      <c r="V54" s="204"/>
+      <c r="W54" s="204"/>
+      <c r="X54" s="204"/>
+      <c r="Y54" s="204"/>
+      <c r="Z54" s="204"/>
+      <c r="AA54" s="204"/>
+      <c r="AB54" s="204"/>
+      <c r="AC54" s="204"/>
+      <c r="AD54" s="204"/>
+      <c r="AE54" s="205"/>
     </row>
     <row r="55" spans="1:31" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
-      <c r="A55" s="228" t="s">
+      <c r="A55" s="189" t="s">
         <v>69</v>
       </c>
-      <c r="B55" s="229"/>
-      <c r="C55" s="230"/>
-      <c r="D55" s="194" t="s">
+      <c r="B55" s="190"/>
+      <c r="C55" s="191"/>
+      <c r="D55" s="204" t="s">
         <v>117</v>
       </c>
-      <c r="E55" s="194"/>
-      <c r="F55" s="194"/>
-      <c r="G55" s="194"/>
-      <c r="H55" s="194"/>
-      <c r="I55" s="194"/>
-      <c r="J55" s="194"/>
-      <c r="K55" s="194"/>
-      <c r="L55" s="194"/>
-      <c r="M55" s="194"/>
-      <c r="N55" s="194"/>
-      <c r="O55" s="194"/>
+      <c r="E55" s="204"/>
+      <c r="F55" s="204"/>
+      <c r="G55" s="204"/>
+      <c r="H55" s="204"/>
+      <c r="I55" s="204"/>
+      <c r="J55" s="204"/>
+      <c r="K55" s="204"/>
+      <c r="L55" s="204"/>
+      <c r="M55" s="204"/>
+      <c r="N55" s="204"/>
+      <c r="O55" s="204"/>
       <c r="P55" s="130"/>
       <c r="Q55" s="130"/>
-      <c r="R55" s="194"/>
-      <c r="S55" s="194"/>
+      <c r="R55" s="204"/>
+      <c r="S55" s="204"/>
       <c r="T55" s="130"/>
       <c r="U55" s="130"/>
-      <c r="V55" s="194"/>
-      <c r="W55" s="194"/>
+      <c r="V55" s="204"/>
+      <c r="W55" s="204"/>
       <c r="X55" s="130"/>
       <c r="Y55" s="130"/>
-      <c r="Z55" s="194"/>
-      <c r="AA55" s="194"/>
+      <c r="Z55" s="204"/>
+      <c r="AA55" s="204"/>
       <c r="AB55" s="130"/>
       <c r="AC55" s="130"/>
-      <c r="AD55" s="194"/>
-      <c r="AE55" s="202"/>
+      <c r="AD55" s="204"/>
+      <c r="AE55" s="205"/>
     </row>
     <row r="56" spans="1:31" s="7" customFormat="1" ht="6.75" customHeight="1">
       <c r="A56" s="131"/>
@@ -6770,1324 +6603,1324 @@
       <c r="AE57" s="131"/>
     </row>
     <row r="58" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A58" s="188"/>
-      <c r="B58" s="189"/>
-      <c r="C58" s="204"/>
-      <c r="D58" s="196"/>
-      <c r="E58" s="197"/>
-      <c r="F58" s="197"/>
-      <c r="G58" s="197"/>
-      <c r="H58" s="197"/>
-      <c r="I58" s="197"/>
-      <c r="J58" s="197"/>
-      <c r="K58" s="197"/>
-      <c r="L58" s="197"/>
-      <c r="M58" s="197"/>
-      <c r="N58" s="197"/>
-      <c r="O58" s="197"/>
-      <c r="P58" s="197"/>
-      <c r="Q58" s="197"/>
-      <c r="R58" s="197"/>
-      <c r="S58" s="197"/>
-      <c r="T58" s="197"/>
-      <c r="U58" s="197"/>
-      <c r="V58" s="197"/>
-      <c r="W58" s="197"/>
-      <c r="X58" s="197"/>
-      <c r="Y58" s="197"/>
-      <c r="Z58" s="197"/>
-      <c r="AA58" s="197"/>
-      <c r="AB58" s="197"/>
-      <c r="AC58" s="197"/>
-      <c r="AD58" s="197"/>
-      <c r="AE58" s="197"/>
+      <c r="A58" s="172"/>
+      <c r="B58" s="173"/>
+      <c r="C58" s="176"/>
+      <c r="D58" s="218"/>
+      <c r="E58" s="214"/>
+      <c r="F58" s="214"/>
+      <c r="G58" s="214"/>
+      <c r="H58" s="214"/>
+      <c r="I58" s="214"/>
+      <c r="J58" s="214"/>
+      <c r="K58" s="214"/>
+      <c r="L58" s="214"/>
+      <c r="M58" s="214"/>
+      <c r="N58" s="214"/>
+      <c r="O58" s="214"/>
+      <c r="P58" s="214"/>
+      <c r="Q58" s="214"/>
+      <c r="R58" s="214"/>
+      <c r="S58" s="214"/>
+      <c r="T58" s="214"/>
+      <c r="U58" s="214"/>
+      <c r="V58" s="214"/>
+      <c r="W58" s="214"/>
+      <c r="X58" s="214"/>
+      <c r="Y58" s="214"/>
+      <c r="Z58" s="214"/>
+      <c r="AA58" s="214"/>
+      <c r="AB58" s="214"/>
+      <c r="AC58" s="214"/>
+      <c r="AD58" s="214"/>
+      <c r="AE58" s="214"/>
     </row>
     <row r="59" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A59" s="216"/>
-      <c r="B59" s="217"/>
-      <c r="C59" s="218"/>
-      <c r="D59" s="199"/>
-      <c r="E59" s="200"/>
-      <c r="F59" s="200"/>
-      <c r="G59" s="200"/>
-      <c r="H59" s="200"/>
-      <c r="I59" s="200"/>
-      <c r="J59" s="200"/>
-      <c r="K59" s="200"/>
-      <c r="L59" s="200"/>
-      <c r="M59" s="200"/>
-      <c r="N59" s="200"/>
-      <c r="O59" s="200"/>
-      <c r="P59" s="200"/>
-      <c r="Q59" s="200"/>
-      <c r="R59" s="200"/>
-      <c r="S59" s="200"/>
-      <c r="T59" s="200"/>
-      <c r="U59" s="200"/>
-      <c r="V59" s="200"/>
-      <c r="W59" s="200"/>
-      <c r="X59" s="200"/>
-      <c r="Y59" s="200"/>
-      <c r="Z59" s="200"/>
-      <c r="AA59" s="200"/>
-      <c r="AB59" s="200"/>
-      <c r="AC59" s="200"/>
-      <c r="AD59" s="200"/>
-      <c r="AE59" s="200"/>
+      <c r="A59" s="177"/>
+      <c r="B59" s="178"/>
+      <c r="C59" s="179"/>
+      <c r="D59" s="217"/>
+      <c r="E59" s="203"/>
+      <c r="F59" s="203"/>
+      <c r="G59" s="203"/>
+      <c r="H59" s="203"/>
+      <c r="I59" s="203"/>
+      <c r="J59" s="203"/>
+      <c r="K59" s="203"/>
+      <c r="L59" s="203"/>
+      <c r="M59" s="203"/>
+      <c r="N59" s="203"/>
+      <c r="O59" s="203"/>
+      <c r="P59" s="203"/>
+      <c r="Q59" s="203"/>
+      <c r="R59" s="203"/>
+      <c r="S59" s="203"/>
+      <c r="T59" s="203"/>
+      <c r="U59" s="203"/>
+      <c r="V59" s="203"/>
+      <c r="W59" s="203"/>
+      <c r="X59" s="203"/>
+      <c r="Y59" s="203"/>
+      <c r="Z59" s="203"/>
+      <c r="AA59" s="203"/>
+      <c r="AB59" s="203"/>
+      <c r="AC59" s="203"/>
+      <c r="AD59" s="203"/>
+      <c r="AE59" s="203"/>
     </row>
     <row r="60" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A60" s="216"/>
-      <c r="B60" s="217"/>
-      <c r="C60" s="218"/>
-      <c r="D60" s="199"/>
-      <c r="E60" s="200"/>
-      <c r="F60" s="200"/>
-      <c r="G60" s="200"/>
-      <c r="H60" s="200"/>
-      <c r="I60" s="200"/>
-      <c r="J60" s="200"/>
-      <c r="K60" s="200"/>
-      <c r="L60" s="200"/>
-      <c r="M60" s="200"/>
-      <c r="N60" s="200"/>
-      <c r="O60" s="200"/>
-      <c r="P60" s="200"/>
-      <c r="Q60" s="200"/>
-      <c r="R60" s="200"/>
-      <c r="S60" s="200"/>
-      <c r="T60" s="200"/>
-      <c r="U60" s="200"/>
-      <c r="V60" s="200"/>
-      <c r="W60" s="200"/>
-      <c r="X60" s="200"/>
-      <c r="Y60" s="200"/>
-      <c r="Z60" s="200"/>
-      <c r="AA60" s="200"/>
-      <c r="AB60" s="200"/>
-      <c r="AC60" s="200"/>
-      <c r="AD60" s="200"/>
-      <c r="AE60" s="200"/>
+      <c r="A60" s="177"/>
+      <c r="B60" s="178"/>
+      <c r="C60" s="179"/>
+      <c r="D60" s="217"/>
+      <c r="E60" s="203"/>
+      <c r="F60" s="203"/>
+      <c r="G60" s="203"/>
+      <c r="H60" s="203"/>
+      <c r="I60" s="203"/>
+      <c r="J60" s="203"/>
+      <c r="K60" s="203"/>
+      <c r="L60" s="203"/>
+      <c r="M60" s="203"/>
+      <c r="N60" s="203"/>
+      <c r="O60" s="203"/>
+      <c r="P60" s="203"/>
+      <c r="Q60" s="203"/>
+      <c r="R60" s="203"/>
+      <c r="S60" s="203"/>
+      <c r="T60" s="203"/>
+      <c r="U60" s="203"/>
+      <c r="V60" s="203"/>
+      <c r="W60" s="203"/>
+      <c r="X60" s="203"/>
+      <c r="Y60" s="203"/>
+      <c r="Z60" s="203"/>
+      <c r="AA60" s="203"/>
+      <c r="AB60" s="203"/>
+      <c r="AC60" s="203"/>
+      <c r="AD60" s="203"/>
+      <c r="AE60" s="203"/>
     </row>
     <row r="61" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A61" s="216"/>
-      <c r="B61" s="217"/>
-      <c r="C61" s="218"/>
-      <c r="D61" s="199"/>
-      <c r="E61" s="200"/>
-      <c r="F61" s="200"/>
-      <c r="G61" s="200"/>
-      <c r="H61" s="200"/>
-      <c r="I61" s="200"/>
-      <c r="J61" s="200"/>
-      <c r="K61" s="200"/>
-      <c r="L61" s="200"/>
-      <c r="M61" s="200"/>
-      <c r="N61" s="200"/>
-      <c r="O61" s="200"/>
-      <c r="P61" s="200"/>
-      <c r="Q61" s="200"/>
-      <c r="R61" s="200"/>
-      <c r="S61" s="200"/>
-      <c r="T61" s="200"/>
-      <c r="U61" s="200"/>
-      <c r="V61" s="200"/>
-      <c r="W61" s="200"/>
-      <c r="X61" s="200"/>
-      <c r="Y61" s="200"/>
-      <c r="Z61" s="200"/>
-      <c r="AA61" s="200"/>
-      <c r="AB61" s="200"/>
-      <c r="AC61" s="200"/>
-      <c r="AD61" s="200"/>
-      <c r="AE61" s="200"/>
+      <c r="A61" s="177"/>
+      <c r="B61" s="178"/>
+      <c r="C61" s="179"/>
+      <c r="D61" s="217"/>
+      <c r="E61" s="203"/>
+      <c r="F61" s="203"/>
+      <c r="G61" s="203"/>
+      <c r="H61" s="203"/>
+      <c r="I61" s="203"/>
+      <c r="J61" s="203"/>
+      <c r="K61" s="203"/>
+      <c r="L61" s="203"/>
+      <c r="M61" s="203"/>
+      <c r="N61" s="203"/>
+      <c r="O61" s="203"/>
+      <c r="P61" s="203"/>
+      <c r="Q61" s="203"/>
+      <c r="R61" s="203"/>
+      <c r="S61" s="203"/>
+      <c r="T61" s="203"/>
+      <c r="U61" s="203"/>
+      <c r="V61" s="203"/>
+      <c r="W61" s="203"/>
+      <c r="X61" s="203"/>
+      <c r="Y61" s="203"/>
+      <c r="Z61" s="203"/>
+      <c r="AA61" s="203"/>
+      <c r="AB61" s="203"/>
+      <c r="AC61" s="203"/>
+      <c r="AD61" s="203"/>
+      <c r="AE61" s="203"/>
     </row>
     <row r="62" spans="1:31" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A62" s="219"/>
-      <c r="B62" s="220"/>
-      <c r="C62" s="221"/>
-      <c r="D62" s="201"/>
-      <c r="E62" s="198"/>
-      <c r="F62" s="198"/>
-      <c r="G62" s="198"/>
-      <c r="H62" s="198"/>
-      <c r="I62" s="198"/>
-      <c r="J62" s="198"/>
-      <c r="K62" s="198"/>
-      <c r="L62" s="198"/>
-      <c r="M62" s="198"/>
-      <c r="N62" s="198"/>
-      <c r="O62" s="198"/>
-      <c r="P62" s="198"/>
-      <c r="Q62" s="198"/>
-      <c r="R62" s="198"/>
-      <c r="S62" s="198"/>
-      <c r="T62" s="198"/>
-      <c r="U62" s="198"/>
-      <c r="V62" s="198"/>
-      <c r="W62" s="198"/>
-      <c r="X62" s="198"/>
-      <c r="Y62" s="198"/>
-      <c r="Z62" s="198"/>
-      <c r="AA62" s="198"/>
-      <c r="AB62" s="198"/>
-      <c r="AC62" s="198"/>
-      <c r="AD62" s="198"/>
-      <c r="AE62" s="198"/>
+      <c r="A62" s="180"/>
+      <c r="B62" s="181"/>
+      <c r="C62" s="182"/>
+      <c r="D62" s="219"/>
+      <c r="E62" s="216"/>
+      <c r="F62" s="216"/>
+      <c r="G62" s="216"/>
+      <c r="H62" s="216"/>
+      <c r="I62" s="216"/>
+      <c r="J62" s="216"/>
+      <c r="K62" s="216"/>
+      <c r="L62" s="216"/>
+      <c r="M62" s="216"/>
+      <c r="N62" s="216"/>
+      <c r="O62" s="216"/>
+      <c r="P62" s="216"/>
+      <c r="Q62" s="216"/>
+      <c r="R62" s="216"/>
+      <c r="S62" s="216"/>
+      <c r="T62" s="216"/>
+      <c r="U62" s="216"/>
+      <c r="V62" s="216"/>
+      <c r="W62" s="216"/>
+      <c r="X62" s="216"/>
+      <c r="Y62" s="216"/>
+      <c r="Z62" s="216"/>
+      <c r="AA62" s="216"/>
+      <c r="AB62" s="216"/>
+      <c r="AC62" s="216"/>
+      <c r="AD62" s="216"/>
+      <c r="AE62" s="216"/>
     </row>
     <row r="63" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A63" s="188"/>
-      <c r="B63" s="189"/>
-      <c r="C63" s="204"/>
-      <c r="D63" s="196"/>
-      <c r="E63" s="197"/>
-      <c r="F63" s="197"/>
-      <c r="G63" s="197"/>
-      <c r="H63" s="197"/>
-      <c r="I63" s="197"/>
-      <c r="J63" s="197"/>
-      <c r="K63" s="197"/>
-      <c r="L63" s="197"/>
-      <c r="M63" s="197"/>
-      <c r="N63" s="197"/>
-      <c r="O63" s="197"/>
-      <c r="P63" s="197"/>
-      <c r="Q63" s="197"/>
-      <c r="R63" s="197"/>
-      <c r="S63" s="197"/>
-      <c r="T63" s="197"/>
-      <c r="U63" s="197"/>
-      <c r="V63" s="197"/>
-      <c r="W63" s="197"/>
-      <c r="X63" s="197"/>
-      <c r="Y63" s="197"/>
-      <c r="Z63" s="197"/>
-      <c r="AA63" s="197"/>
-      <c r="AB63" s="197"/>
-      <c r="AC63" s="197"/>
-      <c r="AD63" s="197"/>
-      <c r="AE63" s="197"/>
+      <c r="A63" s="172"/>
+      <c r="B63" s="173"/>
+      <c r="C63" s="176"/>
+      <c r="D63" s="218"/>
+      <c r="E63" s="214"/>
+      <c r="F63" s="214"/>
+      <c r="G63" s="214"/>
+      <c r="H63" s="214"/>
+      <c r="I63" s="214"/>
+      <c r="J63" s="214"/>
+      <c r="K63" s="214"/>
+      <c r="L63" s="214"/>
+      <c r="M63" s="214"/>
+      <c r="N63" s="214"/>
+      <c r="O63" s="214"/>
+      <c r="P63" s="214"/>
+      <c r="Q63" s="214"/>
+      <c r="R63" s="214"/>
+      <c r="S63" s="214"/>
+      <c r="T63" s="214"/>
+      <c r="U63" s="214"/>
+      <c r="V63" s="214"/>
+      <c r="W63" s="214"/>
+      <c r="X63" s="214"/>
+      <c r="Y63" s="214"/>
+      <c r="Z63" s="214"/>
+      <c r="AA63" s="214"/>
+      <c r="AB63" s="214"/>
+      <c r="AC63" s="214"/>
+      <c r="AD63" s="214"/>
+      <c r="AE63" s="214"/>
     </row>
     <row r="64" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A64" s="216"/>
-      <c r="B64" s="217"/>
-      <c r="C64" s="218"/>
-      <c r="D64" s="199"/>
-      <c r="E64" s="200"/>
-      <c r="F64" s="200"/>
-      <c r="G64" s="200"/>
-      <c r="H64" s="200"/>
-      <c r="I64" s="200"/>
-      <c r="J64" s="200"/>
-      <c r="K64" s="200"/>
-      <c r="L64" s="200"/>
-      <c r="M64" s="200"/>
-      <c r="N64" s="200"/>
-      <c r="O64" s="200"/>
-      <c r="P64" s="200"/>
-      <c r="Q64" s="200"/>
-      <c r="R64" s="200"/>
-      <c r="S64" s="200"/>
-      <c r="T64" s="200"/>
-      <c r="U64" s="200"/>
-      <c r="V64" s="200"/>
-      <c r="W64" s="200"/>
-      <c r="X64" s="200"/>
-      <c r="Y64" s="200"/>
-      <c r="Z64" s="200"/>
-      <c r="AA64" s="200"/>
-      <c r="AB64" s="200"/>
-      <c r="AC64" s="200"/>
-      <c r="AD64" s="200"/>
-      <c r="AE64" s="200"/>
+      <c r="A64" s="177"/>
+      <c r="B64" s="178"/>
+      <c r="C64" s="179"/>
+      <c r="D64" s="217"/>
+      <c r="E64" s="203"/>
+      <c r="F64" s="203"/>
+      <c r="G64" s="203"/>
+      <c r="H64" s="203"/>
+      <c r="I64" s="203"/>
+      <c r="J64" s="203"/>
+      <c r="K64" s="203"/>
+      <c r="L64" s="203"/>
+      <c r="M64" s="203"/>
+      <c r="N64" s="203"/>
+      <c r="O64" s="203"/>
+      <c r="P64" s="203"/>
+      <c r="Q64" s="203"/>
+      <c r="R64" s="203"/>
+      <c r="S64" s="203"/>
+      <c r="T64" s="203"/>
+      <c r="U64" s="203"/>
+      <c r="V64" s="203"/>
+      <c r="W64" s="203"/>
+      <c r="X64" s="203"/>
+      <c r="Y64" s="203"/>
+      <c r="Z64" s="203"/>
+      <c r="AA64" s="203"/>
+      <c r="AB64" s="203"/>
+      <c r="AC64" s="203"/>
+      <c r="AD64" s="203"/>
+      <c r="AE64" s="203"/>
     </row>
     <row r="65" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A65" s="216"/>
-      <c r="B65" s="217"/>
-      <c r="C65" s="218"/>
-      <c r="D65" s="199"/>
-      <c r="E65" s="200"/>
-      <c r="F65" s="200"/>
-      <c r="G65" s="200"/>
-      <c r="H65" s="200"/>
-      <c r="I65" s="200"/>
-      <c r="J65" s="200"/>
-      <c r="K65" s="200"/>
-      <c r="L65" s="200"/>
-      <c r="M65" s="200"/>
-      <c r="N65" s="200"/>
-      <c r="O65" s="200"/>
-      <c r="P65" s="200"/>
-      <c r="Q65" s="200"/>
-      <c r="R65" s="200"/>
-      <c r="S65" s="200"/>
-      <c r="T65" s="200"/>
-      <c r="U65" s="200"/>
-      <c r="V65" s="200"/>
-      <c r="W65" s="200"/>
-      <c r="X65" s="200"/>
-      <c r="Y65" s="200"/>
-      <c r="Z65" s="200"/>
-      <c r="AA65" s="200"/>
-      <c r="AB65" s="200"/>
-      <c r="AC65" s="200"/>
-      <c r="AD65" s="200"/>
-      <c r="AE65" s="200"/>
+      <c r="A65" s="177"/>
+      <c r="B65" s="178"/>
+      <c r="C65" s="179"/>
+      <c r="D65" s="217"/>
+      <c r="E65" s="203"/>
+      <c r="F65" s="203"/>
+      <c r="G65" s="203"/>
+      <c r="H65" s="203"/>
+      <c r="I65" s="203"/>
+      <c r="J65" s="203"/>
+      <c r="K65" s="203"/>
+      <c r="L65" s="203"/>
+      <c r="M65" s="203"/>
+      <c r="N65" s="203"/>
+      <c r="O65" s="203"/>
+      <c r="P65" s="203"/>
+      <c r="Q65" s="203"/>
+      <c r="R65" s="203"/>
+      <c r="S65" s="203"/>
+      <c r="T65" s="203"/>
+      <c r="U65" s="203"/>
+      <c r="V65" s="203"/>
+      <c r="W65" s="203"/>
+      <c r="X65" s="203"/>
+      <c r="Y65" s="203"/>
+      <c r="Z65" s="203"/>
+      <c r="AA65" s="203"/>
+      <c r="AB65" s="203"/>
+      <c r="AC65" s="203"/>
+      <c r="AD65" s="203"/>
+      <c r="AE65" s="203"/>
     </row>
     <row r="66" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A66" s="216"/>
-      <c r="B66" s="217"/>
-      <c r="C66" s="218"/>
-      <c r="D66" s="199"/>
-      <c r="E66" s="200"/>
-      <c r="F66" s="200"/>
-      <c r="G66" s="200"/>
-      <c r="H66" s="200"/>
-      <c r="I66" s="200"/>
-      <c r="J66" s="200"/>
-      <c r="K66" s="200"/>
-      <c r="L66" s="200"/>
-      <c r="M66" s="200"/>
-      <c r="N66" s="200"/>
-      <c r="O66" s="200"/>
-      <c r="P66" s="200"/>
-      <c r="Q66" s="200"/>
-      <c r="R66" s="200"/>
-      <c r="S66" s="200"/>
-      <c r="T66" s="200"/>
-      <c r="U66" s="200"/>
-      <c r="V66" s="200"/>
-      <c r="W66" s="200"/>
-      <c r="X66" s="200"/>
-      <c r="Y66" s="200"/>
-      <c r="Z66" s="200"/>
-      <c r="AA66" s="200"/>
-      <c r="AB66" s="200"/>
-      <c r="AC66" s="200"/>
-      <c r="AD66" s="200"/>
-      <c r="AE66" s="200"/>
+      <c r="A66" s="177"/>
+      <c r="B66" s="178"/>
+      <c r="C66" s="179"/>
+      <c r="D66" s="217"/>
+      <c r="E66" s="203"/>
+      <c r="F66" s="203"/>
+      <c r="G66" s="203"/>
+      <c r="H66" s="203"/>
+      <c r="I66" s="203"/>
+      <c r="J66" s="203"/>
+      <c r="K66" s="203"/>
+      <c r="L66" s="203"/>
+      <c r="M66" s="203"/>
+      <c r="N66" s="203"/>
+      <c r="O66" s="203"/>
+      <c r="P66" s="203"/>
+      <c r="Q66" s="203"/>
+      <c r="R66" s="203"/>
+      <c r="S66" s="203"/>
+      <c r="T66" s="203"/>
+      <c r="U66" s="203"/>
+      <c r="V66" s="203"/>
+      <c r="W66" s="203"/>
+      <c r="X66" s="203"/>
+      <c r="Y66" s="203"/>
+      <c r="Z66" s="203"/>
+      <c r="AA66" s="203"/>
+      <c r="AB66" s="203"/>
+      <c r="AC66" s="203"/>
+      <c r="AD66" s="203"/>
+      <c r="AE66" s="203"/>
     </row>
     <row r="67" spans="1:31" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A67" s="219"/>
-      <c r="B67" s="220"/>
-      <c r="C67" s="221"/>
-      <c r="D67" s="201"/>
-      <c r="E67" s="198"/>
-      <c r="F67" s="198"/>
-      <c r="G67" s="198"/>
-      <c r="H67" s="198"/>
-      <c r="I67" s="198"/>
-      <c r="J67" s="198"/>
-      <c r="K67" s="198"/>
-      <c r="L67" s="198"/>
-      <c r="M67" s="198"/>
-      <c r="N67" s="198"/>
-      <c r="O67" s="198"/>
-      <c r="P67" s="198"/>
-      <c r="Q67" s="198"/>
-      <c r="R67" s="198"/>
-      <c r="S67" s="198"/>
-      <c r="T67" s="198"/>
-      <c r="U67" s="198"/>
-      <c r="V67" s="198"/>
-      <c r="W67" s="198"/>
-      <c r="X67" s="198"/>
-      <c r="Y67" s="198"/>
-      <c r="Z67" s="198"/>
-      <c r="AA67" s="198"/>
-      <c r="AB67" s="198"/>
-      <c r="AC67" s="198"/>
-      <c r="AD67" s="198"/>
-      <c r="AE67" s="198"/>
+      <c r="A67" s="180"/>
+      <c r="B67" s="181"/>
+      <c r="C67" s="182"/>
+      <c r="D67" s="219"/>
+      <c r="E67" s="216"/>
+      <c r="F67" s="216"/>
+      <c r="G67" s="216"/>
+      <c r="H67" s="216"/>
+      <c r="I67" s="216"/>
+      <c r="J67" s="216"/>
+      <c r="K67" s="216"/>
+      <c r="L67" s="216"/>
+      <c r="M67" s="216"/>
+      <c r="N67" s="216"/>
+      <c r="O67" s="216"/>
+      <c r="P67" s="216"/>
+      <c r="Q67" s="216"/>
+      <c r="R67" s="216"/>
+      <c r="S67" s="216"/>
+      <c r="T67" s="216"/>
+      <c r="U67" s="216"/>
+      <c r="V67" s="216"/>
+      <c r="W67" s="216"/>
+      <c r="X67" s="216"/>
+      <c r="Y67" s="216"/>
+      <c r="Z67" s="216"/>
+      <c r="AA67" s="216"/>
+      <c r="AB67" s="216"/>
+      <c r="AC67" s="216"/>
+      <c r="AD67" s="216"/>
+      <c r="AE67" s="216"/>
     </row>
     <row r="68" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A68" s="188"/>
-      <c r="B68" s="189"/>
-      <c r="C68" s="204"/>
-      <c r="D68" s="196"/>
-      <c r="E68" s="197"/>
-      <c r="F68" s="197"/>
-      <c r="G68" s="197"/>
-      <c r="H68" s="197"/>
-      <c r="I68" s="197"/>
-      <c r="J68" s="197"/>
-      <c r="K68" s="197"/>
-      <c r="L68" s="197"/>
-      <c r="M68" s="197"/>
-      <c r="N68" s="197"/>
-      <c r="O68" s="197"/>
-      <c r="P68" s="197"/>
-      <c r="Q68" s="197"/>
-      <c r="R68" s="197"/>
-      <c r="S68" s="197"/>
-      <c r="T68" s="197"/>
-      <c r="U68" s="197"/>
-      <c r="V68" s="197"/>
-      <c r="W68" s="197"/>
-      <c r="X68" s="197"/>
-      <c r="Y68" s="197"/>
-      <c r="Z68" s="197"/>
-      <c r="AA68" s="197"/>
-      <c r="AB68" s="197"/>
-      <c r="AC68" s="197"/>
-      <c r="AD68" s="197"/>
-      <c r="AE68" s="197"/>
+      <c r="A68" s="172"/>
+      <c r="B68" s="173"/>
+      <c r="C68" s="176"/>
+      <c r="D68" s="218"/>
+      <c r="E68" s="214"/>
+      <c r="F68" s="214"/>
+      <c r="G68" s="214"/>
+      <c r="H68" s="214"/>
+      <c r="I68" s="214"/>
+      <c r="J68" s="214"/>
+      <c r="K68" s="214"/>
+      <c r="L68" s="214"/>
+      <c r="M68" s="214"/>
+      <c r="N68" s="214"/>
+      <c r="O68" s="214"/>
+      <c r="P68" s="214"/>
+      <c r="Q68" s="214"/>
+      <c r="R68" s="214"/>
+      <c r="S68" s="214"/>
+      <c r="T68" s="214"/>
+      <c r="U68" s="214"/>
+      <c r="V68" s="214"/>
+      <c r="W68" s="214"/>
+      <c r="X68" s="214"/>
+      <c r="Y68" s="214"/>
+      <c r="Z68" s="214"/>
+      <c r="AA68" s="214"/>
+      <c r="AB68" s="214"/>
+      <c r="AC68" s="214"/>
+      <c r="AD68" s="214"/>
+      <c r="AE68" s="214"/>
     </row>
     <row r="69" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A69" s="216"/>
-      <c r="B69" s="217"/>
-      <c r="C69" s="218"/>
-      <c r="D69" s="199"/>
-      <c r="E69" s="200"/>
-      <c r="F69" s="200"/>
-      <c r="G69" s="200"/>
-      <c r="H69" s="200"/>
-      <c r="I69" s="200"/>
-      <c r="J69" s="200"/>
-      <c r="K69" s="200"/>
-      <c r="L69" s="200"/>
-      <c r="M69" s="200"/>
-      <c r="N69" s="200"/>
-      <c r="O69" s="200"/>
-      <c r="P69" s="200"/>
-      <c r="Q69" s="200"/>
-      <c r="R69" s="200"/>
-      <c r="S69" s="200"/>
-      <c r="T69" s="200"/>
-      <c r="U69" s="200"/>
-      <c r="V69" s="200"/>
-      <c r="W69" s="200"/>
-      <c r="X69" s="200"/>
-      <c r="Y69" s="200"/>
-      <c r="Z69" s="200"/>
-      <c r="AA69" s="200"/>
-      <c r="AB69" s="200"/>
-      <c r="AC69" s="200"/>
-      <c r="AD69" s="200"/>
-      <c r="AE69" s="200"/>
+      <c r="A69" s="177"/>
+      <c r="B69" s="178"/>
+      <c r="C69" s="179"/>
+      <c r="D69" s="217"/>
+      <c r="E69" s="203"/>
+      <c r="F69" s="203"/>
+      <c r="G69" s="203"/>
+      <c r="H69" s="203"/>
+      <c r="I69" s="203"/>
+      <c r="J69" s="203"/>
+      <c r="K69" s="203"/>
+      <c r="L69" s="203"/>
+      <c r="M69" s="203"/>
+      <c r="N69" s="203"/>
+      <c r="O69" s="203"/>
+      <c r="P69" s="203"/>
+      <c r="Q69" s="203"/>
+      <c r="R69" s="203"/>
+      <c r="S69" s="203"/>
+      <c r="T69" s="203"/>
+      <c r="U69" s="203"/>
+      <c r="V69" s="203"/>
+      <c r="W69" s="203"/>
+      <c r="X69" s="203"/>
+      <c r="Y69" s="203"/>
+      <c r="Z69" s="203"/>
+      <c r="AA69" s="203"/>
+      <c r="AB69" s="203"/>
+      <c r="AC69" s="203"/>
+      <c r="AD69" s="203"/>
+      <c r="AE69" s="203"/>
     </row>
     <row r="70" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A70" s="216"/>
-      <c r="B70" s="217"/>
-      <c r="C70" s="218"/>
-      <c r="D70" s="199"/>
-      <c r="E70" s="200"/>
-      <c r="F70" s="200"/>
-      <c r="G70" s="200"/>
-      <c r="H70" s="200"/>
-      <c r="I70" s="200"/>
-      <c r="J70" s="200"/>
-      <c r="K70" s="200"/>
-      <c r="L70" s="200"/>
-      <c r="M70" s="200"/>
-      <c r="N70" s="200"/>
-      <c r="O70" s="200"/>
-      <c r="P70" s="200"/>
-      <c r="Q70" s="200"/>
-      <c r="R70" s="200"/>
-      <c r="S70" s="200"/>
-      <c r="T70" s="200"/>
-      <c r="U70" s="200"/>
-      <c r="V70" s="200"/>
-      <c r="W70" s="200"/>
-      <c r="X70" s="200"/>
-      <c r="Y70" s="200"/>
-      <c r="Z70" s="200"/>
-      <c r="AA70" s="200"/>
-      <c r="AB70" s="200"/>
-      <c r="AC70" s="200"/>
-      <c r="AD70" s="200"/>
-      <c r="AE70" s="200"/>
+      <c r="A70" s="177"/>
+      <c r="B70" s="178"/>
+      <c r="C70" s="179"/>
+      <c r="D70" s="217"/>
+      <c r="E70" s="203"/>
+      <c r="F70" s="203"/>
+      <c r="G70" s="203"/>
+      <c r="H70" s="203"/>
+      <c r="I70" s="203"/>
+      <c r="J70" s="203"/>
+      <c r="K70" s="203"/>
+      <c r="L70" s="203"/>
+      <c r="M70" s="203"/>
+      <c r="N70" s="203"/>
+      <c r="O70" s="203"/>
+      <c r="P70" s="203"/>
+      <c r="Q70" s="203"/>
+      <c r="R70" s="203"/>
+      <c r="S70" s="203"/>
+      <c r="T70" s="203"/>
+      <c r="U70" s="203"/>
+      <c r="V70" s="203"/>
+      <c r="W70" s="203"/>
+      <c r="X70" s="203"/>
+      <c r="Y70" s="203"/>
+      <c r="Z70" s="203"/>
+      <c r="AA70" s="203"/>
+      <c r="AB70" s="203"/>
+      <c r="AC70" s="203"/>
+      <c r="AD70" s="203"/>
+      <c r="AE70" s="203"/>
     </row>
     <row r="71" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A71" s="216"/>
-      <c r="B71" s="217"/>
-      <c r="C71" s="218"/>
-      <c r="D71" s="199"/>
-      <c r="E71" s="200"/>
-      <c r="F71" s="200"/>
-      <c r="G71" s="200"/>
-      <c r="H71" s="200"/>
-      <c r="I71" s="200"/>
-      <c r="J71" s="200"/>
-      <c r="K71" s="200"/>
-      <c r="L71" s="200"/>
-      <c r="M71" s="200"/>
-      <c r="N71" s="200"/>
-      <c r="O71" s="200"/>
-      <c r="P71" s="200"/>
-      <c r="Q71" s="200"/>
-      <c r="R71" s="200"/>
-      <c r="S71" s="200"/>
-      <c r="T71" s="200"/>
-      <c r="U71" s="200"/>
-      <c r="V71" s="200"/>
-      <c r="W71" s="200"/>
-      <c r="X71" s="200"/>
-      <c r="Y71" s="200"/>
-      <c r="Z71" s="200"/>
-      <c r="AA71" s="200"/>
-      <c r="AB71" s="200"/>
-      <c r="AC71" s="200"/>
-      <c r="AD71" s="200"/>
-      <c r="AE71" s="200"/>
+      <c r="A71" s="177"/>
+      <c r="B71" s="178"/>
+      <c r="C71" s="179"/>
+      <c r="D71" s="217"/>
+      <c r="E71" s="203"/>
+      <c r="F71" s="203"/>
+      <c r="G71" s="203"/>
+      <c r="H71" s="203"/>
+      <c r="I71" s="203"/>
+      <c r="J71" s="203"/>
+      <c r="K71" s="203"/>
+      <c r="L71" s="203"/>
+      <c r="M71" s="203"/>
+      <c r="N71" s="203"/>
+      <c r="O71" s="203"/>
+      <c r="P71" s="203"/>
+      <c r="Q71" s="203"/>
+      <c r="R71" s="203"/>
+      <c r="S71" s="203"/>
+      <c r="T71" s="203"/>
+      <c r="U71" s="203"/>
+      <c r="V71" s="203"/>
+      <c r="W71" s="203"/>
+      <c r="X71" s="203"/>
+      <c r="Y71" s="203"/>
+      <c r="Z71" s="203"/>
+      <c r="AA71" s="203"/>
+      <c r="AB71" s="203"/>
+      <c r="AC71" s="203"/>
+      <c r="AD71" s="203"/>
+      <c r="AE71" s="203"/>
     </row>
     <row r="72" spans="1:31" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A72" s="219"/>
-      <c r="B72" s="220"/>
-      <c r="C72" s="221"/>
-      <c r="D72" s="201"/>
-      <c r="E72" s="198"/>
-      <c r="F72" s="198"/>
-      <c r="G72" s="198"/>
-      <c r="H72" s="198"/>
-      <c r="I72" s="198"/>
-      <c r="J72" s="198"/>
-      <c r="K72" s="198"/>
-      <c r="L72" s="198"/>
-      <c r="M72" s="198"/>
-      <c r="N72" s="198"/>
-      <c r="O72" s="198"/>
-      <c r="P72" s="198"/>
-      <c r="Q72" s="198"/>
-      <c r="R72" s="198"/>
-      <c r="S72" s="198"/>
-      <c r="T72" s="198"/>
-      <c r="U72" s="198"/>
-      <c r="V72" s="198"/>
-      <c r="W72" s="198"/>
-      <c r="X72" s="198"/>
-      <c r="Y72" s="198"/>
-      <c r="Z72" s="198"/>
-      <c r="AA72" s="198"/>
-      <c r="AB72" s="198"/>
-      <c r="AC72" s="198"/>
-      <c r="AD72" s="198"/>
-      <c r="AE72" s="198"/>
+      <c r="A72" s="180"/>
+      <c r="B72" s="181"/>
+      <c r="C72" s="182"/>
+      <c r="D72" s="219"/>
+      <c r="E72" s="216"/>
+      <c r="F72" s="216"/>
+      <c r="G72" s="216"/>
+      <c r="H72" s="216"/>
+      <c r="I72" s="216"/>
+      <c r="J72" s="216"/>
+      <c r="K72" s="216"/>
+      <c r="L72" s="216"/>
+      <c r="M72" s="216"/>
+      <c r="N72" s="216"/>
+      <c r="O72" s="216"/>
+      <c r="P72" s="216"/>
+      <c r="Q72" s="216"/>
+      <c r="R72" s="216"/>
+      <c r="S72" s="216"/>
+      <c r="T72" s="216"/>
+      <c r="U72" s="216"/>
+      <c r="V72" s="216"/>
+      <c r="W72" s="216"/>
+      <c r="X72" s="216"/>
+      <c r="Y72" s="216"/>
+      <c r="Z72" s="216"/>
+      <c r="AA72" s="216"/>
+      <c r="AB72" s="216"/>
+      <c r="AC72" s="216"/>
+      <c r="AD72" s="216"/>
+      <c r="AE72" s="216"/>
     </row>
     <row r="73" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A73" s="188"/>
-      <c r="B73" s="189"/>
-      <c r="C73" s="204"/>
-      <c r="D73" s="196"/>
-      <c r="E73" s="197"/>
-      <c r="F73" s="197"/>
-      <c r="G73" s="197"/>
-      <c r="H73" s="197"/>
-      <c r="I73" s="197"/>
-      <c r="J73" s="197"/>
-      <c r="K73" s="197"/>
-      <c r="L73" s="197"/>
-      <c r="M73" s="197"/>
-      <c r="N73" s="197"/>
-      <c r="O73" s="197"/>
-      <c r="P73" s="197"/>
-      <c r="Q73" s="197"/>
-      <c r="R73" s="197"/>
-      <c r="S73" s="197"/>
-      <c r="T73" s="197"/>
-      <c r="U73" s="197"/>
-      <c r="V73" s="197"/>
-      <c r="W73" s="197"/>
-      <c r="X73" s="197"/>
-      <c r="Y73" s="197"/>
-      <c r="Z73" s="197"/>
-      <c r="AA73" s="197"/>
-      <c r="AB73" s="197"/>
-      <c r="AC73" s="197"/>
-      <c r="AD73" s="197"/>
-      <c r="AE73" s="197"/>
+      <c r="A73" s="172"/>
+      <c r="B73" s="173"/>
+      <c r="C73" s="176"/>
+      <c r="D73" s="218"/>
+      <c r="E73" s="214"/>
+      <c r="F73" s="214"/>
+      <c r="G73" s="214"/>
+      <c r="H73" s="214"/>
+      <c r="I73" s="214"/>
+      <c r="J73" s="214"/>
+      <c r="K73" s="214"/>
+      <c r="L73" s="214"/>
+      <c r="M73" s="214"/>
+      <c r="N73" s="214"/>
+      <c r="O73" s="214"/>
+      <c r="P73" s="214"/>
+      <c r="Q73" s="214"/>
+      <c r="R73" s="214"/>
+      <c r="S73" s="214"/>
+      <c r="T73" s="214"/>
+      <c r="U73" s="214"/>
+      <c r="V73" s="214"/>
+      <c r="W73" s="214"/>
+      <c r="X73" s="214"/>
+      <c r="Y73" s="214"/>
+      <c r="Z73" s="214"/>
+      <c r="AA73" s="214"/>
+      <c r="AB73" s="214"/>
+      <c r="AC73" s="214"/>
+      <c r="AD73" s="214"/>
+      <c r="AE73" s="214"/>
     </row>
     <row r="74" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A74" s="216"/>
-      <c r="B74" s="217"/>
-      <c r="C74" s="218"/>
-      <c r="D74" s="199"/>
-      <c r="E74" s="200"/>
-      <c r="F74" s="200"/>
-      <c r="G74" s="200"/>
-      <c r="H74" s="200"/>
-      <c r="I74" s="200"/>
-      <c r="J74" s="200"/>
-      <c r="K74" s="200"/>
-      <c r="L74" s="200"/>
-      <c r="M74" s="200"/>
-      <c r="N74" s="200"/>
-      <c r="O74" s="200"/>
-      <c r="P74" s="200"/>
-      <c r="Q74" s="200"/>
-      <c r="R74" s="200"/>
-      <c r="S74" s="200"/>
-      <c r="T74" s="200"/>
-      <c r="U74" s="200"/>
-      <c r="V74" s="200"/>
-      <c r="W74" s="200"/>
-      <c r="X74" s="200"/>
-      <c r="Y74" s="200"/>
-      <c r="Z74" s="200"/>
-      <c r="AA74" s="200"/>
-      <c r="AB74" s="200"/>
-      <c r="AC74" s="200"/>
-      <c r="AD74" s="200"/>
-      <c r="AE74" s="200"/>
+      <c r="A74" s="177"/>
+      <c r="B74" s="178"/>
+      <c r="C74" s="179"/>
+      <c r="D74" s="217"/>
+      <c r="E74" s="203"/>
+      <c r="F74" s="203"/>
+      <c r="G74" s="203"/>
+      <c r="H74" s="203"/>
+      <c r="I74" s="203"/>
+      <c r="J74" s="203"/>
+      <c r="K74" s="203"/>
+      <c r="L74" s="203"/>
+      <c r="M74" s="203"/>
+      <c r="N74" s="203"/>
+      <c r="O74" s="203"/>
+      <c r="P74" s="203"/>
+      <c r="Q74" s="203"/>
+      <c r="R74" s="203"/>
+      <c r="S74" s="203"/>
+      <c r="T74" s="203"/>
+      <c r="U74" s="203"/>
+      <c r="V74" s="203"/>
+      <c r="W74" s="203"/>
+      <c r="X74" s="203"/>
+      <c r="Y74" s="203"/>
+      <c r="Z74" s="203"/>
+      <c r="AA74" s="203"/>
+      <c r="AB74" s="203"/>
+      <c r="AC74" s="203"/>
+      <c r="AD74" s="203"/>
+      <c r="AE74" s="203"/>
     </row>
     <row r="75" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A75" s="216"/>
-      <c r="B75" s="217"/>
-      <c r="C75" s="218"/>
-      <c r="D75" s="199"/>
-      <c r="E75" s="200"/>
-      <c r="F75" s="200"/>
-      <c r="G75" s="200"/>
-      <c r="H75" s="200"/>
-      <c r="I75" s="200"/>
-      <c r="J75" s="200"/>
-      <c r="K75" s="200"/>
-      <c r="L75" s="200"/>
-      <c r="M75" s="200"/>
-      <c r="N75" s="200"/>
-      <c r="O75" s="200"/>
-      <c r="P75" s="200"/>
-      <c r="Q75" s="200"/>
-      <c r="R75" s="200"/>
-      <c r="S75" s="200"/>
-      <c r="T75" s="200"/>
-      <c r="U75" s="200"/>
-      <c r="V75" s="200"/>
-      <c r="W75" s="200"/>
-      <c r="X75" s="200"/>
-      <c r="Y75" s="200"/>
-      <c r="Z75" s="200"/>
-      <c r="AA75" s="200"/>
-      <c r="AB75" s="200"/>
-      <c r="AC75" s="200"/>
-      <c r="AD75" s="200"/>
-      <c r="AE75" s="200"/>
+      <c r="A75" s="177"/>
+      <c r="B75" s="178"/>
+      <c r="C75" s="179"/>
+      <c r="D75" s="217"/>
+      <c r="E75" s="203"/>
+      <c r="F75" s="203"/>
+      <c r="G75" s="203"/>
+      <c r="H75" s="203"/>
+      <c r="I75" s="203"/>
+      <c r="J75" s="203"/>
+      <c r="K75" s="203"/>
+      <c r="L75" s="203"/>
+      <c r="M75" s="203"/>
+      <c r="N75" s="203"/>
+      <c r="O75" s="203"/>
+      <c r="P75" s="203"/>
+      <c r="Q75" s="203"/>
+      <c r="R75" s="203"/>
+      <c r="S75" s="203"/>
+      <c r="T75" s="203"/>
+      <c r="U75" s="203"/>
+      <c r="V75" s="203"/>
+      <c r="W75" s="203"/>
+      <c r="X75" s="203"/>
+      <c r="Y75" s="203"/>
+      <c r="Z75" s="203"/>
+      <c r="AA75" s="203"/>
+      <c r="AB75" s="203"/>
+      <c r="AC75" s="203"/>
+      <c r="AD75" s="203"/>
+      <c r="AE75" s="203"/>
     </row>
     <row r="76" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A76" s="216"/>
-      <c r="B76" s="217"/>
-      <c r="C76" s="218"/>
-      <c r="D76" s="199"/>
-      <c r="E76" s="200"/>
-      <c r="F76" s="200"/>
-      <c r="G76" s="200"/>
-      <c r="H76" s="200"/>
-      <c r="I76" s="200"/>
-      <c r="J76" s="200"/>
-      <c r="K76" s="200"/>
-      <c r="L76" s="200"/>
-      <c r="M76" s="200"/>
-      <c r="N76" s="200"/>
-      <c r="O76" s="200"/>
-      <c r="P76" s="200"/>
-      <c r="Q76" s="200"/>
-      <c r="R76" s="200"/>
-      <c r="S76" s="200"/>
-      <c r="T76" s="200"/>
-      <c r="U76" s="200"/>
-      <c r="V76" s="200"/>
-      <c r="W76" s="200"/>
-      <c r="X76" s="200"/>
-      <c r="Y76" s="200"/>
-      <c r="Z76" s="200"/>
-      <c r="AA76" s="200"/>
-      <c r="AB76" s="200"/>
-      <c r="AC76" s="200"/>
-      <c r="AD76" s="200"/>
-      <c r="AE76" s="200"/>
+      <c r="A76" s="177"/>
+      <c r="B76" s="178"/>
+      <c r="C76" s="179"/>
+      <c r="D76" s="217"/>
+      <c r="E76" s="203"/>
+      <c r="F76" s="203"/>
+      <c r="G76" s="203"/>
+      <c r="H76" s="203"/>
+      <c r="I76" s="203"/>
+      <c r="J76" s="203"/>
+      <c r="K76" s="203"/>
+      <c r="L76" s="203"/>
+      <c r="M76" s="203"/>
+      <c r="N76" s="203"/>
+      <c r="O76" s="203"/>
+      <c r="P76" s="203"/>
+      <c r="Q76" s="203"/>
+      <c r="R76" s="203"/>
+      <c r="S76" s="203"/>
+      <c r="T76" s="203"/>
+      <c r="U76" s="203"/>
+      <c r="V76" s="203"/>
+      <c r="W76" s="203"/>
+      <c r="X76" s="203"/>
+      <c r="Y76" s="203"/>
+      <c r="Z76" s="203"/>
+      <c r="AA76" s="203"/>
+      <c r="AB76" s="203"/>
+      <c r="AC76" s="203"/>
+      <c r="AD76" s="203"/>
+      <c r="AE76" s="203"/>
     </row>
     <row r="77" spans="1:31" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A77" s="219"/>
-      <c r="B77" s="220"/>
-      <c r="C77" s="221"/>
-      <c r="D77" s="201"/>
-      <c r="E77" s="198"/>
-      <c r="F77" s="198"/>
-      <c r="G77" s="198"/>
-      <c r="H77" s="198"/>
-      <c r="I77" s="198"/>
-      <c r="J77" s="198"/>
-      <c r="K77" s="198"/>
-      <c r="L77" s="198"/>
-      <c r="M77" s="198"/>
-      <c r="N77" s="198"/>
-      <c r="O77" s="198"/>
-      <c r="P77" s="198"/>
-      <c r="Q77" s="198"/>
-      <c r="R77" s="198"/>
-      <c r="S77" s="198"/>
-      <c r="T77" s="198"/>
-      <c r="U77" s="198"/>
-      <c r="V77" s="198"/>
-      <c r="W77" s="198"/>
-      <c r="X77" s="198"/>
-      <c r="Y77" s="198"/>
-      <c r="Z77" s="198"/>
-      <c r="AA77" s="198"/>
-      <c r="AB77" s="198"/>
-      <c r="AC77" s="198"/>
-      <c r="AD77" s="198"/>
-      <c r="AE77" s="198"/>
+      <c r="A77" s="180"/>
+      <c r="B77" s="181"/>
+      <c r="C77" s="182"/>
+      <c r="D77" s="219"/>
+      <c r="E77" s="216"/>
+      <c r="F77" s="216"/>
+      <c r="G77" s="216"/>
+      <c r="H77" s="216"/>
+      <c r="I77" s="216"/>
+      <c r="J77" s="216"/>
+      <c r="K77" s="216"/>
+      <c r="L77" s="216"/>
+      <c r="M77" s="216"/>
+      <c r="N77" s="216"/>
+      <c r="O77" s="216"/>
+      <c r="P77" s="216"/>
+      <c r="Q77" s="216"/>
+      <c r="R77" s="216"/>
+      <c r="S77" s="216"/>
+      <c r="T77" s="216"/>
+      <c r="U77" s="216"/>
+      <c r="V77" s="216"/>
+      <c r="W77" s="216"/>
+      <c r="X77" s="216"/>
+      <c r="Y77" s="216"/>
+      <c r="Z77" s="216"/>
+      <c r="AA77" s="216"/>
+      <c r="AB77" s="216"/>
+      <c r="AC77" s="216"/>
+      <c r="AD77" s="216"/>
+      <c r="AE77" s="216"/>
     </row>
     <row r="78" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A78" s="188"/>
-      <c r="B78" s="189"/>
-      <c r="C78" s="204"/>
-      <c r="D78" s="196"/>
-      <c r="E78" s="197"/>
-      <c r="F78" s="197"/>
-      <c r="G78" s="197"/>
-      <c r="H78" s="197"/>
-      <c r="I78" s="197"/>
-      <c r="J78" s="197"/>
-      <c r="K78" s="197"/>
-      <c r="L78" s="197"/>
-      <c r="M78" s="197"/>
-      <c r="N78" s="197"/>
-      <c r="O78" s="197"/>
-      <c r="P78" s="197"/>
-      <c r="Q78" s="197"/>
-      <c r="R78" s="197"/>
-      <c r="S78" s="197"/>
-      <c r="T78" s="197"/>
-      <c r="U78" s="197"/>
-      <c r="V78" s="197"/>
-      <c r="W78" s="197"/>
-      <c r="X78" s="197"/>
-      <c r="Y78" s="197"/>
-      <c r="Z78" s="197"/>
-      <c r="AA78" s="197"/>
-      <c r="AB78" s="197"/>
-      <c r="AC78" s="197"/>
-      <c r="AD78" s="197"/>
-      <c r="AE78" s="197"/>
+      <c r="A78" s="172"/>
+      <c r="B78" s="173"/>
+      <c r="C78" s="176"/>
+      <c r="D78" s="218"/>
+      <c r="E78" s="214"/>
+      <c r="F78" s="214"/>
+      <c r="G78" s="214"/>
+      <c r="H78" s="214"/>
+      <c r="I78" s="214"/>
+      <c r="J78" s="214"/>
+      <c r="K78" s="214"/>
+      <c r="L78" s="214"/>
+      <c r="M78" s="214"/>
+      <c r="N78" s="214"/>
+      <c r="O78" s="214"/>
+      <c r="P78" s="214"/>
+      <c r="Q78" s="214"/>
+      <c r="R78" s="214"/>
+      <c r="S78" s="214"/>
+      <c r="T78" s="214"/>
+      <c r="U78" s="214"/>
+      <c r="V78" s="214"/>
+      <c r="W78" s="214"/>
+      <c r="X78" s="214"/>
+      <c r="Y78" s="214"/>
+      <c r="Z78" s="214"/>
+      <c r="AA78" s="214"/>
+      <c r="AB78" s="214"/>
+      <c r="AC78" s="214"/>
+      <c r="AD78" s="214"/>
+      <c r="AE78" s="214"/>
     </row>
     <row r="79" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A79" s="216"/>
-      <c r="B79" s="217"/>
-      <c r="C79" s="218"/>
-      <c r="D79" s="199"/>
-      <c r="E79" s="200"/>
-      <c r="F79" s="200"/>
-      <c r="G79" s="200"/>
-      <c r="H79" s="200"/>
-      <c r="I79" s="200"/>
-      <c r="J79" s="200"/>
-      <c r="K79" s="200"/>
-      <c r="L79" s="200"/>
-      <c r="M79" s="200"/>
-      <c r="N79" s="200"/>
-      <c r="O79" s="200"/>
-      <c r="P79" s="200"/>
-      <c r="Q79" s="200"/>
-      <c r="R79" s="200"/>
-      <c r="S79" s="200"/>
-      <c r="T79" s="200"/>
-      <c r="U79" s="200"/>
-      <c r="V79" s="200"/>
-      <c r="W79" s="200"/>
-      <c r="X79" s="200"/>
-      <c r="Y79" s="200"/>
-      <c r="Z79" s="200"/>
-      <c r="AA79" s="200"/>
-      <c r="AB79" s="200"/>
-      <c r="AC79" s="200"/>
-      <c r="AD79" s="200"/>
-      <c r="AE79" s="200"/>
+      <c r="A79" s="177"/>
+      <c r="B79" s="178"/>
+      <c r="C79" s="179"/>
+      <c r="D79" s="217"/>
+      <c r="E79" s="203"/>
+      <c r="F79" s="203"/>
+      <c r="G79" s="203"/>
+      <c r="H79" s="203"/>
+      <c r="I79" s="203"/>
+      <c r="J79" s="203"/>
+      <c r="K79" s="203"/>
+      <c r="L79" s="203"/>
+      <c r="M79" s="203"/>
+      <c r="N79" s="203"/>
+      <c r="O79" s="203"/>
+      <c r="P79" s="203"/>
+      <c r="Q79" s="203"/>
+      <c r="R79" s="203"/>
+      <c r="S79" s="203"/>
+      <c r="T79" s="203"/>
+      <c r="U79" s="203"/>
+      <c r="V79" s="203"/>
+      <c r="W79" s="203"/>
+      <c r="X79" s="203"/>
+      <c r="Y79" s="203"/>
+      <c r="Z79" s="203"/>
+      <c r="AA79" s="203"/>
+      <c r="AB79" s="203"/>
+      <c r="AC79" s="203"/>
+      <c r="AD79" s="203"/>
+      <c r="AE79" s="203"/>
     </row>
     <row r="80" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A80" s="216"/>
-      <c r="B80" s="217"/>
-      <c r="C80" s="218"/>
-      <c r="D80" s="199"/>
-      <c r="E80" s="200"/>
-      <c r="F80" s="200"/>
-      <c r="G80" s="200"/>
-      <c r="H80" s="200"/>
-      <c r="I80" s="200"/>
-      <c r="J80" s="200"/>
-      <c r="K80" s="200"/>
-      <c r="L80" s="200"/>
-      <c r="M80" s="200"/>
-      <c r="N80" s="200"/>
-      <c r="O80" s="200"/>
-      <c r="P80" s="200"/>
-      <c r="Q80" s="200"/>
-      <c r="R80" s="200"/>
-      <c r="S80" s="200"/>
-      <c r="T80" s="200"/>
-      <c r="U80" s="200"/>
-      <c r="V80" s="200"/>
-      <c r="W80" s="200"/>
-      <c r="X80" s="200"/>
-      <c r="Y80" s="200"/>
-      <c r="Z80" s="200"/>
-      <c r="AA80" s="200"/>
-      <c r="AB80" s="200"/>
-      <c r="AC80" s="200"/>
-      <c r="AD80" s="200"/>
-      <c r="AE80" s="200"/>
+      <c r="A80" s="177"/>
+      <c r="B80" s="178"/>
+      <c r="C80" s="179"/>
+      <c r="D80" s="217"/>
+      <c r="E80" s="203"/>
+      <c r="F80" s="203"/>
+      <c r="G80" s="203"/>
+      <c r="H80" s="203"/>
+      <c r="I80" s="203"/>
+      <c r="J80" s="203"/>
+      <c r="K80" s="203"/>
+      <c r="L80" s="203"/>
+      <c r="M80" s="203"/>
+      <c r="N80" s="203"/>
+      <c r="O80" s="203"/>
+      <c r="P80" s="203"/>
+      <c r="Q80" s="203"/>
+      <c r="R80" s="203"/>
+      <c r="S80" s="203"/>
+      <c r="T80" s="203"/>
+      <c r="U80" s="203"/>
+      <c r="V80" s="203"/>
+      <c r="W80" s="203"/>
+      <c r="X80" s="203"/>
+      <c r="Y80" s="203"/>
+      <c r="Z80" s="203"/>
+      <c r="AA80" s="203"/>
+      <c r="AB80" s="203"/>
+      <c r="AC80" s="203"/>
+      <c r="AD80" s="203"/>
+      <c r="AE80" s="203"/>
     </row>
     <row r="81" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A81" s="216"/>
-      <c r="B81" s="217"/>
-      <c r="C81" s="218"/>
-      <c r="D81" s="199"/>
-      <c r="E81" s="200"/>
-      <c r="F81" s="200"/>
-      <c r="G81" s="200"/>
-      <c r="H81" s="200"/>
-      <c r="I81" s="200"/>
-      <c r="J81" s="200"/>
-      <c r="K81" s="200"/>
-      <c r="L81" s="200"/>
-      <c r="M81" s="200"/>
-      <c r="N81" s="200"/>
-      <c r="O81" s="200"/>
-      <c r="P81" s="200"/>
-      <c r="Q81" s="200"/>
-      <c r="R81" s="200"/>
-      <c r="S81" s="200"/>
-      <c r="T81" s="200"/>
-      <c r="U81" s="200"/>
-      <c r="V81" s="200"/>
-      <c r="W81" s="200"/>
-      <c r="X81" s="200"/>
-      <c r="Y81" s="200"/>
-      <c r="Z81" s="200"/>
-      <c r="AA81" s="200"/>
-      <c r="AB81" s="200"/>
-      <c r="AC81" s="200"/>
-      <c r="AD81" s="200"/>
-      <c r="AE81" s="200"/>
+      <c r="A81" s="177"/>
+      <c r="B81" s="178"/>
+      <c r="C81" s="179"/>
+      <c r="D81" s="217"/>
+      <c r="E81" s="203"/>
+      <c r="F81" s="203"/>
+      <c r="G81" s="203"/>
+      <c r="H81" s="203"/>
+      <c r="I81" s="203"/>
+      <c r="J81" s="203"/>
+      <c r="K81" s="203"/>
+      <c r="L81" s="203"/>
+      <c r="M81" s="203"/>
+      <c r="N81" s="203"/>
+      <c r="O81" s="203"/>
+      <c r="P81" s="203"/>
+      <c r="Q81" s="203"/>
+      <c r="R81" s="203"/>
+      <c r="S81" s="203"/>
+      <c r="T81" s="203"/>
+      <c r="U81" s="203"/>
+      <c r="V81" s="203"/>
+      <c r="W81" s="203"/>
+      <c r="X81" s="203"/>
+      <c r="Y81" s="203"/>
+      <c r="Z81" s="203"/>
+      <c r="AA81" s="203"/>
+      <c r="AB81" s="203"/>
+      <c r="AC81" s="203"/>
+      <c r="AD81" s="203"/>
+      <c r="AE81" s="203"/>
     </row>
     <row r="82" spans="1:31" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A82" s="219"/>
-      <c r="B82" s="220"/>
-      <c r="C82" s="221"/>
-      <c r="D82" s="201"/>
-      <c r="E82" s="198"/>
-      <c r="F82" s="198"/>
-      <c r="G82" s="198"/>
-      <c r="H82" s="198"/>
-      <c r="I82" s="198"/>
-      <c r="J82" s="198"/>
-      <c r="K82" s="198"/>
-      <c r="L82" s="198"/>
-      <c r="M82" s="198"/>
-      <c r="N82" s="198"/>
-      <c r="O82" s="198"/>
-      <c r="P82" s="198"/>
-      <c r="Q82" s="198"/>
-      <c r="R82" s="198"/>
-      <c r="S82" s="198"/>
-      <c r="T82" s="198"/>
-      <c r="U82" s="198"/>
-      <c r="V82" s="198"/>
-      <c r="W82" s="198"/>
-      <c r="X82" s="198"/>
-      <c r="Y82" s="198"/>
-      <c r="Z82" s="198"/>
-      <c r="AA82" s="198"/>
-      <c r="AB82" s="198"/>
-      <c r="AC82" s="198"/>
-      <c r="AD82" s="198"/>
-      <c r="AE82" s="198"/>
+      <c r="A82" s="180"/>
+      <c r="B82" s="181"/>
+      <c r="C82" s="182"/>
+      <c r="D82" s="219"/>
+      <c r="E82" s="216"/>
+      <c r="F82" s="216"/>
+      <c r="G82" s="216"/>
+      <c r="H82" s="216"/>
+      <c r="I82" s="216"/>
+      <c r="J82" s="216"/>
+      <c r="K82" s="216"/>
+      <c r="L82" s="216"/>
+      <c r="M82" s="216"/>
+      <c r="N82" s="216"/>
+      <c r="O82" s="216"/>
+      <c r="P82" s="216"/>
+      <c r="Q82" s="216"/>
+      <c r="R82" s="216"/>
+      <c r="S82" s="216"/>
+      <c r="T82" s="216"/>
+      <c r="U82" s="216"/>
+      <c r="V82" s="216"/>
+      <c r="W82" s="216"/>
+      <c r="X82" s="216"/>
+      <c r="Y82" s="216"/>
+      <c r="Z82" s="216"/>
+      <c r="AA82" s="216"/>
+      <c r="AB82" s="216"/>
+      <c r="AC82" s="216"/>
+      <c r="AD82" s="216"/>
+      <c r="AE82" s="216"/>
     </row>
     <row r="83" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A83" s="188"/>
-      <c r="B83" s="189"/>
-      <c r="C83" s="204"/>
-      <c r="D83" s="196"/>
-      <c r="E83" s="197"/>
-      <c r="F83" s="197"/>
-      <c r="G83" s="197"/>
-      <c r="H83" s="197"/>
-      <c r="I83" s="197"/>
-      <c r="J83" s="197"/>
-      <c r="K83" s="197"/>
-      <c r="L83" s="197"/>
-      <c r="M83" s="197"/>
-      <c r="N83" s="197"/>
-      <c r="O83" s="197"/>
-      <c r="P83" s="197"/>
-      <c r="Q83" s="197"/>
-      <c r="R83" s="197"/>
-      <c r="S83" s="197"/>
-      <c r="T83" s="197"/>
-      <c r="U83" s="197"/>
-      <c r="V83" s="197"/>
-      <c r="W83" s="197"/>
-      <c r="X83" s="197"/>
-      <c r="Y83" s="197"/>
-      <c r="Z83" s="197"/>
-      <c r="AA83" s="197"/>
-      <c r="AB83" s="197"/>
-      <c r="AC83" s="197"/>
-      <c r="AD83" s="197"/>
-      <c r="AE83" s="197"/>
+      <c r="A83" s="172"/>
+      <c r="B83" s="173"/>
+      <c r="C83" s="176"/>
+      <c r="D83" s="218"/>
+      <c r="E83" s="214"/>
+      <c r="F83" s="214"/>
+      <c r="G83" s="214"/>
+      <c r="H83" s="214"/>
+      <c r="I83" s="214"/>
+      <c r="J83" s="214"/>
+      <c r="K83" s="214"/>
+      <c r="L83" s="214"/>
+      <c r="M83" s="214"/>
+      <c r="N83" s="214"/>
+      <c r="O83" s="214"/>
+      <c r="P83" s="214"/>
+      <c r="Q83" s="214"/>
+      <c r="R83" s="214"/>
+      <c r="S83" s="214"/>
+      <c r="T83" s="214"/>
+      <c r="U83" s="214"/>
+      <c r="V83" s="214"/>
+      <c r="W83" s="214"/>
+      <c r="X83" s="214"/>
+      <c r="Y83" s="214"/>
+      <c r="Z83" s="214"/>
+      <c r="AA83" s="214"/>
+      <c r="AB83" s="214"/>
+      <c r="AC83" s="214"/>
+      <c r="AD83" s="214"/>
+      <c r="AE83" s="214"/>
     </row>
     <row r="84" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A84" s="216"/>
-      <c r="B84" s="217"/>
-      <c r="C84" s="218"/>
-      <c r="D84" s="199"/>
-      <c r="E84" s="200"/>
-      <c r="F84" s="200"/>
-      <c r="G84" s="200"/>
-      <c r="H84" s="200"/>
-      <c r="I84" s="200"/>
-      <c r="J84" s="200"/>
-      <c r="K84" s="200"/>
-      <c r="L84" s="200"/>
-      <c r="M84" s="200"/>
-      <c r="N84" s="200"/>
-      <c r="O84" s="200"/>
-      <c r="P84" s="200"/>
-      <c r="Q84" s="200"/>
-      <c r="R84" s="200"/>
-      <c r="S84" s="200"/>
-      <c r="T84" s="200"/>
-      <c r="U84" s="200"/>
-      <c r="V84" s="200"/>
-      <c r="W84" s="200"/>
-      <c r="X84" s="200"/>
-      <c r="Y84" s="200"/>
-      <c r="Z84" s="200"/>
-      <c r="AA84" s="200"/>
-      <c r="AB84" s="200"/>
-      <c r="AC84" s="200"/>
-      <c r="AD84" s="200"/>
-      <c r="AE84" s="200"/>
+      <c r="A84" s="177"/>
+      <c r="B84" s="178"/>
+      <c r="C84" s="179"/>
+      <c r="D84" s="217"/>
+      <c r="E84" s="203"/>
+      <c r="F84" s="203"/>
+      <c r="G84" s="203"/>
+      <c r="H84" s="203"/>
+      <c r="I84" s="203"/>
+      <c r="J84" s="203"/>
+      <c r="K84" s="203"/>
+      <c r="L84" s="203"/>
+      <c r="M84" s="203"/>
+      <c r="N84" s="203"/>
+      <c r="O84" s="203"/>
+      <c r="P84" s="203"/>
+      <c r="Q84" s="203"/>
+      <c r="R84" s="203"/>
+      <c r="S84" s="203"/>
+      <c r="T84" s="203"/>
+      <c r="U84" s="203"/>
+      <c r="V84" s="203"/>
+      <c r="W84" s="203"/>
+      <c r="X84" s="203"/>
+      <c r="Y84" s="203"/>
+      <c r="Z84" s="203"/>
+      <c r="AA84" s="203"/>
+      <c r="AB84" s="203"/>
+      <c r="AC84" s="203"/>
+      <c r="AD84" s="203"/>
+      <c r="AE84" s="203"/>
     </row>
     <row r="85" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A85" s="216"/>
-      <c r="B85" s="217"/>
-      <c r="C85" s="218"/>
-      <c r="D85" s="199"/>
-      <c r="E85" s="200"/>
-      <c r="F85" s="200"/>
-      <c r="G85" s="200"/>
-      <c r="H85" s="200"/>
-      <c r="I85" s="200"/>
-      <c r="J85" s="200"/>
-      <c r="K85" s="200"/>
-      <c r="L85" s="200"/>
-      <c r="M85" s="200"/>
-      <c r="N85" s="200"/>
-      <c r="O85" s="200"/>
-      <c r="P85" s="200"/>
-      <c r="Q85" s="200"/>
-      <c r="R85" s="200"/>
-      <c r="S85" s="200"/>
-      <c r="T85" s="200"/>
-      <c r="U85" s="200"/>
-      <c r="V85" s="200"/>
-      <c r="W85" s="200"/>
-      <c r="X85" s="200"/>
-      <c r="Y85" s="200"/>
-      <c r="Z85" s="200"/>
-      <c r="AA85" s="200"/>
-      <c r="AB85" s="200"/>
-      <c r="AC85" s="200"/>
-      <c r="AD85" s="200"/>
-      <c r="AE85" s="200"/>
+      <c r="A85" s="177"/>
+      <c r="B85" s="178"/>
+      <c r="C85" s="179"/>
+      <c r="D85" s="217"/>
+      <c r="E85" s="203"/>
+      <c r="F85" s="203"/>
+      <c r="G85" s="203"/>
+      <c r="H85" s="203"/>
+      <c r="I85" s="203"/>
+      <c r="J85" s="203"/>
+      <c r="K85" s="203"/>
+      <c r="L85" s="203"/>
+      <c r="M85" s="203"/>
+      <c r="N85" s="203"/>
+      <c r="O85" s="203"/>
+      <c r="P85" s="203"/>
+      <c r="Q85" s="203"/>
+      <c r="R85" s="203"/>
+      <c r="S85" s="203"/>
+      <c r="T85" s="203"/>
+      <c r="U85" s="203"/>
+      <c r="V85" s="203"/>
+      <c r="W85" s="203"/>
+      <c r="X85" s="203"/>
+      <c r="Y85" s="203"/>
+      <c r="Z85" s="203"/>
+      <c r="AA85" s="203"/>
+      <c r="AB85" s="203"/>
+      <c r="AC85" s="203"/>
+      <c r="AD85" s="203"/>
+      <c r="AE85" s="203"/>
     </row>
     <row r="86" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A86" s="216"/>
-      <c r="B86" s="217"/>
-      <c r="C86" s="218"/>
-      <c r="D86" s="199"/>
-      <c r="E86" s="200"/>
-      <c r="F86" s="200"/>
-      <c r="G86" s="200"/>
-      <c r="H86" s="200"/>
-      <c r="I86" s="200"/>
-      <c r="J86" s="200"/>
-      <c r="K86" s="200"/>
-      <c r="L86" s="200"/>
-      <c r="M86" s="200"/>
-      <c r="N86" s="200"/>
-      <c r="O86" s="200"/>
-      <c r="P86" s="200"/>
-      <c r="Q86" s="200"/>
-      <c r="R86" s="200"/>
-      <c r="S86" s="200"/>
-      <c r="T86" s="200"/>
-      <c r="U86" s="200"/>
-      <c r="V86" s="200"/>
-      <c r="W86" s="200"/>
-      <c r="X86" s="200"/>
-      <c r="Y86" s="200"/>
-      <c r="Z86" s="200"/>
-      <c r="AA86" s="200"/>
-      <c r="AB86" s="200"/>
-      <c r="AC86" s="200"/>
-      <c r="AD86" s="200"/>
-      <c r="AE86" s="200"/>
+      <c r="A86" s="177"/>
+      <c r="B86" s="178"/>
+      <c r="C86" s="179"/>
+      <c r="D86" s="217"/>
+      <c r="E86" s="203"/>
+      <c r="F86" s="203"/>
+      <c r="G86" s="203"/>
+      <c r="H86" s="203"/>
+      <c r="I86" s="203"/>
+      <c r="J86" s="203"/>
+      <c r="K86" s="203"/>
+      <c r="L86" s="203"/>
+      <c r="M86" s="203"/>
+      <c r="N86" s="203"/>
+      <c r="O86" s="203"/>
+      <c r="P86" s="203"/>
+      <c r="Q86" s="203"/>
+      <c r="R86" s="203"/>
+      <c r="S86" s="203"/>
+      <c r="T86" s="203"/>
+      <c r="U86" s="203"/>
+      <c r="V86" s="203"/>
+      <c r="W86" s="203"/>
+      <c r="X86" s="203"/>
+      <c r="Y86" s="203"/>
+      <c r="Z86" s="203"/>
+      <c r="AA86" s="203"/>
+      <c r="AB86" s="203"/>
+      <c r="AC86" s="203"/>
+      <c r="AD86" s="203"/>
+      <c r="AE86" s="203"/>
     </row>
     <row r="87" spans="1:31" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A87" s="219"/>
-      <c r="B87" s="220"/>
-      <c r="C87" s="221"/>
-      <c r="D87" s="201"/>
-      <c r="E87" s="198"/>
-      <c r="F87" s="198"/>
-      <c r="G87" s="198"/>
-      <c r="H87" s="198"/>
-      <c r="I87" s="198"/>
-      <c r="J87" s="198"/>
-      <c r="K87" s="198"/>
-      <c r="L87" s="198"/>
-      <c r="M87" s="198"/>
-      <c r="N87" s="198"/>
-      <c r="O87" s="198"/>
-      <c r="P87" s="198"/>
-      <c r="Q87" s="198"/>
-      <c r="R87" s="198"/>
-      <c r="S87" s="198"/>
-      <c r="T87" s="198"/>
-      <c r="U87" s="198"/>
-      <c r="V87" s="198"/>
-      <c r="W87" s="198"/>
-      <c r="X87" s="198"/>
-      <c r="Y87" s="198"/>
-      <c r="Z87" s="198"/>
-      <c r="AA87" s="198"/>
-      <c r="AB87" s="198"/>
-      <c r="AC87" s="198"/>
-      <c r="AD87" s="198"/>
-      <c r="AE87" s="198"/>
+      <c r="A87" s="180"/>
+      <c r="B87" s="181"/>
+      <c r="C87" s="182"/>
+      <c r="D87" s="219"/>
+      <c r="E87" s="216"/>
+      <c r="F87" s="216"/>
+      <c r="G87" s="216"/>
+      <c r="H87" s="216"/>
+      <c r="I87" s="216"/>
+      <c r="J87" s="216"/>
+      <c r="K87" s="216"/>
+      <c r="L87" s="216"/>
+      <c r="M87" s="216"/>
+      <c r="N87" s="216"/>
+      <c r="O87" s="216"/>
+      <c r="P87" s="216"/>
+      <c r="Q87" s="216"/>
+      <c r="R87" s="216"/>
+      <c r="S87" s="216"/>
+      <c r="T87" s="216"/>
+      <c r="U87" s="216"/>
+      <c r="V87" s="216"/>
+      <c r="W87" s="216"/>
+      <c r="X87" s="216"/>
+      <c r="Y87" s="216"/>
+      <c r="Z87" s="216"/>
+      <c r="AA87" s="216"/>
+      <c r="AB87" s="216"/>
+      <c r="AC87" s="216"/>
+      <c r="AD87" s="216"/>
+      <c r="AE87" s="216"/>
     </row>
     <row r="88" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A88" s="188"/>
-      <c r="B88" s="189"/>
-      <c r="C88" s="204"/>
-      <c r="D88" s="196"/>
-      <c r="E88" s="197"/>
-      <c r="F88" s="197"/>
-      <c r="G88" s="197"/>
-      <c r="H88" s="197"/>
-      <c r="I88" s="197"/>
-      <c r="J88" s="197"/>
-      <c r="K88" s="197"/>
-      <c r="L88" s="197"/>
-      <c r="M88" s="197"/>
-      <c r="N88" s="197"/>
-      <c r="O88" s="197"/>
-      <c r="P88" s="197"/>
-      <c r="Q88" s="197"/>
-      <c r="R88" s="197"/>
-      <c r="S88" s="197"/>
-      <c r="T88" s="197"/>
-      <c r="U88" s="197"/>
-      <c r="V88" s="197"/>
-      <c r="W88" s="197"/>
-      <c r="X88" s="197"/>
-      <c r="Y88" s="197"/>
-      <c r="Z88" s="197"/>
-      <c r="AA88" s="197"/>
-      <c r="AB88" s="197"/>
-      <c r="AC88" s="197"/>
-      <c r="AD88" s="197"/>
-      <c r="AE88" s="197"/>
+      <c r="A88" s="172"/>
+      <c r="B88" s="173"/>
+      <c r="C88" s="176"/>
+      <c r="D88" s="218"/>
+      <c r="E88" s="214"/>
+      <c r="F88" s="214"/>
+      <c r="G88" s="214"/>
+      <c r="H88" s="214"/>
+      <c r="I88" s="214"/>
+      <c r="J88" s="214"/>
+      <c r="K88" s="214"/>
+      <c r="L88" s="214"/>
+      <c r="M88" s="214"/>
+      <c r="N88" s="214"/>
+      <c r="O88" s="214"/>
+      <c r="P88" s="214"/>
+      <c r="Q88" s="214"/>
+      <c r="R88" s="214"/>
+      <c r="S88" s="214"/>
+      <c r="T88" s="214"/>
+      <c r="U88" s="214"/>
+      <c r="V88" s="214"/>
+      <c r="W88" s="214"/>
+      <c r="X88" s="214"/>
+      <c r="Y88" s="214"/>
+      <c r="Z88" s="214"/>
+      <c r="AA88" s="214"/>
+      <c r="AB88" s="214"/>
+      <c r="AC88" s="214"/>
+      <c r="AD88" s="214"/>
+      <c r="AE88" s="214"/>
     </row>
     <row r="89" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A89" s="216"/>
-      <c r="B89" s="217"/>
-      <c r="C89" s="218"/>
-      <c r="D89" s="199"/>
-      <c r="E89" s="200"/>
-      <c r="F89" s="200"/>
-      <c r="G89" s="200"/>
-      <c r="H89" s="200"/>
-      <c r="I89" s="200"/>
-      <c r="J89" s="200"/>
-      <c r="K89" s="200"/>
-      <c r="L89" s="200"/>
-      <c r="M89" s="200"/>
-      <c r="N89" s="200"/>
-      <c r="O89" s="200"/>
-      <c r="P89" s="200"/>
-      <c r="Q89" s="200"/>
-      <c r="R89" s="200"/>
-      <c r="S89" s="200"/>
-      <c r="T89" s="200"/>
-      <c r="U89" s="200"/>
-      <c r="V89" s="200"/>
-      <c r="W89" s="200"/>
-      <c r="X89" s="200"/>
-      <c r="Y89" s="200"/>
-      <c r="Z89" s="200"/>
-      <c r="AA89" s="200"/>
-      <c r="AB89" s="200"/>
-      <c r="AC89" s="200"/>
-      <c r="AD89" s="200"/>
-      <c r="AE89" s="200"/>
+      <c r="A89" s="177"/>
+      <c r="B89" s="178"/>
+      <c r="C89" s="179"/>
+      <c r="D89" s="217"/>
+      <c r="E89" s="203"/>
+      <c r="F89" s="203"/>
+      <c r="G89" s="203"/>
+      <c r="H89" s="203"/>
+      <c r="I89" s="203"/>
+      <c r="J89" s="203"/>
+      <c r="K89" s="203"/>
+      <c r="L89" s="203"/>
+      <c r="M89" s="203"/>
+      <c r="N89" s="203"/>
+      <c r="O89" s="203"/>
+      <c r="P89" s="203"/>
+      <c r="Q89" s="203"/>
+      <c r="R89" s="203"/>
+      <c r="S89" s="203"/>
+      <c r="T89" s="203"/>
+      <c r="U89" s="203"/>
+      <c r="V89" s="203"/>
+      <c r="W89" s="203"/>
+      <c r="X89" s="203"/>
+      <c r="Y89" s="203"/>
+      <c r="Z89" s="203"/>
+      <c r="AA89" s="203"/>
+      <c r="AB89" s="203"/>
+      <c r="AC89" s="203"/>
+      <c r="AD89" s="203"/>
+      <c r="AE89" s="203"/>
     </row>
     <row r="90" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A90" s="216"/>
-      <c r="B90" s="217"/>
-      <c r="C90" s="218"/>
-      <c r="D90" s="199"/>
-      <c r="E90" s="200"/>
-      <c r="F90" s="200"/>
-      <c r="G90" s="200"/>
-      <c r="H90" s="200"/>
-      <c r="I90" s="200"/>
-      <c r="J90" s="200"/>
-      <c r="K90" s="200"/>
-      <c r="L90" s="200"/>
-      <c r="M90" s="200"/>
-      <c r="N90" s="200"/>
-      <c r="O90" s="200"/>
-      <c r="P90" s="200"/>
-      <c r="Q90" s="200"/>
-      <c r="R90" s="200"/>
-      <c r="S90" s="200"/>
-      <c r="T90" s="200"/>
-      <c r="U90" s="200"/>
-      <c r="V90" s="200"/>
-      <c r="W90" s="200"/>
-      <c r="X90" s="200"/>
-      <c r="Y90" s="200"/>
-      <c r="Z90" s="200"/>
-      <c r="AA90" s="200"/>
-      <c r="AB90" s="200"/>
-      <c r="AC90" s="200"/>
-      <c r="AD90" s="200"/>
-      <c r="AE90" s="200"/>
+      <c r="A90" s="177"/>
+      <c r="B90" s="178"/>
+      <c r="C90" s="179"/>
+      <c r="D90" s="217"/>
+      <c r="E90" s="203"/>
+      <c r="F90" s="203"/>
+      <c r="G90" s="203"/>
+      <c r="H90" s="203"/>
+      <c r="I90" s="203"/>
+      <c r="J90" s="203"/>
+      <c r="K90" s="203"/>
+      <c r="L90" s="203"/>
+      <c r="M90" s="203"/>
+      <c r="N90" s="203"/>
+      <c r="O90" s="203"/>
+      <c r="P90" s="203"/>
+      <c r="Q90" s="203"/>
+      <c r="R90" s="203"/>
+      <c r="S90" s="203"/>
+      <c r="T90" s="203"/>
+      <c r="U90" s="203"/>
+      <c r="V90" s="203"/>
+      <c r="W90" s="203"/>
+      <c r="X90" s="203"/>
+      <c r="Y90" s="203"/>
+      <c r="Z90" s="203"/>
+      <c r="AA90" s="203"/>
+      <c r="AB90" s="203"/>
+      <c r="AC90" s="203"/>
+      <c r="AD90" s="203"/>
+      <c r="AE90" s="203"/>
     </row>
     <row r="91" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A91" s="216"/>
-      <c r="B91" s="217"/>
-      <c r="C91" s="218"/>
-      <c r="D91" s="199"/>
-      <c r="E91" s="200"/>
-      <c r="F91" s="200"/>
-      <c r="G91" s="200"/>
-      <c r="H91" s="200"/>
-      <c r="I91" s="200"/>
-      <c r="J91" s="200"/>
-      <c r="K91" s="200"/>
-      <c r="L91" s="200"/>
-      <c r="M91" s="200"/>
-      <c r="N91" s="200"/>
-      <c r="O91" s="200"/>
-      <c r="P91" s="200"/>
-      <c r="Q91" s="200"/>
-      <c r="R91" s="200"/>
-      <c r="S91" s="200"/>
-      <c r="T91" s="200"/>
-      <c r="U91" s="200"/>
-      <c r="V91" s="200"/>
-      <c r="W91" s="200"/>
-      <c r="X91" s="200"/>
-      <c r="Y91" s="200"/>
-      <c r="Z91" s="200"/>
-      <c r="AA91" s="200"/>
-      <c r="AB91" s="200"/>
-      <c r="AC91" s="200"/>
-      <c r="AD91" s="200"/>
-      <c r="AE91" s="200"/>
+      <c r="A91" s="177"/>
+      <c r="B91" s="178"/>
+      <c r="C91" s="179"/>
+      <c r="D91" s="217"/>
+      <c r="E91" s="203"/>
+      <c r="F91" s="203"/>
+      <c r="G91" s="203"/>
+      <c r="H91" s="203"/>
+      <c r="I91" s="203"/>
+      <c r="J91" s="203"/>
+      <c r="K91" s="203"/>
+      <c r="L91" s="203"/>
+      <c r="M91" s="203"/>
+      <c r="N91" s="203"/>
+      <c r="O91" s="203"/>
+      <c r="P91" s="203"/>
+      <c r="Q91" s="203"/>
+      <c r="R91" s="203"/>
+      <c r="S91" s="203"/>
+      <c r="T91" s="203"/>
+      <c r="U91" s="203"/>
+      <c r="V91" s="203"/>
+      <c r="W91" s="203"/>
+      <c r="X91" s="203"/>
+      <c r="Y91" s="203"/>
+      <c r="Z91" s="203"/>
+      <c r="AA91" s="203"/>
+      <c r="AB91" s="203"/>
+      <c r="AC91" s="203"/>
+      <c r="AD91" s="203"/>
+      <c r="AE91" s="203"/>
     </row>
     <row r="92" spans="1:31" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A92" s="219"/>
-      <c r="B92" s="220"/>
-      <c r="C92" s="221"/>
-      <c r="D92" s="201"/>
-      <c r="E92" s="198"/>
-      <c r="F92" s="198"/>
-      <c r="G92" s="198"/>
-      <c r="H92" s="198"/>
-      <c r="I92" s="198"/>
-      <c r="J92" s="198"/>
-      <c r="K92" s="198"/>
-      <c r="L92" s="198"/>
-      <c r="M92" s="198"/>
-      <c r="N92" s="198"/>
-      <c r="O92" s="198"/>
-      <c r="P92" s="198"/>
-      <c r="Q92" s="198"/>
-      <c r="R92" s="198"/>
-      <c r="S92" s="198"/>
-      <c r="T92" s="198"/>
-      <c r="U92" s="198"/>
-      <c r="V92" s="198"/>
-      <c r="W92" s="198"/>
-      <c r="X92" s="198"/>
-      <c r="Y92" s="198"/>
-      <c r="Z92" s="198"/>
-      <c r="AA92" s="198"/>
-      <c r="AB92" s="198"/>
-      <c r="AC92" s="198"/>
-      <c r="AD92" s="198"/>
-      <c r="AE92" s="198"/>
+      <c r="A92" s="180"/>
+      <c r="B92" s="181"/>
+      <c r="C92" s="182"/>
+      <c r="D92" s="219"/>
+      <c r="E92" s="216"/>
+      <c r="F92" s="216"/>
+      <c r="G92" s="216"/>
+      <c r="H92" s="216"/>
+      <c r="I92" s="216"/>
+      <c r="J92" s="216"/>
+      <c r="K92" s="216"/>
+      <c r="L92" s="216"/>
+      <c r="M92" s="216"/>
+      <c r="N92" s="216"/>
+      <c r="O92" s="216"/>
+      <c r="P92" s="216"/>
+      <c r="Q92" s="216"/>
+      <c r="R92" s="216"/>
+      <c r="S92" s="216"/>
+      <c r="T92" s="216"/>
+      <c r="U92" s="216"/>
+      <c r="V92" s="216"/>
+      <c r="W92" s="216"/>
+      <c r="X92" s="216"/>
+      <c r="Y92" s="216"/>
+      <c r="Z92" s="216"/>
+      <c r="AA92" s="216"/>
+      <c r="AB92" s="216"/>
+      <c r="AC92" s="216"/>
+      <c r="AD92" s="216"/>
+      <c r="AE92" s="216"/>
     </row>
     <row r="93" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A93" s="188"/>
-      <c r="B93" s="189"/>
-      <c r="C93" s="204"/>
-      <c r="D93" s="196"/>
-      <c r="E93" s="197"/>
-      <c r="F93" s="197"/>
-      <c r="G93" s="197"/>
-      <c r="H93" s="197"/>
-      <c r="I93" s="197"/>
-      <c r="J93" s="197"/>
-      <c r="K93" s="197"/>
-      <c r="L93" s="197"/>
-      <c r="M93" s="197"/>
-      <c r="N93" s="197"/>
-      <c r="O93" s="197"/>
-      <c r="P93" s="197"/>
-      <c r="Q93" s="197"/>
-      <c r="R93" s="197"/>
-      <c r="S93" s="197"/>
-      <c r="T93" s="197"/>
-      <c r="U93" s="197"/>
-      <c r="V93" s="197"/>
-      <c r="W93" s="197"/>
-      <c r="X93" s="197"/>
-      <c r="Y93" s="197"/>
-      <c r="Z93" s="197"/>
-      <c r="AA93" s="197"/>
-      <c r="AB93" s="197"/>
-      <c r="AC93" s="197"/>
-      <c r="AD93" s="197"/>
-      <c r="AE93" s="197"/>
+      <c r="A93" s="172"/>
+      <c r="B93" s="173"/>
+      <c r="C93" s="176"/>
+      <c r="D93" s="218"/>
+      <c r="E93" s="214"/>
+      <c r="F93" s="214"/>
+      <c r="G93" s="214"/>
+      <c r="H93" s="214"/>
+      <c r="I93" s="214"/>
+      <c r="J93" s="214"/>
+      <c r="K93" s="214"/>
+      <c r="L93" s="214"/>
+      <c r="M93" s="214"/>
+      <c r="N93" s="214"/>
+      <c r="O93" s="214"/>
+      <c r="P93" s="214"/>
+      <c r="Q93" s="214"/>
+      <c r="R93" s="214"/>
+      <c r="S93" s="214"/>
+      <c r="T93" s="214"/>
+      <c r="U93" s="214"/>
+      <c r="V93" s="214"/>
+      <c r="W93" s="214"/>
+      <c r="X93" s="214"/>
+      <c r="Y93" s="214"/>
+      <c r="Z93" s="214"/>
+      <c r="AA93" s="214"/>
+      <c r="AB93" s="214"/>
+      <c r="AC93" s="214"/>
+      <c r="AD93" s="214"/>
+      <c r="AE93" s="214"/>
     </row>
     <row r="94" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A94" s="216"/>
-      <c r="B94" s="217"/>
-      <c r="C94" s="218"/>
-      <c r="D94" s="199"/>
-      <c r="E94" s="200"/>
-      <c r="F94" s="200"/>
-      <c r="G94" s="200"/>
-      <c r="H94" s="200"/>
-      <c r="I94" s="200"/>
-      <c r="J94" s="200"/>
-      <c r="K94" s="200"/>
-      <c r="L94" s="200"/>
-      <c r="M94" s="200"/>
-      <c r="N94" s="200"/>
-      <c r="O94" s="200"/>
-      <c r="P94" s="200"/>
-      <c r="Q94" s="200"/>
-      <c r="R94" s="200"/>
-      <c r="S94" s="200"/>
-      <c r="T94" s="200"/>
-      <c r="U94" s="200"/>
-      <c r="V94" s="200"/>
-      <c r="W94" s="200"/>
-      <c r="X94" s="200"/>
-      <c r="Y94" s="200"/>
-      <c r="Z94" s="200"/>
-      <c r="AA94" s="200"/>
-      <c r="AB94" s="200"/>
-      <c r="AC94" s="200"/>
-      <c r="AD94" s="200"/>
-      <c r="AE94" s="200"/>
+      <c r="A94" s="177"/>
+      <c r="B94" s="178"/>
+      <c r="C94" s="179"/>
+      <c r="D94" s="217"/>
+      <c r="E94" s="203"/>
+      <c r="F94" s="203"/>
+      <c r="G94" s="203"/>
+      <c r="H94" s="203"/>
+      <c r="I94" s="203"/>
+      <c r="J94" s="203"/>
+      <c r="K94" s="203"/>
+      <c r="L94" s="203"/>
+      <c r="M94" s="203"/>
+      <c r="N94" s="203"/>
+      <c r="O94" s="203"/>
+      <c r="P94" s="203"/>
+      <c r="Q94" s="203"/>
+      <c r="R94" s="203"/>
+      <c r="S94" s="203"/>
+      <c r="T94" s="203"/>
+      <c r="U94" s="203"/>
+      <c r="V94" s="203"/>
+      <c r="W94" s="203"/>
+      <c r="X94" s="203"/>
+      <c r="Y94" s="203"/>
+      <c r="Z94" s="203"/>
+      <c r="AA94" s="203"/>
+      <c r="AB94" s="203"/>
+      <c r="AC94" s="203"/>
+      <c r="AD94" s="203"/>
+      <c r="AE94" s="203"/>
     </row>
     <row r="95" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A95" s="216"/>
-      <c r="B95" s="217"/>
-      <c r="C95" s="218"/>
-      <c r="D95" s="199"/>
-      <c r="E95" s="200"/>
-      <c r="F95" s="200"/>
-      <c r="G95" s="200"/>
-      <c r="H95" s="200"/>
-      <c r="I95" s="200"/>
-      <c r="J95" s="200"/>
-      <c r="K95" s="200"/>
-      <c r="L95" s="200"/>
-      <c r="M95" s="200"/>
-      <c r="N95" s="200"/>
-      <c r="O95" s="200"/>
-      <c r="P95" s="200"/>
-      <c r="Q95" s="200"/>
-      <c r="R95" s="200"/>
-      <c r="S95" s="200"/>
-      <c r="T95" s="200"/>
-      <c r="U95" s="200"/>
-      <c r="V95" s="200"/>
-      <c r="W95" s="200"/>
-      <c r="X95" s="200"/>
-      <c r="Y95" s="200"/>
-      <c r="Z95" s="200"/>
-      <c r="AA95" s="200"/>
-      <c r="AB95" s="200"/>
-      <c r="AC95" s="200"/>
-      <c r="AD95" s="200"/>
-      <c r="AE95" s="200"/>
+      <c r="A95" s="177"/>
+      <c r="B95" s="178"/>
+      <c r="C95" s="179"/>
+      <c r="D95" s="217"/>
+      <c r="E95" s="203"/>
+      <c r="F95" s="203"/>
+      <c r="G95" s="203"/>
+      <c r="H95" s="203"/>
+      <c r="I95" s="203"/>
+      <c r="J95" s="203"/>
+      <c r="K95" s="203"/>
+      <c r="L95" s="203"/>
+      <c r="M95" s="203"/>
+      <c r="N95" s="203"/>
+      <c r="O95" s="203"/>
+      <c r="P95" s="203"/>
+      <c r="Q95" s="203"/>
+      <c r="R95" s="203"/>
+      <c r="S95" s="203"/>
+      <c r="T95" s="203"/>
+      <c r="U95" s="203"/>
+      <c r="V95" s="203"/>
+      <c r="W95" s="203"/>
+      <c r="X95" s="203"/>
+      <c r="Y95" s="203"/>
+      <c r="Z95" s="203"/>
+      <c r="AA95" s="203"/>
+      <c r="AB95" s="203"/>
+      <c r="AC95" s="203"/>
+      <c r="AD95" s="203"/>
+      <c r="AE95" s="203"/>
     </row>
     <row r="96" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A96" s="216"/>
-      <c r="B96" s="217"/>
-      <c r="C96" s="218"/>
-      <c r="D96" s="199"/>
-      <c r="E96" s="200"/>
-      <c r="F96" s="200"/>
-      <c r="G96" s="200"/>
-      <c r="H96" s="200"/>
-      <c r="I96" s="200"/>
-      <c r="J96" s="200"/>
-      <c r="K96" s="200"/>
-      <c r="L96" s="200"/>
-      <c r="M96" s="200"/>
-      <c r="N96" s="200"/>
-      <c r="O96" s="200"/>
-      <c r="P96" s="200"/>
-      <c r="Q96" s="200"/>
-      <c r="R96" s="200"/>
-      <c r="S96" s="200"/>
-      <c r="T96" s="200"/>
-      <c r="U96" s="200"/>
-      <c r="V96" s="200"/>
-      <c r="W96" s="200"/>
-      <c r="X96" s="200"/>
-      <c r="Y96" s="200"/>
-      <c r="Z96" s="200"/>
-      <c r="AA96" s="200"/>
-      <c r="AB96" s="200"/>
-      <c r="AC96" s="200"/>
-      <c r="AD96" s="200"/>
-      <c r="AE96" s="200"/>
+      <c r="A96" s="177"/>
+      <c r="B96" s="178"/>
+      <c r="C96" s="179"/>
+      <c r="D96" s="217"/>
+      <c r="E96" s="203"/>
+      <c r="F96" s="203"/>
+      <c r="G96" s="203"/>
+      <c r="H96" s="203"/>
+      <c r="I96" s="203"/>
+      <c r="J96" s="203"/>
+      <c r="K96" s="203"/>
+      <c r="L96" s="203"/>
+      <c r="M96" s="203"/>
+      <c r="N96" s="203"/>
+      <c r="O96" s="203"/>
+      <c r="P96" s="203"/>
+      <c r="Q96" s="203"/>
+      <c r="R96" s="203"/>
+      <c r="S96" s="203"/>
+      <c r="T96" s="203"/>
+      <c r="U96" s="203"/>
+      <c r="V96" s="203"/>
+      <c r="W96" s="203"/>
+      <c r="X96" s="203"/>
+      <c r="Y96" s="203"/>
+      <c r="Z96" s="203"/>
+      <c r="AA96" s="203"/>
+      <c r="AB96" s="203"/>
+      <c r="AC96" s="203"/>
+      <c r="AD96" s="203"/>
+      <c r="AE96" s="203"/>
     </row>
     <row r="97" spans="1:31" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A97" s="219"/>
-      <c r="B97" s="220"/>
-      <c r="C97" s="221"/>
-      <c r="D97" s="201"/>
-      <c r="E97" s="198"/>
-      <c r="F97" s="198"/>
-      <c r="G97" s="198"/>
-      <c r="H97" s="198"/>
-      <c r="I97" s="198"/>
-      <c r="J97" s="198"/>
-      <c r="K97" s="198"/>
-      <c r="L97" s="198"/>
-      <c r="M97" s="198"/>
-      <c r="N97" s="198"/>
-      <c r="O97" s="198"/>
-      <c r="P97" s="198"/>
-      <c r="Q97" s="198"/>
-      <c r="R97" s="198"/>
-      <c r="S97" s="198"/>
-      <c r="T97" s="198"/>
-      <c r="U97" s="198"/>
-      <c r="V97" s="198"/>
-      <c r="W97" s="198"/>
-      <c r="X97" s="198"/>
-      <c r="Y97" s="198"/>
-      <c r="Z97" s="198"/>
-      <c r="AA97" s="198"/>
-      <c r="AB97" s="198"/>
-      <c r="AC97" s="198"/>
-      <c r="AD97" s="198"/>
-      <c r="AE97" s="198"/>
+      <c r="A97" s="180"/>
+      <c r="B97" s="181"/>
+      <c r="C97" s="182"/>
+      <c r="D97" s="219"/>
+      <c r="E97" s="216"/>
+      <c r="F97" s="216"/>
+      <c r="G97" s="216"/>
+      <c r="H97" s="216"/>
+      <c r="I97" s="216"/>
+      <c r="J97" s="216"/>
+      <c r="K97" s="216"/>
+      <c r="L97" s="216"/>
+      <c r="M97" s="216"/>
+      <c r="N97" s="216"/>
+      <c r="O97" s="216"/>
+      <c r="P97" s="216"/>
+      <c r="Q97" s="216"/>
+      <c r="R97" s="216"/>
+      <c r="S97" s="216"/>
+      <c r="T97" s="216"/>
+      <c r="U97" s="216"/>
+      <c r="V97" s="216"/>
+      <c r="W97" s="216"/>
+      <c r="X97" s="216"/>
+      <c r="Y97" s="216"/>
+      <c r="Z97" s="216"/>
+      <c r="AA97" s="216"/>
+      <c r="AB97" s="216"/>
+      <c r="AC97" s="216"/>
+      <c r="AD97" s="216"/>
+      <c r="AE97" s="216"/>
     </row>
     <row r="98" spans="1:31">
       <c r="A98" s="110"/>
@@ -8126,6 +7959,741 @@
     </row>
   </sheetData>
   <mergeCells count="759">
+    <mergeCell ref="C1:U1"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="R47:S47"/>
+    <mergeCell ref="H47:I47"/>
+    <mergeCell ref="F41:AE41"/>
+    <mergeCell ref="R48:S48"/>
+    <mergeCell ref="T48:U48"/>
+    <mergeCell ref="V48:W48"/>
+    <mergeCell ref="J48:K48"/>
+    <mergeCell ref="AB47:AC47"/>
+    <mergeCell ref="A29:N32"/>
+    <mergeCell ref="A33:N35"/>
+    <mergeCell ref="A36:N39"/>
+    <mergeCell ref="T47:U47"/>
+    <mergeCell ref="X48:Y48"/>
+    <mergeCell ref="Z33:AA33"/>
+    <mergeCell ref="AB33:AC33"/>
+    <mergeCell ref="Z30:AA30"/>
+    <mergeCell ref="AB30:AC30"/>
+    <mergeCell ref="V31:W31"/>
+    <mergeCell ref="Z32:AA32"/>
+    <mergeCell ref="AB32:AC32"/>
+    <mergeCell ref="Z31:AA31"/>
+    <mergeCell ref="V35:W35"/>
+    <mergeCell ref="Y3:AD3"/>
+    <mergeCell ref="A3:Q4"/>
+    <mergeCell ref="X47:Y47"/>
+    <mergeCell ref="AD47:AE47"/>
+    <mergeCell ref="J47:K47"/>
+    <mergeCell ref="V47:W47"/>
+    <mergeCell ref="P35:U35"/>
+    <mergeCell ref="F42:H42"/>
+    <mergeCell ref="P48:Q48"/>
+    <mergeCell ref="P47:Q47"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="F47:G47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="F48:G48"/>
+    <mergeCell ref="H48:I48"/>
+    <mergeCell ref="N48:O48"/>
+    <mergeCell ref="Z47:AA47"/>
+    <mergeCell ref="X32:Y32"/>
+    <mergeCell ref="V33:W33"/>
+    <mergeCell ref="X33:Y33"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="X30:Y30"/>
+    <mergeCell ref="V30:W30"/>
+    <mergeCell ref="F52:G52"/>
+    <mergeCell ref="D51:E51"/>
+    <mergeCell ref="R52:S52"/>
+    <mergeCell ref="P52:Q52"/>
+    <mergeCell ref="N54:O54"/>
+    <mergeCell ref="P54:Q54"/>
+    <mergeCell ref="R54:S54"/>
+    <mergeCell ref="J52:K52"/>
+    <mergeCell ref="F51:G51"/>
+    <mergeCell ref="D52:E52"/>
+    <mergeCell ref="H51:I51"/>
+    <mergeCell ref="J51:K51"/>
+    <mergeCell ref="L51:M51"/>
+    <mergeCell ref="N51:O51"/>
+    <mergeCell ref="P51:Q51"/>
+    <mergeCell ref="H53:I53"/>
+    <mergeCell ref="J53:K53"/>
+    <mergeCell ref="L53:M53"/>
+    <mergeCell ref="N53:O53"/>
+    <mergeCell ref="H52:I52"/>
+    <mergeCell ref="AB54:AC54"/>
+    <mergeCell ref="J54:K54"/>
+    <mergeCell ref="L54:M54"/>
+    <mergeCell ref="H54:I54"/>
+    <mergeCell ref="AD53:AE53"/>
+    <mergeCell ref="F54:G54"/>
+    <mergeCell ref="D58:E58"/>
+    <mergeCell ref="F58:G58"/>
+    <mergeCell ref="H58:I58"/>
+    <mergeCell ref="D55:E55"/>
+    <mergeCell ref="F55:G55"/>
+    <mergeCell ref="H55:I55"/>
+    <mergeCell ref="J55:K55"/>
+    <mergeCell ref="L55:M55"/>
+    <mergeCell ref="T54:U54"/>
+    <mergeCell ref="V54:W54"/>
+    <mergeCell ref="X54:Y54"/>
+    <mergeCell ref="D53:E53"/>
+    <mergeCell ref="D54:E54"/>
+    <mergeCell ref="F53:G53"/>
+    <mergeCell ref="T53:U53"/>
+    <mergeCell ref="V53:W53"/>
+    <mergeCell ref="X53:Y53"/>
+    <mergeCell ref="Z53:AA53"/>
+    <mergeCell ref="H97:I97"/>
+    <mergeCell ref="D96:E96"/>
+    <mergeCell ref="F96:G96"/>
+    <mergeCell ref="H96:I96"/>
+    <mergeCell ref="D62:E62"/>
+    <mergeCell ref="F62:G62"/>
+    <mergeCell ref="D97:E97"/>
+    <mergeCell ref="H60:I60"/>
+    <mergeCell ref="J60:K60"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="F69:G69"/>
+    <mergeCell ref="H69:I69"/>
+    <mergeCell ref="J69:K69"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="F71:G71"/>
+    <mergeCell ref="H71:I71"/>
+    <mergeCell ref="J71:K71"/>
+    <mergeCell ref="D73:E73"/>
+    <mergeCell ref="F73:G73"/>
+    <mergeCell ref="H73:I73"/>
+    <mergeCell ref="J73:K73"/>
+    <mergeCell ref="D75:E75"/>
+    <mergeCell ref="F75:G75"/>
+    <mergeCell ref="H75:I75"/>
+    <mergeCell ref="L60:M60"/>
+    <mergeCell ref="N60:O60"/>
+    <mergeCell ref="H62:I62"/>
+    <mergeCell ref="F93:G93"/>
+    <mergeCell ref="D92:E92"/>
+    <mergeCell ref="F97:G97"/>
+    <mergeCell ref="J58:K58"/>
+    <mergeCell ref="L58:M58"/>
+    <mergeCell ref="J62:K62"/>
+    <mergeCell ref="L62:M62"/>
+    <mergeCell ref="L89:M89"/>
+    <mergeCell ref="D90:E90"/>
+    <mergeCell ref="D64:E64"/>
+    <mergeCell ref="F64:G64"/>
+    <mergeCell ref="H64:I64"/>
+    <mergeCell ref="J64:K64"/>
+    <mergeCell ref="L64:M64"/>
+    <mergeCell ref="N64:O64"/>
+    <mergeCell ref="D66:E66"/>
+    <mergeCell ref="F66:G66"/>
+    <mergeCell ref="H66:I66"/>
+    <mergeCell ref="J66:K66"/>
+    <mergeCell ref="L66:M66"/>
+    <mergeCell ref="N66:O66"/>
+    <mergeCell ref="T59:U59"/>
+    <mergeCell ref="V59:W59"/>
+    <mergeCell ref="X59:Y59"/>
+    <mergeCell ref="Z59:AA59"/>
+    <mergeCell ref="AB59:AC59"/>
+    <mergeCell ref="AD59:AE59"/>
+    <mergeCell ref="AB58:AC58"/>
+    <mergeCell ref="AD58:AE58"/>
+    <mergeCell ref="D59:E59"/>
+    <mergeCell ref="F59:G59"/>
+    <mergeCell ref="H59:I59"/>
+    <mergeCell ref="J59:K59"/>
+    <mergeCell ref="L59:M59"/>
+    <mergeCell ref="N59:O59"/>
+    <mergeCell ref="P59:Q59"/>
+    <mergeCell ref="R59:S59"/>
+    <mergeCell ref="P58:Q58"/>
+    <mergeCell ref="R58:S58"/>
+    <mergeCell ref="T58:U58"/>
+    <mergeCell ref="V58:W58"/>
+    <mergeCell ref="X58:Y58"/>
+    <mergeCell ref="Z58:AA58"/>
+    <mergeCell ref="N58:O58"/>
+    <mergeCell ref="T61:U61"/>
+    <mergeCell ref="V61:W61"/>
+    <mergeCell ref="X61:Y61"/>
+    <mergeCell ref="Z61:AA61"/>
+    <mergeCell ref="AB61:AC61"/>
+    <mergeCell ref="AD61:AE61"/>
+    <mergeCell ref="AB60:AC60"/>
+    <mergeCell ref="AD60:AE60"/>
+    <mergeCell ref="D61:E61"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="P61:Q61"/>
+    <mergeCell ref="R61:S61"/>
+    <mergeCell ref="P60:Q60"/>
+    <mergeCell ref="R60:S60"/>
+    <mergeCell ref="T60:U60"/>
+    <mergeCell ref="V60:W60"/>
+    <mergeCell ref="X60:Y60"/>
+    <mergeCell ref="Z60:AA60"/>
+    <mergeCell ref="D60:E60"/>
+    <mergeCell ref="F60:G60"/>
+    <mergeCell ref="Z62:AA62"/>
+    <mergeCell ref="AB62:AC62"/>
+    <mergeCell ref="AD62:AE62"/>
+    <mergeCell ref="D63:E63"/>
+    <mergeCell ref="F63:G63"/>
+    <mergeCell ref="H63:I63"/>
+    <mergeCell ref="J63:K63"/>
+    <mergeCell ref="L63:M63"/>
+    <mergeCell ref="N63:O63"/>
+    <mergeCell ref="P63:Q63"/>
+    <mergeCell ref="N62:O62"/>
+    <mergeCell ref="P62:Q62"/>
+    <mergeCell ref="R62:S62"/>
+    <mergeCell ref="T62:U62"/>
+    <mergeCell ref="V62:W62"/>
+    <mergeCell ref="X62:Y62"/>
+    <mergeCell ref="AD63:AE63"/>
+    <mergeCell ref="R63:S63"/>
+    <mergeCell ref="T63:U63"/>
+    <mergeCell ref="V63:W63"/>
+    <mergeCell ref="X63:Y63"/>
+    <mergeCell ref="Z63:AA63"/>
+    <mergeCell ref="AB63:AC63"/>
+    <mergeCell ref="V64:W64"/>
+    <mergeCell ref="X64:Y64"/>
+    <mergeCell ref="Z64:AA64"/>
+    <mergeCell ref="AB64:AC64"/>
+    <mergeCell ref="AD64:AE64"/>
+    <mergeCell ref="D65:E65"/>
+    <mergeCell ref="F65:G65"/>
+    <mergeCell ref="H65:I65"/>
+    <mergeCell ref="J65:K65"/>
+    <mergeCell ref="L65:M65"/>
+    <mergeCell ref="Z65:AA65"/>
+    <mergeCell ref="AB65:AC65"/>
+    <mergeCell ref="AD65:AE65"/>
+    <mergeCell ref="P64:Q64"/>
+    <mergeCell ref="R64:S64"/>
+    <mergeCell ref="T64:U64"/>
+    <mergeCell ref="P66:Q66"/>
+    <mergeCell ref="N65:O65"/>
+    <mergeCell ref="P65:Q65"/>
+    <mergeCell ref="R65:S65"/>
+    <mergeCell ref="T65:U65"/>
+    <mergeCell ref="V65:W65"/>
+    <mergeCell ref="X65:Y65"/>
+    <mergeCell ref="AD66:AE66"/>
+    <mergeCell ref="D67:E67"/>
+    <mergeCell ref="F67:G67"/>
+    <mergeCell ref="H67:I67"/>
+    <mergeCell ref="J67:K67"/>
+    <mergeCell ref="L67:M67"/>
+    <mergeCell ref="N67:O67"/>
+    <mergeCell ref="P67:Q67"/>
+    <mergeCell ref="R67:S67"/>
+    <mergeCell ref="T67:U67"/>
+    <mergeCell ref="R66:S66"/>
+    <mergeCell ref="T66:U66"/>
+    <mergeCell ref="V66:W66"/>
+    <mergeCell ref="X66:Y66"/>
+    <mergeCell ref="Z66:AA66"/>
+    <mergeCell ref="AB66:AC66"/>
+    <mergeCell ref="V67:W67"/>
+    <mergeCell ref="AD67:AE67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="F68:G68"/>
+    <mergeCell ref="H68:I68"/>
+    <mergeCell ref="J68:K68"/>
+    <mergeCell ref="L68:M68"/>
+    <mergeCell ref="Z68:AA68"/>
+    <mergeCell ref="AB68:AC68"/>
+    <mergeCell ref="AD68:AE68"/>
+    <mergeCell ref="N68:O68"/>
+    <mergeCell ref="P68:Q68"/>
+    <mergeCell ref="R68:S68"/>
+    <mergeCell ref="T68:U68"/>
+    <mergeCell ref="V68:W68"/>
+    <mergeCell ref="X68:Y68"/>
+    <mergeCell ref="X67:Y67"/>
+    <mergeCell ref="Z67:AA67"/>
+    <mergeCell ref="AB67:AC67"/>
+    <mergeCell ref="AD69:AE69"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="F70:G70"/>
+    <mergeCell ref="H70:I70"/>
+    <mergeCell ref="J70:K70"/>
+    <mergeCell ref="L70:M70"/>
+    <mergeCell ref="N70:O70"/>
+    <mergeCell ref="P70:Q70"/>
+    <mergeCell ref="R70:S70"/>
+    <mergeCell ref="T70:U70"/>
+    <mergeCell ref="R69:S69"/>
+    <mergeCell ref="T69:U69"/>
+    <mergeCell ref="V69:W69"/>
+    <mergeCell ref="X69:Y69"/>
+    <mergeCell ref="Z69:AA69"/>
+    <mergeCell ref="AB69:AC69"/>
+    <mergeCell ref="V70:W70"/>
+    <mergeCell ref="X70:Y70"/>
+    <mergeCell ref="Z70:AA70"/>
+    <mergeCell ref="AB70:AC70"/>
+    <mergeCell ref="AD70:AE70"/>
+    <mergeCell ref="L69:M69"/>
+    <mergeCell ref="N69:O69"/>
+    <mergeCell ref="P69:Q69"/>
+    <mergeCell ref="L71:M71"/>
+    <mergeCell ref="Z71:AA71"/>
+    <mergeCell ref="AB71:AC71"/>
+    <mergeCell ref="AD71:AE71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="F72:G72"/>
+    <mergeCell ref="H72:I72"/>
+    <mergeCell ref="J72:K72"/>
+    <mergeCell ref="L72:M72"/>
+    <mergeCell ref="N72:O72"/>
+    <mergeCell ref="P72:Q72"/>
+    <mergeCell ref="N71:O71"/>
+    <mergeCell ref="P71:Q71"/>
+    <mergeCell ref="R71:S71"/>
+    <mergeCell ref="T71:U71"/>
+    <mergeCell ref="V71:W71"/>
+    <mergeCell ref="X71:Y71"/>
+    <mergeCell ref="AD72:AE72"/>
+    <mergeCell ref="Z72:AA72"/>
+    <mergeCell ref="AB72:AC72"/>
+    <mergeCell ref="L73:M73"/>
+    <mergeCell ref="N73:O73"/>
+    <mergeCell ref="P73:Q73"/>
+    <mergeCell ref="R73:S73"/>
+    <mergeCell ref="T73:U73"/>
+    <mergeCell ref="R72:S72"/>
+    <mergeCell ref="T72:U72"/>
+    <mergeCell ref="V72:W72"/>
+    <mergeCell ref="X72:Y72"/>
+    <mergeCell ref="V73:W73"/>
+    <mergeCell ref="X73:Y73"/>
+    <mergeCell ref="D74:E74"/>
+    <mergeCell ref="F74:G74"/>
+    <mergeCell ref="H74:I74"/>
+    <mergeCell ref="J74:K74"/>
+    <mergeCell ref="L74:M74"/>
+    <mergeCell ref="Z74:AA74"/>
+    <mergeCell ref="AB74:AC74"/>
+    <mergeCell ref="AD74:AE74"/>
+    <mergeCell ref="X74:Y74"/>
+    <mergeCell ref="P75:Q75"/>
+    <mergeCell ref="N74:O74"/>
+    <mergeCell ref="P74:Q74"/>
+    <mergeCell ref="R74:S74"/>
+    <mergeCell ref="T74:U74"/>
+    <mergeCell ref="V74:W74"/>
+    <mergeCell ref="Z73:AA73"/>
+    <mergeCell ref="AB73:AC73"/>
+    <mergeCell ref="AD73:AE73"/>
+    <mergeCell ref="AD75:AE75"/>
+    <mergeCell ref="R75:S75"/>
+    <mergeCell ref="T75:U75"/>
+    <mergeCell ref="V75:W75"/>
+    <mergeCell ref="X75:Y75"/>
+    <mergeCell ref="Z75:AA75"/>
+    <mergeCell ref="AB75:AC75"/>
+    <mergeCell ref="AB76:AC76"/>
+    <mergeCell ref="AD76:AE76"/>
+    <mergeCell ref="J75:K75"/>
+    <mergeCell ref="L75:M75"/>
+    <mergeCell ref="N75:O75"/>
+    <mergeCell ref="D77:E77"/>
+    <mergeCell ref="F77:G77"/>
+    <mergeCell ref="H77:I77"/>
+    <mergeCell ref="J77:K77"/>
+    <mergeCell ref="L77:M77"/>
+    <mergeCell ref="Z77:AA77"/>
+    <mergeCell ref="AB77:AC77"/>
+    <mergeCell ref="AD77:AE77"/>
+    <mergeCell ref="R77:S77"/>
+    <mergeCell ref="T77:U77"/>
+    <mergeCell ref="V77:W77"/>
+    <mergeCell ref="X77:Y77"/>
+    <mergeCell ref="D76:E76"/>
+    <mergeCell ref="F76:G76"/>
+    <mergeCell ref="H76:I76"/>
+    <mergeCell ref="J76:K76"/>
+    <mergeCell ref="L76:M76"/>
+    <mergeCell ref="N76:O76"/>
+    <mergeCell ref="P76:Q76"/>
+    <mergeCell ref="J78:K78"/>
+    <mergeCell ref="L78:M78"/>
+    <mergeCell ref="N78:O78"/>
+    <mergeCell ref="P78:Q78"/>
+    <mergeCell ref="N77:O77"/>
+    <mergeCell ref="P77:Q77"/>
+    <mergeCell ref="V76:W76"/>
+    <mergeCell ref="X76:Y76"/>
+    <mergeCell ref="Z76:AA76"/>
+    <mergeCell ref="R76:S76"/>
+    <mergeCell ref="T76:U76"/>
+    <mergeCell ref="AD78:AE78"/>
+    <mergeCell ref="R78:S78"/>
+    <mergeCell ref="T78:U78"/>
+    <mergeCell ref="D79:E79"/>
+    <mergeCell ref="F79:G79"/>
+    <mergeCell ref="H79:I79"/>
+    <mergeCell ref="J79:K79"/>
+    <mergeCell ref="L79:M79"/>
+    <mergeCell ref="N79:O79"/>
+    <mergeCell ref="P79:Q79"/>
+    <mergeCell ref="R79:S79"/>
+    <mergeCell ref="T79:U79"/>
+    <mergeCell ref="V78:W78"/>
+    <mergeCell ref="X78:Y78"/>
+    <mergeCell ref="Z78:AA78"/>
+    <mergeCell ref="AB78:AC78"/>
+    <mergeCell ref="V79:W79"/>
+    <mergeCell ref="X79:Y79"/>
+    <mergeCell ref="Z79:AA79"/>
+    <mergeCell ref="AB79:AC79"/>
+    <mergeCell ref="AD79:AE79"/>
+    <mergeCell ref="D78:E78"/>
+    <mergeCell ref="F78:G78"/>
+    <mergeCell ref="H78:I78"/>
+    <mergeCell ref="D80:E80"/>
+    <mergeCell ref="F80:G80"/>
+    <mergeCell ref="H80:I80"/>
+    <mergeCell ref="J80:K80"/>
+    <mergeCell ref="L80:M80"/>
+    <mergeCell ref="Z80:AA80"/>
+    <mergeCell ref="AB80:AC80"/>
+    <mergeCell ref="AD80:AE80"/>
+    <mergeCell ref="D81:E81"/>
+    <mergeCell ref="F81:G81"/>
+    <mergeCell ref="H81:I81"/>
+    <mergeCell ref="J81:K81"/>
+    <mergeCell ref="L81:M81"/>
+    <mergeCell ref="N81:O81"/>
+    <mergeCell ref="P81:Q81"/>
+    <mergeCell ref="N80:O80"/>
+    <mergeCell ref="P80:Q80"/>
+    <mergeCell ref="R80:S80"/>
+    <mergeCell ref="T80:U80"/>
+    <mergeCell ref="V80:W80"/>
+    <mergeCell ref="X80:Y80"/>
+    <mergeCell ref="AD81:AE81"/>
+    <mergeCell ref="R81:S81"/>
+    <mergeCell ref="T81:U81"/>
+    <mergeCell ref="D82:E82"/>
+    <mergeCell ref="F82:G82"/>
+    <mergeCell ref="H82:I82"/>
+    <mergeCell ref="J82:K82"/>
+    <mergeCell ref="L82:M82"/>
+    <mergeCell ref="N82:O82"/>
+    <mergeCell ref="P82:Q82"/>
+    <mergeCell ref="R82:S82"/>
+    <mergeCell ref="T82:U82"/>
+    <mergeCell ref="V81:W81"/>
+    <mergeCell ref="X81:Y81"/>
+    <mergeCell ref="Z81:AA81"/>
+    <mergeCell ref="AB81:AC81"/>
+    <mergeCell ref="V82:W82"/>
+    <mergeCell ref="X82:Y82"/>
+    <mergeCell ref="Z82:AA82"/>
+    <mergeCell ref="AB82:AC82"/>
+    <mergeCell ref="AD82:AE82"/>
+    <mergeCell ref="D83:E83"/>
+    <mergeCell ref="F83:G83"/>
+    <mergeCell ref="H83:I83"/>
+    <mergeCell ref="J83:K83"/>
+    <mergeCell ref="L83:M83"/>
+    <mergeCell ref="Z83:AA83"/>
+    <mergeCell ref="AB83:AC83"/>
+    <mergeCell ref="AD83:AE83"/>
+    <mergeCell ref="D84:E84"/>
+    <mergeCell ref="F84:G84"/>
+    <mergeCell ref="H84:I84"/>
+    <mergeCell ref="J84:K84"/>
+    <mergeCell ref="L84:M84"/>
+    <mergeCell ref="N84:O84"/>
+    <mergeCell ref="P84:Q84"/>
+    <mergeCell ref="N83:O83"/>
+    <mergeCell ref="P83:Q83"/>
+    <mergeCell ref="R83:S83"/>
+    <mergeCell ref="T83:U83"/>
+    <mergeCell ref="V83:W83"/>
+    <mergeCell ref="X83:Y83"/>
+    <mergeCell ref="D86:E86"/>
+    <mergeCell ref="F86:G86"/>
+    <mergeCell ref="H86:I86"/>
+    <mergeCell ref="J86:K86"/>
+    <mergeCell ref="L86:M86"/>
+    <mergeCell ref="AD84:AE84"/>
+    <mergeCell ref="D85:E85"/>
+    <mergeCell ref="F85:G85"/>
+    <mergeCell ref="H85:I85"/>
+    <mergeCell ref="J85:K85"/>
+    <mergeCell ref="L85:M85"/>
+    <mergeCell ref="N85:O85"/>
+    <mergeCell ref="P85:Q85"/>
+    <mergeCell ref="R85:S85"/>
+    <mergeCell ref="T85:U85"/>
+    <mergeCell ref="R84:S84"/>
+    <mergeCell ref="T84:U84"/>
+    <mergeCell ref="V84:W84"/>
+    <mergeCell ref="X84:Y84"/>
+    <mergeCell ref="Z84:AA84"/>
+    <mergeCell ref="AB84:AC84"/>
+    <mergeCell ref="N86:O86"/>
+    <mergeCell ref="P86:Q86"/>
+    <mergeCell ref="R86:S86"/>
+    <mergeCell ref="T86:U86"/>
+    <mergeCell ref="Z86:AA86"/>
+    <mergeCell ref="AB86:AC86"/>
+    <mergeCell ref="V86:W86"/>
+    <mergeCell ref="X86:Y86"/>
+    <mergeCell ref="V85:W85"/>
+    <mergeCell ref="X85:Y85"/>
+    <mergeCell ref="Z85:AA85"/>
+    <mergeCell ref="AB85:AC85"/>
+    <mergeCell ref="D88:E88"/>
+    <mergeCell ref="F88:G88"/>
+    <mergeCell ref="H88:I88"/>
+    <mergeCell ref="J88:K88"/>
+    <mergeCell ref="L88:M88"/>
+    <mergeCell ref="N88:O88"/>
+    <mergeCell ref="P88:Q88"/>
+    <mergeCell ref="N87:O87"/>
+    <mergeCell ref="P87:Q87"/>
+    <mergeCell ref="D87:E87"/>
+    <mergeCell ref="F87:G87"/>
+    <mergeCell ref="H87:I87"/>
+    <mergeCell ref="J87:K87"/>
+    <mergeCell ref="L87:M87"/>
+    <mergeCell ref="D89:E89"/>
+    <mergeCell ref="F89:G89"/>
+    <mergeCell ref="H89:I89"/>
+    <mergeCell ref="J89:K89"/>
+    <mergeCell ref="X90:Y90"/>
+    <mergeCell ref="N89:O89"/>
+    <mergeCell ref="P89:Q89"/>
+    <mergeCell ref="R89:S89"/>
+    <mergeCell ref="T89:U89"/>
+    <mergeCell ref="F91:G91"/>
+    <mergeCell ref="H91:I91"/>
+    <mergeCell ref="J91:K91"/>
+    <mergeCell ref="L91:M91"/>
+    <mergeCell ref="AD89:AE89"/>
+    <mergeCell ref="P91:Q91"/>
+    <mergeCell ref="Z90:AA90"/>
+    <mergeCell ref="AB90:AC90"/>
+    <mergeCell ref="AD90:AE90"/>
+    <mergeCell ref="Z91:AA91"/>
+    <mergeCell ref="T91:U91"/>
+    <mergeCell ref="V90:W90"/>
+    <mergeCell ref="R91:S91"/>
+    <mergeCell ref="AD91:AE91"/>
+    <mergeCell ref="F90:G90"/>
+    <mergeCell ref="H90:I90"/>
+    <mergeCell ref="J90:K90"/>
+    <mergeCell ref="L90:M90"/>
+    <mergeCell ref="AB91:AC91"/>
+    <mergeCell ref="N94:O94"/>
+    <mergeCell ref="P94:Q94"/>
+    <mergeCell ref="AD95:AE95"/>
+    <mergeCell ref="T95:U95"/>
+    <mergeCell ref="AB95:AC95"/>
+    <mergeCell ref="AB94:AC94"/>
+    <mergeCell ref="V94:W94"/>
+    <mergeCell ref="X94:Y94"/>
+    <mergeCell ref="Z94:AA94"/>
+    <mergeCell ref="T94:U94"/>
+    <mergeCell ref="AD94:AE94"/>
+    <mergeCell ref="Z95:AA95"/>
+    <mergeCell ref="R94:S94"/>
+    <mergeCell ref="N95:O95"/>
+    <mergeCell ref="P95:Q95"/>
+    <mergeCell ref="R95:S95"/>
+    <mergeCell ref="N97:O97"/>
+    <mergeCell ref="P97:Q97"/>
+    <mergeCell ref="R97:S97"/>
+    <mergeCell ref="V97:W97"/>
+    <mergeCell ref="P96:Q96"/>
+    <mergeCell ref="R96:S96"/>
+    <mergeCell ref="T97:U97"/>
+    <mergeCell ref="X95:Y95"/>
+    <mergeCell ref="J96:K96"/>
+    <mergeCell ref="X96:Y96"/>
+    <mergeCell ref="L96:M96"/>
+    <mergeCell ref="N96:O96"/>
+    <mergeCell ref="T96:U96"/>
+    <mergeCell ref="V96:W96"/>
+    <mergeCell ref="J95:K95"/>
+    <mergeCell ref="L95:M95"/>
+    <mergeCell ref="J97:K97"/>
+    <mergeCell ref="L97:M97"/>
+    <mergeCell ref="AD97:AE97"/>
+    <mergeCell ref="V55:W55"/>
+    <mergeCell ref="Z55:AA55"/>
+    <mergeCell ref="AD55:AE55"/>
+    <mergeCell ref="AD96:AE96"/>
+    <mergeCell ref="X97:Y97"/>
+    <mergeCell ref="Z97:AA97"/>
+    <mergeCell ref="AB96:AC96"/>
+    <mergeCell ref="AB97:AC97"/>
+    <mergeCell ref="V95:W95"/>
+    <mergeCell ref="Z96:AA96"/>
+    <mergeCell ref="AD93:AE93"/>
+    <mergeCell ref="AD92:AE92"/>
+    <mergeCell ref="AB93:AC93"/>
+    <mergeCell ref="V93:W93"/>
+    <mergeCell ref="X93:Y93"/>
+    <mergeCell ref="Z92:AA92"/>
+    <mergeCell ref="AB92:AC92"/>
+    <mergeCell ref="Z93:AA93"/>
+    <mergeCell ref="V92:W92"/>
+    <mergeCell ref="V91:W91"/>
+    <mergeCell ref="AD88:AE88"/>
+    <mergeCell ref="V88:W88"/>
+    <mergeCell ref="X88:Y88"/>
+    <mergeCell ref="D94:E94"/>
+    <mergeCell ref="F94:G94"/>
+    <mergeCell ref="H94:I94"/>
+    <mergeCell ref="J94:K94"/>
+    <mergeCell ref="D93:E93"/>
+    <mergeCell ref="D95:E95"/>
+    <mergeCell ref="F95:G95"/>
+    <mergeCell ref="H93:I93"/>
+    <mergeCell ref="J93:K93"/>
+    <mergeCell ref="H95:I95"/>
+    <mergeCell ref="L94:M94"/>
+    <mergeCell ref="F92:G92"/>
+    <mergeCell ref="H92:I92"/>
+    <mergeCell ref="J92:K92"/>
+    <mergeCell ref="L92:M92"/>
+    <mergeCell ref="L93:M93"/>
+    <mergeCell ref="D91:E91"/>
+    <mergeCell ref="N55:O55"/>
+    <mergeCell ref="X91:Y91"/>
+    <mergeCell ref="N90:O90"/>
+    <mergeCell ref="P90:Q90"/>
+    <mergeCell ref="T90:U90"/>
+    <mergeCell ref="X92:Y92"/>
+    <mergeCell ref="R93:S93"/>
+    <mergeCell ref="T92:U92"/>
+    <mergeCell ref="R90:S90"/>
+    <mergeCell ref="R92:S92"/>
+    <mergeCell ref="P92:Q92"/>
+    <mergeCell ref="N91:O91"/>
+    <mergeCell ref="N92:O92"/>
+    <mergeCell ref="N93:O93"/>
+    <mergeCell ref="P93:Q93"/>
+    <mergeCell ref="T93:U93"/>
+    <mergeCell ref="R88:S88"/>
+    <mergeCell ref="T88:U88"/>
+    <mergeCell ref="AB89:AC89"/>
+    <mergeCell ref="Z52:AA52"/>
+    <mergeCell ref="X51:Y51"/>
+    <mergeCell ref="Q42:S42"/>
+    <mergeCell ref="T42:AE42"/>
+    <mergeCell ref="R55:S55"/>
+    <mergeCell ref="Z54:AA54"/>
+    <mergeCell ref="P53:Q53"/>
+    <mergeCell ref="R53:S53"/>
+    <mergeCell ref="AD52:AE52"/>
+    <mergeCell ref="V89:W89"/>
+    <mergeCell ref="X89:Y89"/>
+    <mergeCell ref="Z89:AA89"/>
+    <mergeCell ref="Z88:AA88"/>
+    <mergeCell ref="AB88:AC88"/>
+    <mergeCell ref="Z87:AA87"/>
+    <mergeCell ref="AB87:AC87"/>
+    <mergeCell ref="AD87:AE87"/>
+    <mergeCell ref="AD86:AE86"/>
+    <mergeCell ref="R87:S87"/>
+    <mergeCell ref="T87:U87"/>
+    <mergeCell ref="V87:W87"/>
+    <mergeCell ref="X87:Y87"/>
+    <mergeCell ref="AB53:AC53"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="AD51:AE51"/>
+    <mergeCell ref="AD49:AE49"/>
+    <mergeCell ref="AD48:AE48"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="AB51:AC51"/>
+    <mergeCell ref="AB52:AC52"/>
+    <mergeCell ref="X52:Y52"/>
+    <mergeCell ref="V52:W52"/>
+    <mergeCell ref="Z51:AA51"/>
+    <mergeCell ref="T51:U51"/>
+    <mergeCell ref="V51:W51"/>
+    <mergeCell ref="Z48:AA48"/>
+    <mergeCell ref="L52:M52"/>
+    <mergeCell ref="N52:O52"/>
+    <mergeCell ref="T52:U52"/>
+    <mergeCell ref="P31:U31"/>
+    <mergeCell ref="X31:Y31"/>
+    <mergeCell ref="AB31:AC31"/>
+    <mergeCell ref="Z39:AA39"/>
+    <mergeCell ref="AB39:AC39"/>
+    <mergeCell ref="P32:U32"/>
+    <mergeCell ref="AD30:AE30"/>
+    <mergeCell ref="Z38:AA38"/>
+    <mergeCell ref="AB38:AC38"/>
+    <mergeCell ref="Z37:AA37"/>
+    <mergeCell ref="AB37:AC37"/>
+    <mergeCell ref="Z36:AA36"/>
+    <mergeCell ref="AB36:AC36"/>
+    <mergeCell ref="Z35:AA35"/>
+    <mergeCell ref="AB35:AC35"/>
+    <mergeCell ref="AB34:AC34"/>
+    <mergeCell ref="AD37:AE37"/>
+    <mergeCell ref="AD38:AE38"/>
+    <mergeCell ref="AD39:AE39"/>
+    <mergeCell ref="A88:C92"/>
+    <mergeCell ref="A93:C97"/>
+    <mergeCell ref="A58:C62"/>
+    <mergeCell ref="A63:C67"/>
+    <mergeCell ref="A68:C72"/>
+    <mergeCell ref="A73:C77"/>
+    <mergeCell ref="A78:C82"/>
+    <mergeCell ref="A83:C87"/>
+    <mergeCell ref="A50:C50"/>
+    <mergeCell ref="A52:C52"/>
+    <mergeCell ref="A53:C53"/>
+    <mergeCell ref="A54:C54"/>
+    <mergeCell ref="A55:C55"/>
+    <mergeCell ref="A47:C47"/>
+    <mergeCell ref="A48:C48"/>
+    <mergeCell ref="A49:C49"/>
+    <mergeCell ref="P39:U39"/>
+    <mergeCell ref="V39:W39"/>
+    <mergeCell ref="X39:Y39"/>
+    <mergeCell ref="A51:C51"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="AD85:AE85"/>
+    <mergeCell ref="AD54:AE54"/>
+    <mergeCell ref="F49:G49"/>
+    <mergeCell ref="N49:O49"/>
+    <mergeCell ref="T49:U49"/>
+    <mergeCell ref="R49:S49"/>
+    <mergeCell ref="I42:P42"/>
+    <mergeCell ref="L49:M49"/>
+    <mergeCell ref="H49:I49"/>
+    <mergeCell ref="J49:K49"/>
+    <mergeCell ref="P49:Q49"/>
     <mergeCell ref="V29:AE29"/>
     <mergeCell ref="P28:AE28"/>
     <mergeCell ref="AD31:AE31"/>
@@ -8150,741 +8718,6 @@
     <mergeCell ref="P37:U37"/>
     <mergeCell ref="V37:W37"/>
     <mergeCell ref="X37:Y37"/>
-    <mergeCell ref="F49:G49"/>
-    <mergeCell ref="N49:O49"/>
-    <mergeCell ref="T49:U49"/>
-    <mergeCell ref="R49:S49"/>
-    <mergeCell ref="I42:P42"/>
-    <mergeCell ref="L49:M49"/>
-    <mergeCell ref="H49:I49"/>
-    <mergeCell ref="J49:K49"/>
-    <mergeCell ref="P49:Q49"/>
-    <mergeCell ref="AD39:AE39"/>
-    <mergeCell ref="A88:C92"/>
-    <mergeCell ref="A93:C97"/>
-    <mergeCell ref="A58:C62"/>
-    <mergeCell ref="A63:C67"/>
-    <mergeCell ref="A68:C72"/>
-    <mergeCell ref="A73:C77"/>
-    <mergeCell ref="A78:C82"/>
-    <mergeCell ref="A83:C87"/>
-    <mergeCell ref="A50:C50"/>
-    <mergeCell ref="A52:C52"/>
-    <mergeCell ref="A53:C53"/>
-    <mergeCell ref="A54:C54"/>
-    <mergeCell ref="A55:C55"/>
-    <mergeCell ref="A47:C47"/>
-    <mergeCell ref="A48:C48"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="P39:U39"/>
-    <mergeCell ref="V39:W39"/>
-    <mergeCell ref="X39:Y39"/>
-    <mergeCell ref="A51:C51"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="AD30:AE30"/>
-    <mergeCell ref="Z38:AA38"/>
-    <mergeCell ref="AB38:AC38"/>
-    <mergeCell ref="Z37:AA37"/>
-    <mergeCell ref="AB37:AC37"/>
-    <mergeCell ref="Z36:AA36"/>
-    <mergeCell ref="AB36:AC36"/>
-    <mergeCell ref="Z35:AA35"/>
-    <mergeCell ref="AB35:AC35"/>
-    <mergeCell ref="AB34:AC34"/>
-    <mergeCell ref="AD37:AE37"/>
-    <mergeCell ref="AD38:AE38"/>
-    <mergeCell ref="AD85:AE85"/>
-    <mergeCell ref="AD54:AE54"/>
-    <mergeCell ref="L52:M52"/>
-    <mergeCell ref="N52:O52"/>
-    <mergeCell ref="T52:U52"/>
-    <mergeCell ref="P31:U31"/>
-    <mergeCell ref="X31:Y31"/>
-    <mergeCell ref="AB31:AC31"/>
-    <mergeCell ref="Z39:AA39"/>
-    <mergeCell ref="AB39:AC39"/>
-    <mergeCell ref="P32:U32"/>
-    <mergeCell ref="AB53:AC53"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="AD51:AE51"/>
-    <mergeCell ref="AD49:AE49"/>
-    <mergeCell ref="AD48:AE48"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="Z49:AA49"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="AB48:AC48"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="T88:U88"/>
-    <mergeCell ref="AB89:AC89"/>
-    <mergeCell ref="Z52:AA52"/>
-    <mergeCell ref="X51:Y51"/>
-    <mergeCell ref="Q42:S42"/>
-    <mergeCell ref="T42:AE42"/>
-    <mergeCell ref="R55:S55"/>
-    <mergeCell ref="Z54:AA54"/>
-    <mergeCell ref="P53:Q53"/>
-    <mergeCell ref="R53:S53"/>
-    <mergeCell ref="AD52:AE52"/>
-    <mergeCell ref="V89:W89"/>
-    <mergeCell ref="X89:Y89"/>
-    <mergeCell ref="Z89:AA89"/>
-    <mergeCell ref="Z88:AA88"/>
-    <mergeCell ref="AB88:AC88"/>
-    <mergeCell ref="Z87:AA87"/>
-    <mergeCell ref="AB87:AC87"/>
-    <mergeCell ref="AD87:AE87"/>
-    <mergeCell ref="AD86:AE86"/>
-    <mergeCell ref="R87:S87"/>
-    <mergeCell ref="T87:U87"/>
-    <mergeCell ref="V87:W87"/>
-    <mergeCell ref="X87:Y87"/>
-    <mergeCell ref="L94:M94"/>
-    <mergeCell ref="F92:G92"/>
-    <mergeCell ref="H92:I92"/>
-    <mergeCell ref="J92:K92"/>
-    <mergeCell ref="L92:M92"/>
-    <mergeCell ref="L93:M93"/>
-    <mergeCell ref="D91:E91"/>
-    <mergeCell ref="N55:O55"/>
-    <mergeCell ref="X91:Y91"/>
-    <mergeCell ref="N90:O90"/>
-    <mergeCell ref="P90:Q90"/>
-    <mergeCell ref="T90:U90"/>
-    <mergeCell ref="X92:Y92"/>
-    <mergeCell ref="R93:S93"/>
-    <mergeCell ref="T92:U92"/>
-    <mergeCell ref="R90:S90"/>
-    <mergeCell ref="R92:S92"/>
-    <mergeCell ref="P92:Q92"/>
-    <mergeCell ref="N91:O91"/>
-    <mergeCell ref="N92:O92"/>
-    <mergeCell ref="N93:O93"/>
-    <mergeCell ref="P93:Q93"/>
-    <mergeCell ref="T93:U93"/>
-    <mergeCell ref="R88:S88"/>
-    <mergeCell ref="D94:E94"/>
-    <mergeCell ref="F94:G94"/>
-    <mergeCell ref="H94:I94"/>
-    <mergeCell ref="J94:K94"/>
-    <mergeCell ref="D93:E93"/>
-    <mergeCell ref="D95:E95"/>
-    <mergeCell ref="F95:G95"/>
-    <mergeCell ref="H93:I93"/>
-    <mergeCell ref="J93:K93"/>
-    <mergeCell ref="H95:I95"/>
-    <mergeCell ref="AD97:AE97"/>
-    <mergeCell ref="V55:W55"/>
-    <mergeCell ref="Z55:AA55"/>
-    <mergeCell ref="AD55:AE55"/>
-    <mergeCell ref="AD96:AE96"/>
-    <mergeCell ref="X97:Y97"/>
-    <mergeCell ref="Z97:AA97"/>
-    <mergeCell ref="AB96:AC96"/>
-    <mergeCell ref="AB97:AC97"/>
-    <mergeCell ref="V95:W95"/>
-    <mergeCell ref="Z96:AA96"/>
-    <mergeCell ref="AD93:AE93"/>
-    <mergeCell ref="AD92:AE92"/>
-    <mergeCell ref="AB93:AC93"/>
-    <mergeCell ref="V93:W93"/>
-    <mergeCell ref="X93:Y93"/>
-    <mergeCell ref="Z92:AA92"/>
-    <mergeCell ref="AB92:AC92"/>
-    <mergeCell ref="Z93:AA93"/>
-    <mergeCell ref="V92:W92"/>
-    <mergeCell ref="V91:W91"/>
-    <mergeCell ref="AD88:AE88"/>
-    <mergeCell ref="V88:W88"/>
-    <mergeCell ref="X88:Y88"/>
-    <mergeCell ref="N97:O97"/>
-    <mergeCell ref="P97:Q97"/>
-    <mergeCell ref="R97:S97"/>
-    <mergeCell ref="V97:W97"/>
-    <mergeCell ref="P96:Q96"/>
-    <mergeCell ref="R96:S96"/>
-    <mergeCell ref="T97:U97"/>
-    <mergeCell ref="X95:Y95"/>
-    <mergeCell ref="J96:K96"/>
-    <mergeCell ref="X96:Y96"/>
-    <mergeCell ref="L96:M96"/>
-    <mergeCell ref="N96:O96"/>
-    <mergeCell ref="T96:U96"/>
-    <mergeCell ref="V96:W96"/>
-    <mergeCell ref="J95:K95"/>
-    <mergeCell ref="L95:M95"/>
-    <mergeCell ref="J97:K97"/>
-    <mergeCell ref="L97:M97"/>
-    <mergeCell ref="N94:O94"/>
-    <mergeCell ref="P94:Q94"/>
-    <mergeCell ref="AD95:AE95"/>
-    <mergeCell ref="T95:U95"/>
-    <mergeCell ref="AB95:AC95"/>
-    <mergeCell ref="AB94:AC94"/>
-    <mergeCell ref="V94:W94"/>
-    <mergeCell ref="X94:Y94"/>
-    <mergeCell ref="Z94:AA94"/>
-    <mergeCell ref="T94:U94"/>
-    <mergeCell ref="AD94:AE94"/>
-    <mergeCell ref="Z95:AA95"/>
-    <mergeCell ref="R94:S94"/>
-    <mergeCell ref="N95:O95"/>
-    <mergeCell ref="P95:Q95"/>
-    <mergeCell ref="R95:S95"/>
-    <mergeCell ref="F91:G91"/>
-    <mergeCell ref="H91:I91"/>
-    <mergeCell ref="J91:K91"/>
-    <mergeCell ref="L91:M91"/>
-    <mergeCell ref="AD89:AE89"/>
-    <mergeCell ref="P91:Q91"/>
-    <mergeCell ref="Z90:AA90"/>
-    <mergeCell ref="AB90:AC90"/>
-    <mergeCell ref="AD90:AE90"/>
-    <mergeCell ref="Z91:AA91"/>
-    <mergeCell ref="T91:U91"/>
-    <mergeCell ref="V90:W90"/>
-    <mergeCell ref="R91:S91"/>
-    <mergeCell ref="AD91:AE91"/>
-    <mergeCell ref="F90:G90"/>
-    <mergeCell ref="H90:I90"/>
-    <mergeCell ref="J90:K90"/>
-    <mergeCell ref="L90:M90"/>
-    <mergeCell ref="AB91:AC91"/>
-    <mergeCell ref="D89:E89"/>
-    <mergeCell ref="F89:G89"/>
-    <mergeCell ref="H89:I89"/>
-    <mergeCell ref="J89:K89"/>
-    <mergeCell ref="X90:Y90"/>
-    <mergeCell ref="N89:O89"/>
-    <mergeCell ref="P89:Q89"/>
-    <mergeCell ref="R89:S89"/>
-    <mergeCell ref="T89:U89"/>
-    <mergeCell ref="D88:E88"/>
-    <mergeCell ref="F88:G88"/>
-    <mergeCell ref="H88:I88"/>
-    <mergeCell ref="J88:K88"/>
-    <mergeCell ref="L88:M88"/>
-    <mergeCell ref="N88:O88"/>
-    <mergeCell ref="P88:Q88"/>
-    <mergeCell ref="N87:O87"/>
-    <mergeCell ref="P87:Q87"/>
-    <mergeCell ref="D87:E87"/>
-    <mergeCell ref="F87:G87"/>
-    <mergeCell ref="H87:I87"/>
-    <mergeCell ref="J87:K87"/>
-    <mergeCell ref="L87:M87"/>
-    <mergeCell ref="T86:U86"/>
-    <mergeCell ref="Z86:AA86"/>
-    <mergeCell ref="AB86:AC86"/>
-    <mergeCell ref="V86:W86"/>
-    <mergeCell ref="X86:Y86"/>
-    <mergeCell ref="V85:W85"/>
-    <mergeCell ref="X85:Y85"/>
-    <mergeCell ref="Z85:AA85"/>
-    <mergeCell ref="AB85:AC85"/>
-    <mergeCell ref="D86:E86"/>
-    <mergeCell ref="F86:G86"/>
-    <mergeCell ref="H86:I86"/>
-    <mergeCell ref="J86:K86"/>
-    <mergeCell ref="L86:M86"/>
-    <mergeCell ref="AD84:AE84"/>
-    <mergeCell ref="D85:E85"/>
-    <mergeCell ref="F85:G85"/>
-    <mergeCell ref="H85:I85"/>
-    <mergeCell ref="J85:K85"/>
-    <mergeCell ref="L85:M85"/>
-    <mergeCell ref="N85:O85"/>
-    <mergeCell ref="P85:Q85"/>
-    <mergeCell ref="R85:S85"/>
-    <mergeCell ref="T85:U85"/>
-    <mergeCell ref="R84:S84"/>
-    <mergeCell ref="T84:U84"/>
-    <mergeCell ref="V84:W84"/>
-    <mergeCell ref="X84:Y84"/>
-    <mergeCell ref="Z84:AA84"/>
-    <mergeCell ref="AB84:AC84"/>
-    <mergeCell ref="N86:O86"/>
-    <mergeCell ref="P86:Q86"/>
-    <mergeCell ref="R86:S86"/>
-    <mergeCell ref="D83:E83"/>
-    <mergeCell ref="F83:G83"/>
-    <mergeCell ref="H83:I83"/>
-    <mergeCell ref="J83:K83"/>
-    <mergeCell ref="L83:M83"/>
-    <mergeCell ref="Z83:AA83"/>
-    <mergeCell ref="AB83:AC83"/>
-    <mergeCell ref="AD83:AE83"/>
-    <mergeCell ref="D84:E84"/>
-    <mergeCell ref="F84:G84"/>
-    <mergeCell ref="H84:I84"/>
-    <mergeCell ref="J84:K84"/>
-    <mergeCell ref="L84:M84"/>
-    <mergeCell ref="N84:O84"/>
-    <mergeCell ref="P84:Q84"/>
-    <mergeCell ref="N83:O83"/>
-    <mergeCell ref="P83:Q83"/>
-    <mergeCell ref="R83:S83"/>
-    <mergeCell ref="T83:U83"/>
-    <mergeCell ref="V83:W83"/>
-    <mergeCell ref="X83:Y83"/>
-    <mergeCell ref="V81:W81"/>
-    <mergeCell ref="X81:Y81"/>
-    <mergeCell ref="Z81:AA81"/>
-    <mergeCell ref="AB81:AC81"/>
-    <mergeCell ref="V82:W82"/>
-    <mergeCell ref="X82:Y82"/>
-    <mergeCell ref="Z82:AA82"/>
-    <mergeCell ref="AB82:AC82"/>
-    <mergeCell ref="AD82:AE82"/>
-    <mergeCell ref="D82:E82"/>
-    <mergeCell ref="F82:G82"/>
-    <mergeCell ref="H82:I82"/>
-    <mergeCell ref="J82:K82"/>
-    <mergeCell ref="L82:M82"/>
-    <mergeCell ref="N82:O82"/>
-    <mergeCell ref="P82:Q82"/>
-    <mergeCell ref="R82:S82"/>
-    <mergeCell ref="T82:U82"/>
-    <mergeCell ref="D80:E80"/>
-    <mergeCell ref="F80:G80"/>
-    <mergeCell ref="H80:I80"/>
-    <mergeCell ref="J80:K80"/>
-    <mergeCell ref="L80:M80"/>
-    <mergeCell ref="Z80:AA80"/>
-    <mergeCell ref="AB80:AC80"/>
-    <mergeCell ref="AD80:AE80"/>
-    <mergeCell ref="D81:E81"/>
-    <mergeCell ref="F81:G81"/>
-    <mergeCell ref="H81:I81"/>
-    <mergeCell ref="J81:K81"/>
-    <mergeCell ref="L81:M81"/>
-    <mergeCell ref="N81:O81"/>
-    <mergeCell ref="P81:Q81"/>
-    <mergeCell ref="N80:O80"/>
-    <mergeCell ref="P80:Q80"/>
-    <mergeCell ref="R80:S80"/>
-    <mergeCell ref="T80:U80"/>
-    <mergeCell ref="V80:W80"/>
-    <mergeCell ref="X80:Y80"/>
-    <mergeCell ref="AD81:AE81"/>
-    <mergeCell ref="R81:S81"/>
-    <mergeCell ref="T81:U81"/>
-    <mergeCell ref="AD78:AE78"/>
-    <mergeCell ref="R78:S78"/>
-    <mergeCell ref="T78:U78"/>
-    <mergeCell ref="D79:E79"/>
-    <mergeCell ref="F79:G79"/>
-    <mergeCell ref="H79:I79"/>
-    <mergeCell ref="J79:K79"/>
-    <mergeCell ref="L79:M79"/>
-    <mergeCell ref="N79:O79"/>
-    <mergeCell ref="P79:Q79"/>
-    <mergeCell ref="R79:S79"/>
-    <mergeCell ref="T79:U79"/>
-    <mergeCell ref="V78:W78"/>
-    <mergeCell ref="X78:Y78"/>
-    <mergeCell ref="Z78:AA78"/>
-    <mergeCell ref="AB78:AC78"/>
-    <mergeCell ref="V79:W79"/>
-    <mergeCell ref="X79:Y79"/>
-    <mergeCell ref="Z79:AA79"/>
-    <mergeCell ref="AB79:AC79"/>
-    <mergeCell ref="AD79:AE79"/>
-    <mergeCell ref="D78:E78"/>
-    <mergeCell ref="F78:G78"/>
-    <mergeCell ref="H78:I78"/>
-    <mergeCell ref="J78:K78"/>
-    <mergeCell ref="L78:M78"/>
-    <mergeCell ref="N78:O78"/>
-    <mergeCell ref="P78:Q78"/>
-    <mergeCell ref="N77:O77"/>
-    <mergeCell ref="P77:Q77"/>
-    <mergeCell ref="V76:W76"/>
-    <mergeCell ref="X76:Y76"/>
-    <mergeCell ref="Z76:AA76"/>
-    <mergeCell ref="AB76:AC76"/>
-    <mergeCell ref="AD76:AE76"/>
-    <mergeCell ref="J75:K75"/>
-    <mergeCell ref="L75:M75"/>
-    <mergeCell ref="N75:O75"/>
-    <mergeCell ref="D77:E77"/>
-    <mergeCell ref="F77:G77"/>
-    <mergeCell ref="H77:I77"/>
-    <mergeCell ref="J77:K77"/>
-    <mergeCell ref="L77:M77"/>
-    <mergeCell ref="Z77:AA77"/>
-    <mergeCell ref="AB77:AC77"/>
-    <mergeCell ref="AD77:AE77"/>
-    <mergeCell ref="R77:S77"/>
-    <mergeCell ref="T77:U77"/>
-    <mergeCell ref="V77:W77"/>
-    <mergeCell ref="X77:Y77"/>
-    <mergeCell ref="D76:E76"/>
-    <mergeCell ref="F76:G76"/>
-    <mergeCell ref="H76:I76"/>
-    <mergeCell ref="J76:K76"/>
-    <mergeCell ref="L76:M76"/>
-    <mergeCell ref="N76:O76"/>
-    <mergeCell ref="P76:Q76"/>
-    <mergeCell ref="R76:S76"/>
-    <mergeCell ref="T76:U76"/>
-    <mergeCell ref="P75:Q75"/>
-    <mergeCell ref="N74:O74"/>
-    <mergeCell ref="P74:Q74"/>
-    <mergeCell ref="R74:S74"/>
-    <mergeCell ref="T74:U74"/>
-    <mergeCell ref="V74:W74"/>
-    <mergeCell ref="Z73:AA73"/>
-    <mergeCell ref="AB73:AC73"/>
-    <mergeCell ref="AD73:AE73"/>
-    <mergeCell ref="AD75:AE75"/>
-    <mergeCell ref="R75:S75"/>
-    <mergeCell ref="T75:U75"/>
-    <mergeCell ref="V75:W75"/>
-    <mergeCell ref="X75:Y75"/>
-    <mergeCell ref="Z75:AA75"/>
-    <mergeCell ref="AB75:AC75"/>
-    <mergeCell ref="D74:E74"/>
-    <mergeCell ref="F74:G74"/>
-    <mergeCell ref="H74:I74"/>
-    <mergeCell ref="J74:K74"/>
-    <mergeCell ref="L74:M74"/>
-    <mergeCell ref="Z74:AA74"/>
-    <mergeCell ref="AB74:AC74"/>
-    <mergeCell ref="AD74:AE74"/>
-    <mergeCell ref="X74:Y74"/>
-    <mergeCell ref="L73:M73"/>
-    <mergeCell ref="N73:O73"/>
-    <mergeCell ref="P73:Q73"/>
-    <mergeCell ref="R73:S73"/>
-    <mergeCell ref="T73:U73"/>
-    <mergeCell ref="R72:S72"/>
-    <mergeCell ref="T72:U72"/>
-    <mergeCell ref="V72:W72"/>
-    <mergeCell ref="X72:Y72"/>
-    <mergeCell ref="V73:W73"/>
-    <mergeCell ref="X73:Y73"/>
-    <mergeCell ref="L71:M71"/>
-    <mergeCell ref="Z71:AA71"/>
-    <mergeCell ref="AB71:AC71"/>
-    <mergeCell ref="AD71:AE71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="F72:G72"/>
-    <mergeCell ref="H72:I72"/>
-    <mergeCell ref="J72:K72"/>
-    <mergeCell ref="L72:M72"/>
-    <mergeCell ref="N72:O72"/>
-    <mergeCell ref="P72:Q72"/>
-    <mergeCell ref="N71:O71"/>
-    <mergeCell ref="P71:Q71"/>
-    <mergeCell ref="R71:S71"/>
-    <mergeCell ref="T71:U71"/>
-    <mergeCell ref="V71:W71"/>
-    <mergeCell ref="X71:Y71"/>
-    <mergeCell ref="AD72:AE72"/>
-    <mergeCell ref="Z72:AA72"/>
-    <mergeCell ref="AB72:AC72"/>
-    <mergeCell ref="AD69:AE69"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="F70:G70"/>
-    <mergeCell ref="H70:I70"/>
-    <mergeCell ref="J70:K70"/>
-    <mergeCell ref="L70:M70"/>
-    <mergeCell ref="N70:O70"/>
-    <mergeCell ref="P70:Q70"/>
-    <mergeCell ref="R70:S70"/>
-    <mergeCell ref="T70:U70"/>
-    <mergeCell ref="R69:S69"/>
-    <mergeCell ref="T69:U69"/>
-    <mergeCell ref="V69:W69"/>
-    <mergeCell ref="X69:Y69"/>
-    <mergeCell ref="Z69:AA69"/>
-    <mergeCell ref="AB69:AC69"/>
-    <mergeCell ref="V70:W70"/>
-    <mergeCell ref="X70:Y70"/>
-    <mergeCell ref="Z70:AA70"/>
-    <mergeCell ref="AB70:AC70"/>
-    <mergeCell ref="AD70:AE70"/>
-    <mergeCell ref="L69:M69"/>
-    <mergeCell ref="N69:O69"/>
-    <mergeCell ref="P69:Q69"/>
-    <mergeCell ref="AD67:AE67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="F68:G68"/>
-    <mergeCell ref="H68:I68"/>
-    <mergeCell ref="J68:K68"/>
-    <mergeCell ref="L68:M68"/>
-    <mergeCell ref="Z68:AA68"/>
-    <mergeCell ref="AB68:AC68"/>
-    <mergeCell ref="AD68:AE68"/>
-    <mergeCell ref="N68:O68"/>
-    <mergeCell ref="P68:Q68"/>
-    <mergeCell ref="R68:S68"/>
-    <mergeCell ref="T68:U68"/>
-    <mergeCell ref="V68:W68"/>
-    <mergeCell ref="X68:Y68"/>
-    <mergeCell ref="X67:Y67"/>
-    <mergeCell ref="Z67:AA67"/>
-    <mergeCell ref="AB67:AC67"/>
-    <mergeCell ref="P66:Q66"/>
-    <mergeCell ref="N65:O65"/>
-    <mergeCell ref="P65:Q65"/>
-    <mergeCell ref="R65:S65"/>
-    <mergeCell ref="T65:U65"/>
-    <mergeCell ref="V65:W65"/>
-    <mergeCell ref="X65:Y65"/>
-    <mergeCell ref="AD66:AE66"/>
-    <mergeCell ref="D67:E67"/>
-    <mergeCell ref="F67:G67"/>
-    <mergeCell ref="H67:I67"/>
-    <mergeCell ref="J67:K67"/>
-    <mergeCell ref="L67:M67"/>
-    <mergeCell ref="N67:O67"/>
-    <mergeCell ref="P67:Q67"/>
-    <mergeCell ref="R67:S67"/>
-    <mergeCell ref="T67:U67"/>
-    <mergeCell ref="R66:S66"/>
-    <mergeCell ref="T66:U66"/>
-    <mergeCell ref="V66:W66"/>
-    <mergeCell ref="X66:Y66"/>
-    <mergeCell ref="Z66:AA66"/>
-    <mergeCell ref="AB66:AC66"/>
-    <mergeCell ref="V67:W67"/>
-    <mergeCell ref="V64:W64"/>
-    <mergeCell ref="X64:Y64"/>
-    <mergeCell ref="Z64:AA64"/>
-    <mergeCell ref="AB64:AC64"/>
-    <mergeCell ref="AD64:AE64"/>
-    <mergeCell ref="D65:E65"/>
-    <mergeCell ref="F65:G65"/>
-    <mergeCell ref="H65:I65"/>
-    <mergeCell ref="J65:K65"/>
-    <mergeCell ref="L65:M65"/>
-    <mergeCell ref="Z65:AA65"/>
-    <mergeCell ref="AB65:AC65"/>
-    <mergeCell ref="AD65:AE65"/>
-    <mergeCell ref="P64:Q64"/>
-    <mergeCell ref="R64:S64"/>
-    <mergeCell ref="T64:U64"/>
-    <mergeCell ref="Z62:AA62"/>
-    <mergeCell ref="AB62:AC62"/>
-    <mergeCell ref="AD62:AE62"/>
-    <mergeCell ref="D63:E63"/>
-    <mergeCell ref="F63:G63"/>
-    <mergeCell ref="H63:I63"/>
-    <mergeCell ref="J63:K63"/>
-    <mergeCell ref="L63:M63"/>
-    <mergeCell ref="N63:O63"/>
-    <mergeCell ref="P63:Q63"/>
-    <mergeCell ref="N62:O62"/>
-    <mergeCell ref="P62:Q62"/>
-    <mergeCell ref="R62:S62"/>
-    <mergeCell ref="T62:U62"/>
-    <mergeCell ref="V62:W62"/>
-    <mergeCell ref="X62:Y62"/>
-    <mergeCell ref="AD63:AE63"/>
-    <mergeCell ref="R63:S63"/>
-    <mergeCell ref="T63:U63"/>
-    <mergeCell ref="V63:W63"/>
-    <mergeCell ref="X63:Y63"/>
-    <mergeCell ref="Z63:AA63"/>
-    <mergeCell ref="AB63:AC63"/>
-    <mergeCell ref="T61:U61"/>
-    <mergeCell ref="V61:W61"/>
-    <mergeCell ref="X61:Y61"/>
-    <mergeCell ref="Z61:AA61"/>
-    <mergeCell ref="AB61:AC61"/>
-    <mergeCell ref="AD61:AE61"/>
-    <mergeCell ref="AB60:AC60"/>
-    <mergeCell ref="AD60:AE60"/>
-    <mergeCell ref="D61:E61"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="P61:Q61"/>
-    <mergeCell ref="R61:S61"/>
-    <mergeCell ref="P60:Q60"/>
-    <mergeCell ref="R60:S60"/>
-    <mergeCell ref="T60:U60"/>
-    <mergeCell ref="V60:W60"/>
-    <mergeCell ref="X60:Y60"/>
-    <mergeCell ref="Z60:AA60"/>
-    <mergeCell ref="D60:E60"/>
-    <mergeCell ref="F60:G60"/>
-    <mergeCell ref="T59:U59"/>
-    <mergeCell ref="V59:W59"/>
-    <mergeCell ref="X59:Y59"/>
-    <mergeCell ref="Z59:AA59"/>
-    <mergeCell ref="AB59:AC59"/>
-    <mergeCell ref="AD59:AE59"/>
-    <mergeCell ref="AB58:AC58"/>
-    <mergeCell ref="AD58:AE58"/>
-    <mergeCell ref="D59:E59"/>
-    <mergeCell ref="F59:G59"/>
-    <mergeCell ref="H59:I59"/>
-    <mergeCell ref="J59:K59"/>
-    <mergeCell ref="L59:M59"/>
-    <mergeCell ref="N59:O59"/>
-    <mergeCell ref="P59:Q59"/>
-    <mergeCell ref="R59:S59"/>
-    <mergeCell ref="P58:Q58"/>
-    <mergeCell ref="R58:S58"/>
-    <mergeCell ref="T58:U58"/>
-    <mergeCell ref="V58:W58"/>
-    <mergeCell ref="X58:Y58"/>
-    <mergeCell ref="Z58:AA58"/>
-    <mergeCell ref="N58:O58"/>
-    <mergeCell ref="L60:M60"/>
-    <mergeCell ref="N60:O60"/>
-    <mergeCell ref="H62:I62"/>
-    <mergeCell ref="F93:G93"/>
-    <mergeCell ref="D92:E92"/>
-    <mergeCell ref="F97:G97"/>
-    <mergeCell ref="J58:K58"/>
-    <mergeCell ref="L58:M58"/>
-    <mergeCell ref="J62:K62"/>
-    <mergeCell ref="L62:M62"/>
-    <mergeCell ref="L89:M89"/>
-    <mergeCell ref="D90:E90"/>
-    <mergeCell ref="D64:E64"/>
-    <mergeCell ref="F64:G64"/>
-    <mergeCell ref="H64:I64"/>
-    <mergeCell ref="J64:K64"/>
-    <mergeCell ref="L64:M64"/>
-    <mergeCell ref="N64:O64"/>
-    <mergeCell ref="D66:E66"/>
-    <mergeCell ref="F66:G66"/>
-    <mergeCell ref="H66:I66"/>
-    <mergeCell ref="J66:K66"/>
-    <mergeCell ref="L66:M66"/>
-    <mergeCell ref="N66:O66"/>
-    <mergeCell ref="H97:I97"/>
-    <mergeCell ref="D96:E96"/>
-    <mergeCell ref="F96:G96"/>
-    <mergeCell ref="H96:I96"/>
-    <mergeCell ref="D62:E62"/>
-    <mergeCell ref="F62:G62"/>
-    <mergeCell ref="D97:E97"/>
-    <mergeCell ref="H60:I60"/>
-    <mergeCell ref="J60:K60"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="F69:G69"/>
-    <mergeCell ref="H69:I69"/>
-    <mergeCell ref="J69:K69"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="F71:G71"/>
-    <mergeCell ref="H71:I71"/>
-    <mergeCell ref="J71:K71"/>
-    <mergeCell ref="D73:E73"/>
-    <mergeCell ref="F73:G73"/>
-    <mergeCell ref="H73:I73"/>
-    <mergeCell ref="J73:K73"/>
-    <mergeCell ref="D75:E75"/>
-    <mergeCell ref="F75:G75"/>
-    <mergeCell ref="H75:I75"/>
-    <mergeCell ref="AB54:AC54"/>
-    <mergeCell ref="J54:K54"/>
-    <mergeCell ref="L54:M54"/>
-    <mergeCell ref="H54:I54"/>
-    <mergeCell ref="AD53:AE53"/>
-    <mergeCell ref="F54:G54"/>
-    <mergeCell ref="D58:E58"/>
-    <mergeCell ref="F58:G58"/>
-    <mergeCell ref="H58:I58"/>
-    <mergeCell ref="D55:E55"/>
-    <mergeCell ref="F55:G55"/>
-    <mergeCell ref="H55:I55"/>
-    <mergeCell ref="J55:K55"/>
-    <mergeCell ref="L55:M55"/>
-    <mergeCell ref="T54:U54"/>
-    <mergeCell ref="V54:W54"/>
-    <mergeCell ref="X54:Y54"/>
-    <mergeCell ref="D53:E53"/>
-    <mergeCell ref="D54:E54"/>
-    <mergeCell ref="F53:G53"/>
-    <mergeCell ref="AB51:AC51"/>
-    <mergeCell ref="H51:I51"/>
-    <mergeCell ref="J51:K51"/>
-    <mergeCell ref="L51:M51"/>
-    <mergeCell ref="N51:O51"/>
-    <mergeCell ref="P51:Q51"/>
-    <mergeCell ref="H53:I53"/>
-    <mergeCell ref="J53:K53"/>
-    <mergeCell ref="L53:M53"/>
-    <mergeCell ref="N53:O53"/>
-    <mergeCell ref="AB52:AC52"/>
-    <mergeCell ref="X52:Y52"/>
-    <mergeCell ref="V52:W52"/>
-    <mergeCell ref="H52:I52"/>
-    <mergeCell ref="T53:U53"/>
-    <mergeCell ref="V53:W53"/>
-    <mergeCell ref="X53:Y53"/>
-    <mergeCell ref="Z53:AA53"/>
-    <mergeCell ref="Z51:AA51"/>
-    <mergeCell ref="T51:U51"/>
-    <mergeCell ref="V51:W51"/>
-    <mergeCell ref="F52:G52"/>
-    <mergeCell ref="D51:E51"/>
-    <mergeCell ref="R52:S52"/>
-    <mergeCell ref="P52:Q52"/>
-    <mergeCell ref="N54:O54"/>
-    <mergeCell ref="P54:Q54"/>
-    <mergeCell ref="R54:S54"/>
-    <mergeCell ref="J52:K52"/>
-    <mergeCell ref="F51:G51"/>
-    <mergeCell ref="D52:E52"/>
-    <mergeCell ref="Z48:AA48"/>
-    <mergeCell ref="Y3:AD3"/>
-    <mergeCell ref="A3:Q4"/>
-    <mergeCell ref="X47:Y47"/>
-    <mergeCell ref="AD47:AE47"/>
-    <mergeCell ref="J47:K47"/>
-    <mergeCell ref="V47:W47"/>
-    <mergeCell ref="P35:U35"/>
-    <mergeCell ref="F42:H42"/>
-    <mergeCell ref="P48:Q48"/>
-    <mergeCell ref="P47:Q47"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="F47:G47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="F48:G48"/>
-    <mergeCell ref="H48:I48"/>
-    <mergeCell ref="N48:O48"/>
-    <mergeCell ref="Z47:AA47"/>
-    <mergeCell ref="X32:Y32"/>
-    <mergeCell ref="V33:W33"/>
-    <mergeCell ref="X33:Y33"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="X30:Y30"/>
-    <mergeCell ref="V30:W30"/>
-    <mergeCell ref="C1:U1"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="R47:S47"/>
-    <mergeCell ref="H47:I47"/>
-    <mergeCell ref="F41:AE41"/>
-    <mergeCell ref="R48:S48"/>
-    <mergeCell ref="T48:U48"/>
-    <mergeCell ref="V48:W48"/>
-    <mergeCell ref="J48:K48"/>
-    <mergeCell ref="AB47:AC47"/>
-    <mergeCell ref="A29:N32"/>
-    <mergeCell ref="A33:N35"/>
-    <mergeCell ref="A36:N39"/>
-    <mergeCell ref="T47:U47"/>
-    <mergeCell ref="X48:Y48"/>
-    <mergeCell ref="Z33:AA33"/>
-    <mergeCell ref="AB33:AC33"/>
-    <mergeCell ref="Z30:AA30"/>
-    <mergeCell ref="AB30:AC30"/>
-    <mergeCell ref="V31:W31"/>
-    <mergeCell ref="Z32:AA32"/>
-    <mergeCell ref="AB32:AC32"/>
-    <mergeCell ref="Z31:AA31"/>
-    <mergeCell ref="V35:W35"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.11811023622047245" footer="0.11811023622047245"/>
@@ -8924,130 +8757,130 @@
         <v>0</v>
       </c>
       <c r="B2" s="43"/>
-      <c r="C2" s="269">
+      <c r="C2" s="256">
         <v>1</v>
       </c>
-      <c r="D2" s="270"/>
-      <c r="E2" s="270">
+      <c r="D2" s="252"/>
+      <c r="E2" s="252">
         <v>2</v>
       </c>
-      <c r="F2" s="270"/>
-      <c r="G2" s="270">
+      <c r="F2" s="252"/>
+      <c r="G2" s="252">
         <v>3</v>
       </c>
-      <c r="H2" s="270"/>
-      <c r="I2" s="270">
+      <c r="H2" s="252"/>
+      <c r="I2" s="252">
         <v>4</v>
       </c>
-      <c r="J2" s="270"/>
-      <c r="K2" s="270">
+      <c r="J2" s="252"/>
+      <c r="K2" s="252">
         <v>5</v>
       </c>
-      <c r="L2" s="270"/>
-      <c r="M2" s="270">
+      <c r="L2" s="252"/>
+      <c r="M2" s="252">
         <v>6</v>
       </c>
-      <c r="N2" s="270"/>
-      <c r="O2" s="270">
+      <c r="N2" s="252"/>
+      <c r="O2" s="252">
         <v>7</v>
       </c>
-      <c r="P2" s="270"/>
-      <c r="Q2" s="270">
+      <c r="P2" s="252"/>
+      <c r="Q2" s="252">
         <v>8</v>
       </c>
-      <c r="R2" s="270"/>
-      <c r="S2" s="270">
+      <c r="R2" s="252"/>
+      <c r="S2" s="252">
         <v>9</v>
       </c>
-      <c r="T2" s="270"/>
-      <c r="U2" s="270">
+      <c r="T2" s="252"/>
+      <c r="U2" s="252">
         <v>10</v>
       </c>
-      <c r="V2" s="270"/>
+      <c r="V2" s="252"/>
       <c r="W2" s="37">
         <v>11</v>
       </c>
       <c r="X2" s="22"/>
-      <c r="Y2" s="270">
+      <c r="Y2" s="252">
         <v>12</v>
       </c>
-      <c r="Z2" s="270"/>
-      <c r="AA2" s="270">
+      <c r="Z2" s="252"/>
+      <c r="AA2" s="252">
         <v>13</v>
       </c>
-      <c r="AB2" s="270"/>
-      <c r="AC2" s="270">
+      <c r="AB2" s="252"/>
+      <c r="AC2" s="252">
         <v>14</v>
       </c>
-      <c r="AD2" s="274"/>
+      <c r="AD2" s="253"/>
     </row>
     <row r="3" spans="1:30" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A3" s="40" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="41"/>
-      <c r="C3" s="268"/>
-      <c r="D3" s="250"/>
-      <c r="E3" s="250"/>
-      <c r="F3" s="250"/>
-      <c r="G3" s="250"/>
-      <c r="H3" s="250"/>
-      <c r="I3" s="250"/>
-      <c r="J3" s="250"/>
-      <c r="K3" s="250"/>
-      <c r="L3" s="250"/>
-      <c r="M3" s="250"/>
-      <c r="N3" s="250"/>
-      <c r="O3" s="250"/>
-      <c r="P3" s="250"/>
-      <c r="Q3" s="250"/>
-      <c r="R3" s="250"/>
-      <c r="S3" s="250"/>
-      <c r="T3" s="250"/>
-      <c r="U3" s="250"/>
-      <c r="V3" s="250"/>
+      <c r="C3" s="263"/>
+      <c r="D3" s="258"/>
+      <c r="E3" s="258"/>
+      <c r="F3" s="258"/>
+      <c r="G3" s="258"/>
+      <c r="H3" s="258"/>
+      <c r="I3" s="258"/>
+      <c r="J3" s="258"/>
+      <c r="K3" s="258"/>
+      <c r="L3" s="258"/>
+      <c r="M3" s="258"/>
+      <c r="N3" s="258"/>
+      <c r="O3" s="258"/>
+      <c r="P3" s="258"/>
+      <c r="Q3" s="258"/>
+      <c r="R3" s="258"/>
+      <c r="S3" s="258"/>
+      <c r="T3" s="258"/>
+      <c r="U3" s="258"/>
+      <c r="V3" s="258"/>
       <c r="W3" s="42"/>
       <c r="X3" s="34"/>
-      <c r="Y3" s="250"/>
-      <c r="Z3" s="250"/>
-      <c r="AA3" s="250"/>
-      <c r="AB3" s="250"/>
-      <c r="AC3" s="250"/>
-      <c r="AD3" s="254"/>
+      <c r="Y3" s="258"/>
+      <c r="Z3" s="258"/>
+      <c r="AA3" s="258"/>
+      <c r="AB3" s="258"/>
+      <c r="AC3" s="258"/>
+      <c r="AD3" s="262"/>
     </row>
     <row r="4" spans="1:30" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A4" s="18" t="s">
         <v>27</v>
       </c>
       <c r="B4" s="25"/>
-      <c r="C4" s="267"/>
-      <c r="D4" s="260"/>
-      <c r="E4" s="258"/>
-      <c r="F4" s="260"/>
-      <c r="G4" s="258"/>
-      <c r="H4" s="260"/>
-      <c r="I4" s="258"/>
-      <c r="J4" s="260"/>
-      <c r="K4" s="258"/>
-      <c r="L4" s="260"/>
-      <c r="M4" s="258"/>
-      <c r="N4" s="260"/>
-      <c r="O4" s="258"/>
-      <c r="P4" s="260"/>
-      <c r="Q4" s="258"/>
-      <c r="R4" s="260"/>
-      <c r="S4" s="258"/>
-      <c r="T4" s="260"/>
-      <c r="U4" s="258"/>
-      <c r="V4" s="260"/>
+      <c r="C4" s="260"/>
+      <c r="D4" s="257"/>
+      <c r="E4" s="261"/>
+      <c r="F4" s="257"/>
+      <c r="G4" s="261"/>
+      <c r="H4" s="257"/>
+      <c r="I4" s="261"/>
+      <c r="J4" s="257"/>
+      <c r="K4" s="261"/>
+      <c r="L4" s="257"/>
+      <c r="M4" s="261"/>
+      <c r="N4" s="257"/>
+      <c r="O4" s="261"/>
+      <c r="P4" s="257"/>
+      <c r="Q4" s="261"/>
+      <c r="R4" s="257"/>
+      <c r="S4" s="261"/>
+      <c r="T4" s="257"/>
+      <c r="U4" s="261"/>
+      <c r="V4" s="257"/>
       <c r="W4" s="21"/>
       <c r="X4" s="16"/>
-      <c r="Y4" s="258"/>
-      <c r="Z4" s="260"/>
-      <c r="AA4" s="258"/>
-      <c r="AB4" s="260"/>
-      <c r="AC4" s="258"/>
-      <c r="AD4" s="259"/>
+      <c r="Y4" s="261"/>
+      <c r="Z4" s="257"/>
+      <c r="AA4" s="261"/>
+      <c r="AB4" s="257"/>
+      <c r="AC4" s="261"/>
+      <c r="AD4" s="268"/>
     </row>
     <row r="5" spans="1:30" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A5" s="18" t="s">
@@ -9088,7 +8921,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="25"/>
-      <c r="C6" s="260"/>
+      <c r="C6" s="257"/>
       <c r="D6" s="248"/>
       <c r="E6" s="248"/>
       <c r="F6" s="248"/>
@@ -9115,14 +8948,14 @@
       <c r="AA6" s="248"/>
       <c r="AB6" s="248"/>
       <c r="AC6" s="248"/>
-      <c r="AD6" s="255"/>
+      <c r="AD6" s="254"/>
     </row>
     <row r="7" spans="1:30" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A7" s="18" t="s">
         <v>31</v>
       </c>
       <c r="B7" s="36"/>
-      <c r="C7" s="256"/>
+      <c r="C7" s="255"/>
       <c r="D7" s="248"/>
       <c r="E7" s="248"/>
       <c r="F7" s="248"/>
@@ -9149,13 +8982,13 @@
       <c r="AA7" s="248"/>
       <c r="AB7" s="248"/>
       <c r="AC7" s="248"/>
-      <c r="AD7" s="255"/>
+      <c r="AD7" s="254"/>
     </row>
     <row r="8" spans="1:30" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="256"/>
+      <c r="C8" s="255"/>
       <c r="D8" s="248"/>
       <c r="E8" s="248"/>
       <c r="F8" s="248"/>
@@ -9182,14 +9015,14 @@
       <c r="AA8" s="248"/>
       <c r="AB8" s="248"/>
       <c r="AC8" s="248"/>
-      <c r="AD8" s="255"/>
+      <c r="AD8" s="254"/>
     </row>
     <row r="9" spans="1:30" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A9" s="18" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="36"/>
-      <c r="C9" s="256"/>
+      <c r="C9" s="255"/>
       <c r="D9" s="248"/>
       <c r="E9" s="248"/>
       <c r="F9" s="248"/>
@@ -9216,13 +9049,13 @@
       <c r="AA9" s="248"/>
       <c r="AB9" s="248"/>
       <c r="AC9" s="248"/>
-      <c r="AD9" s="255"/>
+      <c r="AD9" s="254"/>
     </row>
     <row r="10" spans="1:30" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A10" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="256"/>
+      <c r="C10" s="255"/>
       <c r="D10" s="248"/>
       <c r="E10" s="248"/>
       <c r="F10" s="248"/>
@@ -9249,14 +9082,14 @@
       <c r="AA10" s="248"/>
       <c r="AB10" s="248"/>
       <c r="AC10" s="248"/>
-      <c r="AD10" s="255"/>
+      <c r="AD10" s="254"/>
     </row>
     <row r="11" spans="1:30" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A11" s="18" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="25"/>
-      <c r="C11" s="260"/>
+      <c r="C11" s="257"/>
       <c r="D11" s="248"/>
       <c r="E11" s="248"/>
       <c r="F11" s="248"/>
@@ -9283,14 +9116,14 @@
       <c r="AA11" s="248"/>
       <c r="AB11" s="248"/>
       <c r="AC11" s="248"/>
-      <c r="AD11" s="255"/>
+      <c r="AD11" s="254"/>
     </row>
     <row r="12" spans="1:30" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A12" s="18" t="s">
         <v>29</v>
       </c>
       <c r="B12" s="25"/>
-      <c r="C12" s="260"/>
+      <c r="C12" s="257"/>
       <c r="D12" s="248"/>
       <c r="E12" s="248"/>
       <c r="F12" s="248"/>
@@ -9317,48 +9150,48 @@
       <c r="AA12" s="248"/>
       <c r="AB12" s="248"/>
       <c r="AC12" s="248"/>
-      <c r="AD12" s="255"/>
+      <c r="AD12" s="254"/>
     </row>
     <row r="13" spans="1:30" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A13" s="17" t="s">
         <v>13</v>
       </c>
       <c r="B13" s="26"/>
-      <c r="C13" s="265"/>
-      <c r="D13" s="261"/>
-      <c r="E13" s="261"/>
-      <c r="F13" s="261"/>
-      <c r="G13" s="261"/>
-      <c r="H13" s="261"/>
-      <c r="I13" s="261"/>
-      <c r="J13" s="261"/>
-      <c r="K13" s="261"/>
-      <c r="L13" s="261"/>
-      <c r="M13" s="261"/>
-      <c r="N13" s="261"/>
-      <c r="O13" s="261"/>
-      <c r="P13" s="261"/>
-      <c r="Q13" s="261"/>
-      <c r="R13" s="261"/>
-      <c r="S13" s="261"/>
-      <c r="T13" s="261"/>
-      <c r="U13" s="261"/>
-      <c r="V13" s="261"/>
+      <c r="C13" s="267"/>
+      <c r="D13" s="259"/>
+      <c r="E13" s="259"/>
+      <c r="F13" s="259"/>
+      <c r="G13" s="259"/>
+      <c r="H13" s="259"/>
+      <c r="I13" s="259"/>
+      <c r="J13" s="259"/>
+      <c r="K13" s="259"/>
+      <c r="L13" s="259"/>
+      <c r="M13" s="259"/>
+      <c r="N13" s="259"/>
+      <c r="O13" s="259"/>
+      <c r="P13" s="259"/>
+      <c r="Q13" s="259"/>
+      <c r="R13" s="259"/>
+      <c r="S13" s="259"/>
+      <c r="T13" s="259"/>
+      <c r="U13" s="259"/>
+      <c r="V13" s="259"/>
       <c r="W13" s="32"/>
       <c r="X13" s="19"/>
-      <c r="Y13" s="261"/>
-      <c r="Z13" s="261"/>
-      <c r="AA13" s="261"/>
-      <c r="AB13" s="261"/>
-      <c r="AC13" s="261"/>
-      <c r="AD13" s="262"/>
+      <c r="Y13" s="259"/>
+      <c r="Z13" s="259"/>
+      <c r="AA13" s="259"/>
+      <c r="AB13" s="259"/>
+      <c r="AC13" s="259"/>
+      <c r="AD13" s="269"/>
     </row>
     <row r="14" spans="1:30" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A14" s="59" t="s">
         <v>9</v>
       </c>
       <c r="B14" s="60"/>
-      <c r="C14" s="263"/>
+      <c r="C14" s="266"/>
       <c r="D14" s="264"/>
       <c r="E14" s="264"/>
       <c r="F14" s="264"/>
@@ -9385,7 +9218,7 @@
       <c r="AA14" s="264"/>
       <c r="AB14" s="264"/>
       <c r="AC14" s="264"/>
-      <c r="AD14" s="266"/>
+      <c r="AD14" s="265"/>
     </row>
     <row r="15" spans="1:30" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B15" s="15"/>
@@ -9484,12 +9317,12 @@
     <row r="18" spans="1:30" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A18" s="52"/>
       <c r="B18" s="49"/>
-      <c r="C18" s="256"/>
+      <c r="C18" s="255"/>
       <c r="D18" s="248"/>
       <c r="E18" s="248"/>
       <c r="F18" s="248"/>
-      <c r="G18" s="258"/>
-      <c r="H18" s="260"/>
+      <c r="G18" s="261"/>
+      <c r="H18" s="257"/>
       <c r="I18" s="248"/>
       <c r="J18" s="248"/>
       <c r="K18" s="248"/>
@@ -9511,7 +9344,7 @@
       <c r="AA18" s="248"/>
       <c r="AB18" s="248"/>
       <c r="AC18" s="248"/>
-      <c r="AD18" s="255"/>
+      <c r="AD18" s="254"/>
     </row>
     <row r="19" spans="1:30" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A19" s="52"/>
@@ -9644,39 +9477,39 @@
     <row r="23" spans="1:30" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A23" s="52"/>
       <c r="B23" s="49"/>
-      <c r="C23" s="257"/>
-      <c r="D23" s="250"/>
-      <c r="E23" s="250"/>
-      <c r="F23" s="250"/>
-      <c r="G23" s="250"/>
-      <c r="H23" s="250"/>
-      <c r="I23" s="250"/>
-      <c r="J23" s="250"/>
-      <c r="K23" s="250"/>
-      <c r="L23" s="250"/>
-      <c r="M23" s="250"/>
-      <c r="N23" s="250"/>
-      <c r="O23" s="250"/>
-      <c r="P23" s="250"/>
-      <c r="Q23" s="250"/>
-      <c r="R23" s="250"/>
-      <c r="S23" s="250"/>
-      <c r="T23" s="250"/>
-      <c r="U23" s="250"/>
-      <c r="V23" s="250"/>
-      <c r="W23" s="250"/>
-      <c r="X23" s="250"/>
-      <c r="Y23" s="250"/>
-      <c r="Z23" s="250"/>
+      <c r="C23" s="270"/>
+      <c r="D23" s="258"/>
+      <c r="E23" s="258"/>
+      <c r="F23" s="258"/>
+      <c r="G23" s="258"/>
+      <c r="H23" s="258"/>
+      <c r="I23" s="258"/>
+      <c r="J23" s="258"/>
+      <c r="K23" s="258"/>
+      <c r="L23" s="258"/>
+      <c r="M23" s="258"/>
+      <c r="N23" s="258"/>
+      <c r="O23" s="258"/>
+      <c r="P23" s="258"/>
+      <c r="Q23" s="258"/>
+      <c r="R23" s="258"/>
+      <c r="S23" s="258"/>
+      <c r="T23" s="258"/>
+      <c r="U23" s="258"/>
+      <c r="V23" s="258"/>
+      <c r="W23" s="258"/>
+      <c r="X23" s="258"/>
+      <c r="Y23" s="258"/>
+      <c r="Z23" s="258"/>
       <c r="AA23" s="248"/>
       <c r="AB23" s="248"/>
-      <c r="AC23" s="250"/>
-      <c r="AD23" s="254"/>
+      <c r="AC23" s="258"/>
+      <c r="AD23" s="262"/>
     </row>
     <row r="24" spans="1:30" s="1" customFormat="1" ht="21.75" customHeight="1">
       <c r="A24" s="52"/>
       <c r="B24" s="49"/>
-      <c r="C24" s="256"/>
+      <c r="C24" s="255"/>
       <c r="D24" s="248"/>
       <c r="E24" s="248"/>
       <c r="F24" s="248"/>
@@ -9703,39 +9536,39 @@
       <c r="AA24" s="248"/>
       <c r="AB24" s="248"/>
       <c r="AC24" s="248"/>
-      <c r="AD24" s="255"/>
+      <c r="AD24" s="254"/>
     </row>
     <row r="25" spans="1:30" ht="21.75" customHeight="1" thickBot="1">
       <c r="A25" s="65"/>
       <c r="B25" s="66"/>
-      <c r="C25" s="252"/>
-      <c r="D25" s="249"/>
-      <c r="E25" s="253"/>
-      <c r="F25" s="253"/>
-      <c r="G25" s="253"/>
-      <c r="H25" s="253"/>
-      <c r="I25" s="249"/>
-      <c r="J25" s="249"/>
-      <c r="K25" s="253"/>
-      <c r="L25" s="253"/>
-      <c r="M25" s="249"/>
-      <c r="N25" s="249"/>
-      <c r="O25" s="249"/>
-      <c r="P25" s="249"/>
-      <c r="Q25" s="249"/>
-      <c r="R25" s="249"/>
-      <c r="S25" s="249"/>
-      <c r="T25" s="249"/>
-      <c r="U25" s="249"/>
-      <c r="V25" s="249"/>
-      <c r="W25" s="249"/>
-      <c r="X25" s="249"/>
-      <c r="Y25" s="249"/>
-      <c r="Z25" s="249"/>
-      <c r="AA25" s="249"/>
-      <c r="AB25" s="249"/>
-      <c r="AC25" s="249"/>
-      <c r="AD25" s="251"/>
+      <c r="C25" s="273"/>
+      <c r="D25" s="271"/>
+      <c r="E25" s="274"/>
+      <c r="F25" s="274"/>
+      <c r="G25" s="274"/>
+      <c r="H25" s="274"/>
+      <c r="I25" s="271"/>
+      <c r="J25" s="271"/>
+      <c r="K25" s="274"/>
+      <c r="L25" s="274"/>
+      <c r="M25" s="271"/>
+      <c r="N25" s="271"/>
+      <c r="O25" s="271"/>
+      <c r="P25" s="271"/>
+      <c r="Q25" s="271"/>
+      <c r="R25" s="271"/>
+      <c r="S25" s="271"/>
+      <c r="T25" s="271"/>
+      <c r="U25" s="271"/>
+      <c r="V25" s="271"/>
+      <c r="W25" s="271"/>
+      <c r="X25" s="271"/>
+      <c r="Y25" s="271"/>
+      <c r="Z25" s="271"/>
+      <c r="AA25" s="271"/>
+      <c r="AB25" s="271"/>
+      <c r="AC25" s="271"/>
+      <c r="AD25" s="272"/>
     </row>
     <row r="26" spans="1:30" ht="18" customHeight="1">
       <c r="A26" s="82"/>
@@ -9781,11 +9614,11 @@
       </c>
       <c r="B28" s="1"/>
       <c r="J28" s="1"/>
-      <c r="O28" s="271" t="s">
+      <c r="O28" s="249" t="s">
         <v>0</v>
       </c>
-      <c r="P28" s="272"/>
-      <c r="Q28" s="273"/>
+      <c r="P28" s="250"/>
+      <c r="Q28" s="251"/>
       <c r="R28" s="54"/>
       <c r="S28" s="54"/>
       <c r="W28" s="1"/>
@@ -10784,21 +10617,180 @@
     </row>
   </sheetData>
   <mergeCells count="213">
-    <mergeCell ref="M8:N8"/>
-    <mergeCell ref="K9:L9"/>
-    <mergeCell ref="G6:H6"/>
-    <mergeCell ref="I6:J6"/>
-    <mergeCell ref="K6:L6"/>
-    <mergeCell ref="K7:L7"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="U11:V11"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="U9:V9"/>
-    <mergeCell ref="U8:V8"/>
-    <mergeCell ref="S8:T8"/>
-    <mergeCell ref="O8:P8"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="O9:P9"/>
+    <mergeCell ref="AA25:AB25"/>
+    <mergeCell ref="AC25:AD25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:H25"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="M25:N25"/>
+    <mergeCell ref="O25:P25"/>
+    <mergeCell ref="Q25:R25"/>
+    <mergeCell ref="S25:T25"/>
+    <mergeCell ref="U25:V25"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="U24:V24"/>
+    <mergeCell ref="W25:X25"/>
+    <mergeCell ref="Y25:Z25"/>
+    <mergeCell ref="Y23:Z23"/>
+    <mergeCell ref="O23:P23"/>
+    <mergeCell ref="Q23:R23"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="W24:X24"/>
+    <mergeCell ref="Y24:Z24"/>
+    <mergeCell ref="O24:P24"/>
+    <mergeCell ref="Q24:R24"/>
+    <mergeCell ref="S24:T24"/>
+    <mergeCell ref="AC18:AD18"/>
+    <mergeCell ref="G24:H24"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="M24:N24"/>
+    <mergeCell ref="AA23:AB23"/>
+    <mergeCell ref="AC23:AD23"/>
+    <mergeCell ref="AA24:AB24"/>
+    <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="AC13:AD13"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:V13"/>
+    <mergeCell ref="K13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="O13:P13"/>
+    <mergeCell ref="S23:T23"/>
+    <mergeCell ref="U23:V23"/>
+    <mergeCell ref="W23:X23"/>
+    <mergeCell ref="C18:D18"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="G18:H18"/>
+    <mergeCell ref="AA4:AB4"/>
+    <mergeCell ref="Y4:Z4"/>
+    <mergeCell ref="U4:V4"/>
+    <mergeCell ref="S4:T4"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="AA18:AB18"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="K18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:P18"/>
+    <mergeCell ref="Q18:R18"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:V18"/>
+    <mergeCell ref="W18:X18"/>
+    <mergeCell ref="Q13:R13"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:H14"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="G13:H13"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="U14:V14"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="AA14:AB14"/>
+    <mergeCell ref="K14:L14"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="O14:P14"/>
+    <mergeCell ref="Q14:R14"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AC12:AD12"/>
+    <mergeCell ref="C12:D12"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="K12:L12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="O12:P12"/>
+    <mergeCell ref="Q12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="U12:V12"/>
+    <mergeCell ref="Y12:Z12"/>
+    <mergeCell ref="AA12:AB12"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="AA13:AB13"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="S3:T3"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="M3:N3"/>
+    <mergeCell ref="U3:V3"/>
+    <mergeCell ref="O3:P3"/>
+    <mergeCell ref="Q3:R3"/>
+    <mergeCell ref="K4:L4"/>
+    <mergeCell ref="M4:N4"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q9:R9"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="G10:H10"/>
+    <mergeCell ref="I10:J10"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="O11:P11"/>
+    <mergeCell ref="Q11:R11"/>
+    <mergeCell ref="O10:P10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="AC7:AD7"/>
+    <mergeCell ref="AC9:AD9"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="AA10:AB10"/>
+    <mergeCell ref="AC10:AD10"/>
+    <mergeCell ref="AA8:AB8"/>
+    <mergeCell ref="AC8:AD8"/>
+    <mergeCell ref="AA9:AB9"/>
+    <mergeCell ref="Y3:Z3"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="C7:D7"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="I7:J7"/>
+    <mergeCell ref="Y6:Z6"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="M6:N6"/>
+    <mergeCell ref="O6:P6"/>
+    <mergeCell ref="Q7:R7"/>
+    <mergeCell ref="Y7:Z7"/>
+    <mergeCell ref="U7:V7"/>
+    <mergeCell ref="U6:V6"/>
+    <mergeCell ref="S7:T7"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:J8"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="G9:H9"/>
+    <mergeCell ref="I9:J9"/>
+    <mergeCell ref="K8:L8"/>
     <mergeCell ref="O28:Q28"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AD2"/>
@@ -10823,180 +10815,21 @@
     <mergeCell ref="AC11:AD11"/>
     <mergeCell ref="AA7:AB7"/>
     <mergeCell ref="Y8:Z8"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="E8:F8"/>
-    <mergeCell ref="G8:H8"/>
-    <mergeCell ref="I8:J8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="G9:H9"/>
-    <mergeCell ref="I9:J9"/>
-    <mergeCell ref="K8:L8"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="I7:J7"/>
-    <mergeCell ref="Y6:Z6"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="M6:N6"/>
-    <mergeCell ref="O6:P6"/>
-    <mergeCell ref="Q7:R7"/>
-    <mergeCell ref="Y7:Z7"/>
-    <mergeCell ref="U7:V7"/>
-    <mergeCell ref="U6:V6"/>
-    <mergeCell ref="S7:T7"/>
-    <mergeCell ref="AC7:AD7"/>
-    <mergeCell ref="AC9:AD9"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="AA10:AB10"/>
-    <mergeCell ref="AC10:AD10"/>
-    <mergeCell ref="AA8:AB8"/>
-    <mergeCell ref="AC8:AD8"/>
-    <mergeCell ref="AA9:AB9"/>
-    <mergeCell ref="Y3:Z3"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="U10:V10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="G10:H10"/>
-    <mergeCell ref="I10:J10"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="O11:P11"/>
-    <mergeCell ref="Q11:R11"/>
-    <mergeCell ref="O10:P10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="S3:T3"/>
-    <mergeCell ref="K3:L3"/>
-    <mergeCell ref="M3:N3"/>
-    <mergeCell ref="U3:V3"/>
-    <mergeCell ref="O3:P3"/>
-    <mergeCell ref="Q3:R3"/>
-    <mergeCell ref="K4:L4"/>
-    <mergeCell ref="M4:N4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="AC12:AD12"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="G12:H12"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="K12:L12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="O12:P12"/>
-    <mergeCell ref="Q12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="U12:V12"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="U14:V14"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="AA14:AB14"/>
-    <mergeCell ref="K14:L14"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="O14:P14"/>
-    <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="AC14:AD14"/>
-    <mergeCell ref="Q13:R13"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:H14"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="G13:H13"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="G18:H18"/>
-    <mergeCell ref="AA4:AB4"/>
-    <mergeCell ref="Y4:Z4"/>
-    <mergeCell ref="U4:V4"/>
-    <mergeCell ref="S4:T4"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="AA18:AB18"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="K18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:P18"/>
-    <mergeCell ref="Q18:R18"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:V18"/>
-    <mergeCell ref="W18:X18"/>
-    <mergeCell ref="AC13:AD13"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:V13"/>
-    <mergeCell ref="K13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="O13:P13"/>
-    <mergeCell ref="S23:T23"/>
-    <mergeCell ref="U23:V23"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="W24:X24"/>
-    <mergeCell ref="Y24:Z24"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="Q24:R24"/>
-    <mergeCell ref="S24:T24"/>
-    <mergeCell ref="AC18:AD18"/>
-    <mergeCell ref="G24:H24"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="M24:N24"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="U24:V24"/>
-    <mergeCell ref="W25:X25"/>
-    <mergeCell ref="Y25:Z25"/>
-    <mergeCell ref="Y23:Z23"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="Q23:R23"/>
-    <mergeCell ref="AA25:AB25"/>
-    <mergeCell ref="AC25:AD25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:H25"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="M25:N25"/>
-    <mergeCell ref="O25:P25"/>
-    <mergeCell ref="Q25:R25"/>
-    <mergeCell ref="S25:T25"/>
-    <mergeCell ref="U25:V25"/>
-    <mergeCell ref="AA23:AB23"/>
-    <mergeCell ref="AC23:AD23"/>
-    <mergeCell ref="AA24:AB24"/>
-    <mergeCell ref="AC24:AD24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="M8:N8"/>
+    <mergeCell ref="K9:L9"/>
+    <mergeCell ref="G6:H6"/>
+    <mergeCell ref="I6:J6"/>
+    <mergeCell ref="K6:L6"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="U11:V11"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="U9:V9"/>
+    <mergeCell ref="U8:V8"/>
+    <mergeCell ref="S8:T8"/>
+    <mergeCell ref="O8:P8"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="O9:P9"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.23" right="0.24" top="0.18" bottom="0.17" header="0.17" footer="0.11811023622047245"/>

--- a/emr/exports/templates/export-template-detail.xlsx
+++ b/emr/exports/templates/export-template-detail.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="174">
   <si>
     <t>Date</t>
   </si>
@@ -573,6 +573,9 @@
   </si>
   <si>
     <t>datetable</t>
+  </si>
+  <si>
+    <t>Type Reference</t>
   </si>
 </sst>
 </file>
@@ -1541,8 +1544,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="33">
+  <cellStyleXfs count="37">
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2154,7 +2169,55 @@
     <xf numFmtId="1" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="14" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="4" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2163,102 +2226,54 @@
     <xf numFmtId="1" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="4" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="4" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="7" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2418,39 +2433,39 @@
     <xf numFmtId="1" fontId="2" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="44" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="45" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="2" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2467,7 +2482,7 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="33">
+  <cellStyles count="37">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2484,6 +2499,8 @@
     <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2500,6 +2517,8 @@
     <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3960,19 +3979,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I18"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" customHeight="1" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="2" width="9.1640625" style="153" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="153"/>
+    <col min="3" max="9" width="10.83203125" style="153"/>
+    <col min="10" max="10" width="12.5" style="153" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="153"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="152" customFormat="1" ht="11">
+    <row r="1" spans="1:10" s="152" customFormat="1" ht="11">
       <c r="A1" s="152" t="s">
         <v>120</v>
       </c>
@@ -3997,8 +4018,11 @@
       <c r="I1" s="152" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="11">
+      <c r="J1" s="152" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="11">
       <c r="A2" s="153">
         <v>1</v>
       </c>
@@ -4020,11 +4044,8 @@
       <c r="H2" s="153">
         <v>14</v>
       </c>
-      <c r="I2" s="153" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="11">
+    </row>
+    <row r="3" spans="1:10" ht="11">
       <c r="A3" s="153">
         <v>2</v>
       </c>
@@ -4049,8 +4070,11 @@
       <c r="I3" s="153" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" ht="11">
+      <c r="J3" s="153" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="11">
       <c r="D4" s="153">
         <v>1</v>
       </c>
@@ -4069,8 +4093,11 @@
       <c r="I4" s="153" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" ht="11">
+      <c r="J4" s="153" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="11">
       <c r="D5" s="153">
         <v>1</v>
       </c>
@@ -4089,8 +4116,11 @@
       <c r="I5" s="153" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" ht="11">
+      <c r="J5" s="153" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="11">
       <c r="D6" s="153">
         <v>1</v>
       </c>
@@ -4109,8 +4139,11 @@
       <c r="I6" s="153" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" ht="11">
+      <c r="J6" s="153" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="11">
       <c r="D7" s="153">
         <v>1</v>
       </c>
@@ -4129,8 +4162,11 @@
       <c r="I7" s="153" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" ht="11">
+      <c r="J7" s="153" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="11">
       <c r="D8" s="153">
         <v>1</v>
       </c>
@@ -4150,7 +4186,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14" customHeight="1">
+    <row r="9" spans="1:10" ht="14" customHeight="1">
       <c r="D9" s="153">
         <v>1</v>
       </c>
@@ -4170,7 +4206,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14" customHeight="1">
+    <row r="10" spans="1:10" ht="14" customHeight="1">
       <c r="D10" s="153">
         <v>1</v>
       </c>
@@ -4190,7 +4226,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="14" customHeight="1">
+    <row r="11" spans="1:10" ht="14" customHeight="1">
       <c r="D11" s="153">
         <v>1</v>
       </c>
@@ -4207,7 +4243,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="14" customHeight="1">
+    <row r="12" spans="1:10" ht="14" customHeight="1">
       <c r="D12" s="153">
         <v>1</v>
       </c>
@@ -4224,7 +4260,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="14" customHeight="1">
+    <row r="13" spans="1:10" ht="14" customHeight="1">
       <c r="D13" s="153">
         <v>1</v>
       </c>
@@ -4244,7 +4280,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="14" customHeight="1">
+    <row r="14" spans="1:10" ht="14" customHeight="1">
       <c r="D14" s="153">
         <v>1</v>
       </c>
@@ -4261,7 +4297,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="14" customHeight="1">
+    <row r="15" spans="1:10" ht="14" customHeight="1">
       <c r="D15" s="153">
         <v>1</v>
       </c>
@@ -4281,7 +4317,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="14" customHeight="1">
+    <row r="16" spans="1:10" ht="14" customHeight="1">
       <c r="D16" s="153">
         <v>2</v>
       </c>
@@ -5578,22 +5614,22 @@
         <v>77</v>
       </c>
       <c r="W30" s="232"/>
-      <c r="X30" s="201" t="s">
+      <c r="X30" s="203" t="s">
         <v>78</v>
       </c>
-      <c r="Y30" s="201"/>
-      <c r="Z30" s="201" t="s">
+      <c r="Y30" s="203"/>
+      <c r="Z30" s="203" t="s">
         <v>79</v>
       </c>
-      <c r="AA30" s="201"/>
-      <c r="AB30" s="201" t="s">
+      <c r="AA30" s="203"/>
+      <c r="AB30" s="203" t="s">
         <v>80</v>
       </c>
-      <c r="AC30" s="201"/>
-      <c r="AD30" s="201" t="s">
+      <c r="AC30" s="203"/>
+      <c r="AD30" s="203" t="s">
         <v>82</v>
       </c>
-      <c r="AE30" s="202"/>
+      <c r="AE30" s="204"/>
     </row>
     <row r="31" spans="1:57" ht="15" customHeight="1" thickTop="1">
       <c r="A31" s="241"/>
@@ -5907,24 +5943,24 @@
       <c r="M39" s="245"/>
       <c r="N39" s="246"/>
       <c r="O39" s="110"/>
-      <c r="P39" s="198" t="s">
+      <c r="P39" s="180" t="s">
         <v>57</v>
       </c>
-      <c r="Q39" s="199"/>
-      <c r="R39" s="199"/>
-      <c r="S39" s="199"/>
-      <c r="T39" s="199"/>
-      <c r="U39" s="199"/>
-      <c r="V39" s="200"/>
-      <c r="W39" s="200"/>
-      <c r="X39" s="174"/>
-      <c r="Y39" s="174"/>
-      <c r="Z39" s="174"/>
-      <c r="AA39" s="174"/>
-      <c r="AB39" s="174"/>
-      <c r="AC39" s="174"/>
-      <c r="AD39" s="174"/>
-      <c r="AE39" s="175"/>
+      <c r="Q39" s="181"/>
+      <c r="R39" s="181"/>
+      <c r="S39" s="181"/>
+      <c r="T39" s="181"/>
+      <c r="U39" s="181"/>
+      <c r="V39" s="182"/>
+      <c r="W39" s="182"/>
+      <c r="X39" s="183"/>
+      <c r="Y39" s="183"/>
+      <c r="Z39" s="183"/>
+      <c r="AA39" s="183"/>
+      <c r="AB39" s="183"/>
+      <c r="AC39" s="183"/>
+      <c r="AD39" s="183"/>
+      <c r="AE39" s="205"/>
     </row>
     <row r="40" spans="1:31" ht="9.75" customHeight="1" thickBot="1">
       <c r="A40" s="77"/>
@@ -6004,40 +6040,40 @@
       </c>
       <c r="D42" s="75"/>
       <c r="E42" s="110"/>
-      <c r="F42" s="172" t="s">
+      <c r="F42" s="188" t="s">
         <v>0</v>
       </c>
-      <c r="G42" s="173"/>
-      <c r="H42" s="173"/>
-      <c r="I42" s="172" t="s">
+      <c r="G42" s="189"/>
+      <c r="H42" s="189"/>
+      <c r="I42" s="188" t="s">
         <v>42</v>
       </c>
-      <c r="J42" s="173"/>
-      <c r="K42" s="173"/>
-      <c r="L42" s="173"/>
-      <c r="M42" s="173"/>
-      <c r="N42" s="173"/>
-      <c r="O42" s="173"/>
-      <c r="P42" s="173"/>
-      <c r="Q42" s="172" t="s">
+      <c r="J42" s="189"/>
+      <c r="K42" s="189"/>
+      <c r="L42" s="189"/>
+      <c r="M42" s="189"/>
+      <c r="N42" s="189"/>
+      <c r="O42" s="189"/>
+      <c r="P42" s="189"/>
+      <c r="Q42" s="188" t="s">
         <v>43</v>
       </c>
-      <c r="R42" s="173"/>
+      <c r="R42" s="189"/>
       <c r="S42" s="215"/>
-      <c r="T42" s="173" t="s">
+      <c r="T42" s="189" t="s">
         <v>44</v>
       </c>
-      <c r="U42" s="173"/>
-      <c r="V42" s="173"/>
-      <c r="W42" s="173"/>
-      <c r="X42" s="173"/>
-      <c r="Y42" s="173"/>
-      <c r="Z42" s="173"/>
-      <c r="AA42" s="173"/>
-      <c r="AB42" s="173"/>
-      <c r="AC42" s="173"/>
-      <c r="AD42" s="173"/>
-      <c r="AE42" s="176"/>
+      <c r="U42" s="189"/>
+      <c r="V42" s="189"/>
+      <c r="W42" s="189"/>
+      <c r="X42" s="189"/>
+      <c r="Y42" s="189"/>
+      <c r="Z42" s="189"/>
+      <c r="AA42" s="189"/>
+      <c r="AB42" s="189"/>
+      <c r="AC42" s="189"/>
+      <c r="AD42" s="189"/>
+      <c r="AE42" s="190"/>
     </row>
     <row r="43" spans="1:31" ht="15" customHeight="1">
       <c r="A43" s="76" t="s">
@@ -6182,11 +6218,11 @@
       <c r="AE46" s="110"/>
     </row>
     <row r="47" spans="1:31" s="64" customFormat="1" ht="28.5" customHeight="1" thickBot="1">
-      <c r="A47" s="192" t="s">
+      <c r="A47" s="171" t="s">
         <v>0</v>
       </c>
-      <c r="B47" s="193"/>
-      <c r="C47" s="194"/>
+      <c r="B47" s="172"/>
+      <c r="C47" s="173"/>
       <c r="D47" s="228" t="s">
         <v>149</v>
       </c>
@@ -6245,11 +6281,11 @@
       <c r="AE47" s="213"/>
     </row>
     <row r="48" spans="1:31" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A48" s="195" t="s">
+      <c r="A48" s="174" t="s">
         <v>4</v>
       </c>
-      <c r="B48" s="196"/>
-      <c r="C48" s="197"/>
+      <c r="B48" s="175"/>
+      <c r="C48" s="176"/>
       <c r="D48" s="209" t="s">
         <v>111</v>
       </c>
@@ -6282,48 +6318,48 @@
       <c r="AE48" s="210"/>
     </row>
     <row r="49" spans="1:31" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A49" s="183" t="s">
+      <c r="A49" s="177" t="s">
         <v>5</v>
       </c>
-      <c r="B49" s="184"/>
-      <c r="C49" s="185"/>
-      <c r="D49" s="171" t="s">
+      <c r="B49" s="178"/>
+      <c r="C49" s="179"/>
+      <c r="D49" s="184" t="s">
         <v>110</v>
       </c>
-      <c r="E49" s="171"/>
-      <c r="F49" s="171"/>
-      <c r="G49" s="171"/>
-      <c r="H49" s="171"/>
-      <c r="I49" s="171"/>
-      <c r="J49" s="171"/>
-      <c r="K49" s="171"/>
-      <c r="L49" s="171"/>
-      <c r="M49" s="171"/>
-      <c r="N49" s="171"/>
-      <c r="O49" s="171"/>
-      <c r="P49" s="171"/>
-      <c r="Q49" s="171"/>
-      <c r="R49" s="171"/>
-      <c r="S49" s="171"/>
-      <c r="T49" s="171"/>
-      <c r="U49" s="171"/>
-      <c r="V49" s="171"/>
-      <c r="W49" s="171"/>
-      <c r="X49" s="171"/>
-      <c r="Y49" s="171"/>
-      <c r="Z49" s="171"/>
-      <c r="AA49" s="171"/>
-      <c r="AB49" s="171"/>
-      <c r="AC49" s="171"/>
-      <c r="AD49" s="171"/>
+      <c r="E49" s="184"/>
+      <c r="F49" s="184"/>
+      <c r="G49" s="184"/>
+      <c r="H49" s="184"/>
+      <c r="I49" s="184"/>
+      <c r="J49" s="184"/>
+      <c r="K49" s="184"/>
+      <c r="L49" s="184"/>
+      <c r="M49" s="184"/>
+      <c r="N49" s="184"/>
+      <c r="O49" s="184"/>
+      <c r="P49" s="184"/>
+      <c r="Q49" s="184"/>
+      <c r="R49" s="184"/>
+      <c r="S49" s="184"/>
+      <c r="T49" s="184"/>
+      <c r="U49" s="184"/>
+      <c r="V49" s="184"/>
+      <c r="W49" s="184"/>
+      <c r="X49" s="184"/>
+      <c r="Y49" s="184"/>
+      <c r="Z49" s="184"/>
+      <c r="AA49" s="184"/>
+      <c r="AB49" s="184"/>
+      <c r="AC49" s="184"/>
+      <c r="AD49" s="184"/>
       <c r="AE49" s="208"/>
     </row>
     <row r="50" spans="1:31" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A50" s="183" t="s">
+      <c r="A50" s="177" t="s">
         <v>45</v>
       </c>
-      <c r="B50" s="184"/>
-      <c r="C50" s="185"/>
+      <c r="B50" s="178"/>
+      <c r="C50" s="179"/>
       <c r="D50" s="67"/>
       <c r="E50" s="68"/>
       <c r="F50" s="67"/>
@@ -6354,11 +6390,11 @@
       <c r="AE50" s="85"/>
     </row>
     <row r="51" spans="1:31" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A51" s="183" t="s">
+      <c r="A51" s="177" t="s">
         <v>46</v>
       </c>
-      <c r="B51" s="184"/>
-      <c r="C51" s="185"/>
+      <c r="B51" s="178"/>
+      <c r="C51" s="179"/>
       <c r="D51" s="220"/>
       <c r="E51" s="220"/>
       <c r="F51" s="206"/>
@@ -6389,13 +6425,13 @@
       <c r="AE51" s="207"/>
     </row>
     <row r="52" spans="1:31" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A52" s="183" t="s">
+      <c r="A52" s="177" t="s">
         <v>23</v>
       </c>
-      <c r="B52" s="184"/>
-      <c r="C52" s="185"/>
-      <c r="D52" s="171"/>
-      <c r="E52" s="171"/>
+      <c r="B52" s="178"/>
+      <c r="C52" s="179"/>
+      <c r="D52" s="184"/>
+      <c r="E52" s="184"/>
       <c r="F52" s="206"/>
       <c r="G52" s="206"/>
       <c r="H52" s="206"/>
@@ -6424,115 +6460,115 @@
       <c r="AE52" s="207"/>
     </row>
     <row r="53" spans="1:31" s="4" customFormat="1" ht="20" customHeight="1">
-      <c r="A53" s="183" t="s">
+      <c r="A53" s="177" t="s">
         <v>6</v>
       </c>
-      <c r="B53" s="184"/>
-      <c r="C53" s="185"/>
-      <c r="D53" s="171" t="s">
+      <c r="B53" s="178"/>
+      <c r="C53" s="179"/>
+      <c r="D53" s="184" t="s">
         <v>100</v>
       </c>
-      <c r="E53" s="171"/>
-      <c r="F53" s="171"/>
-      <c r="G53" s="171"/>
-      <c r="H53" s="171"/>
-      <c r="I53" s="171"/>
-      <c r="J53" s="171"/>
-      <c r="K53" s="171"/>
-      <c r="L53" s="171"/>
-      <c r="M53" s="171"/>
-      <c r="N53" s="171"/>
-      <c r="O53" s="171"/>
-      <c r="P53" s="171"/>
-      <c r="Q53" s="171"/>
-      <c r="R53" s="171"/>
-      <c r="S53" s="171"/>
-      <c r="T53" s="171"/>
-      <c r="U53" s="171"/>
-      <c r="V53" s="171"/>
-      <c r="W53" s="171"/>
-      <c r="X53" s="171"/>
-      <c r="Y53" s="171"/>
-      <c r="Z53" s="171"/>
-      <c r="AA53" s="171"/>
-      <c r="AB53" s="171"/>
-      <c r="AC53" s="171"/>
-      <c r="AD53" s="171"/>
-      <c r="AE53" s="171"/>
+      <c r="E53" s="184"/>
+      <c r="F53" s="184"/>
+      <c r="G53" s="184"/>
+      <c r="H53" s="184"/>
+      <c r="I53" s="184"/>
+      <c r="J53" s="184"/>
+      <c r="K53" s="184"/>
+      <c r="L53" s="184"/>
+      <c r="M53" s="184"/>
+      <c r="N53" s="184"/>
+      <c r="O53" s="184"/>
+      <c r="P53" s="184"/>
+      <c r="Q53" s="184"/>
+      <c r="R53" s="184"/>
+      <c r="S53" s="184"/>
+      <c r="T53" s="184"/>
+      <c r="U53" s="184"/>
+      <c r="V53" s="184"/>
+      <c r="W53" s="184"/>
+      <c r="X53" s="184"/>
+      <c r="Y53" s="184"/>
+      <c r="Z53" s="184"/>
+      <c r="AA53" s="184"/>
+      <c r="AB53" s="184"/>
+      <c r="AC53" s="184"/>
+      <c r="AD53" s="184"/>
+      <c r="AE53" s="184"/>
     </row>
     <row r="54" spans="1:31" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
-      <c r="A54" s="186" t="s">
+      <c r="A54" s="197" t="s">
         <v>24</v>
       </c>
-      <c r="B54" s="187"/>
-      <c r="C54" s="188"/>
-      <c r="D54" s="204" t="s">
+      <c r="B54" s="198"/>
+      <c r="C54" s="199"/>
+      <c r="D54" s="186" t="s">
         <v>112</v>
       </c>
-      <c r="E54" s="204"/>
-      <c r="F54" s="204"/>
-      <c r="G54" s="204"/>
-      <c r="H54" s="204"/>
-      <c r="I54" s="204"/>
-      <c r="J54" s="204"/>
-      <c r="K54" s="204"/>
-      <c r="L54" s="204"/>
-      <c r="M54" s="204"/>
-      <c r="N54" s="204"/>
-      <c r="O54" s="204"/>
-      <c r="P54" s="204"/>
-      <c r="Q54" s="204"/>
-      <c r="R54" s="204"/>
-      <c r="S54" s="204"/>
-      <c r="T54" s="204"/>
-      <c r="U54" s="204"/>
-      <c r="V54" s="204"/>
-      <c r="W54" s="204"/>
-      <c r="X54" s="204"/>
-      <c r="Y54" s="204"/>
-      <c r="Z54" s="204"/>
-      <c r="AA54" s="204"/>
-      <c r="AB54" s="204"/>
-      <c r="AC54" s="204"/>
-      <c r="AD54" s="204"/>
-      <c r="AE54" s="205"/>
+      <c r="E54" s="186"/>
+      <c r="F54" s="186"/>
+      <c r="G54" s="186"/>
+      <c r="H54" s="186"/>
+      <c r="I54" s="186"/>
+      <c r="J54" s="186"/>
+      <c r="K54" s="186"/>
+      <c r="L54" s="186"/>
+      <c r="M54" s="186"/>
+      <c r="N54" s="186"/>
+      <c r="O54" s="186"/>
+      <c r="P54" s="186"/>
+      <c r="Q54" s="186"/>
+      <c r="R54" s="186"/>
+      <c r="S54" s="186"/>
+      <c r="T54" s="186"/>
+      <c r="U54" s="186"/>
+      <c r="V54" s="186"/>
+      <c r="W54" s="186"/>
+      <c r="X54" s="186"/>
+      <c r="Y54" s="186"/>
+      <c r="Z54" s="186"/>
+      <c r="AA54" s="186"/>
+      <c r="AB54" s="186"/>
+      <c r="AC54" s="186"/>
+      <c r="AD54" s="186"/>
+      <c r="AE54" s="187"/>
     </row>
     <row r="55" spans="1:31" s="4" customFormat="1" ht="20" customHeight="1" thickBot="1">
-      <c r="A55" s="189" t="s">
+      <c r="A55" s="200" t="s">
         <v>69</v>
       </c>
-      <c r="B55" s="190"/>
-      <c r="C55" s="191"/>
-      <c r="D55" s="204" t="s">
+      <c r="B55" s="201"/>
+      <c r="C55" s="202"/>
+      <c r="D55" s="186" t="s">
         <v>117</v>
       </c>
-      <c r="E55" s="204"/>
-      <c r="F55" s="204"/>
-      <c r="G55" s="204"/>
-      <c r="H55" s="204"/>
-      <c r="I55" s="204"/>
-      <c r="J55" s="204"/>
-      <c r="K55" s="204"/>
-      <c r="L55" s="204"/>
-      <c r="M55" s="204"/>
-      <c r="N55" s="204"/>
-      <c r="O55" s="204"/>
+      <c r="E55" s="186"/>
+      <c r="F55" s="186"/>
+      <c r="G55" s="186"/>
+      <c r="H55" s="186"/>
+      <c r="I55" s="186"/>
+      <c r="J55" s="186"/>
+      <c r="K55" s="186"/>
+      <c r="L55" s="186"/>
+      <c r="M55" s="186"/>
+      <c r="N55" s="186"/>
+      <c r="O55" s="186"/>
       <c r="P55" s="130"/>
       <c r="Q55" s="130"/>
-      <c r="R55" s="204"/>
-      <c r="S55" s="204"/>
+      <c r="R55" s="186"/>
+      <c r="S55" s="186"/>
       <c r="T55" s="130"/>
       <c r="U55" s="130"/>
-      <c r="V55" s="204"/>
-      <c r="W55" s="204"/>
+      <c r="V55" s="186"/>
+      <c r="W55" s="186"/>
       <c r="X55" s="130"/>
       <c r="Y55" s="130"/>
-      <c r="Z55" s="204"/>
-      <c r="AA55" s="204"/>
+      <c r="Z55" s="186"/>
+      <c r="AA55" s="186"/>
       <c r="AB55" s="130"/>
       <c r="AC55" s="130"/>
-      <c r="AD55" s="204"/>
-      <c r="AE55" s="205"/>
+      <c r="AD55" s="186"/>
+      <c r="AE55" s="187"/>
     </row>
     <row r="56" spans="1:31" s="7" customFormat="1" ht="6.75" customHeight="1">
       <c r="A56" s="131"/>
@@ -6603,9 +6639,9 @@
       <c r="AE57" s="131"/>
     </row>
     <row r="58" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A58" s="172"/>
-      <c r="B58" s="173"/>
-      <c r="C58" s="176"/>
+      <c r="A58" s="188"/>
+      <c r="B58" s="189"/>
+      <c r="C58" s="190"/>
       <c r="D58" s="218"/>
       <c r="E58" s="214"/>
       <c r="F58" s="214"/>
@@ -6636,108 +6672,108 @@
       <c r="AE58" s="214"/>
     </row>
     <row r="59" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A59" s="177"/>
-      <c r="B59" s="178"/>
-      <c r="C59" s="179"/>
+      <c r="A59" s="191"/>
+      <c r="B59" s="192"/>
+      <c r="C59" s="193"/>
       <c r="D59" s="217"/>
-      <c r="E59" s="203"/>
-      <c r="F59" s="203"/>
-      <c r="G59" s="203"/>
-      <c r="H59" s="203"/>
-      <c r="I59" s="203"/>
-      <c r="J59" s="203"/>
-      <c r="K59" s="203"/>
-      <c r="L59" s="203"/>
-      <c r="M59" s="203"/>
-      <c r="N59" s="203"/>
-      <c r="O59" s="203"/>
-      <c r="P59" s="203"/>
-      <c r="Q59" s="203"/>
-      <c r="R59" s="203"/>
-      <c r="S59" s="203"/>
-      <c r="T59" s="203"/>
-      <c r="U59" s="203"/>
-      <c r="V59" s="203"/>
-      <c r="W59" s="203"/>
-      <c r="X59" s="203"/>
-      <c r="Y59" s="203"/>
-      <c r="Z59" s="203"/>
-      <c r="AA59" s="203"/>
-      <c r="AB59" s="203"/>
-      <c r="AC59" s="203"/>
-      <c r="AD59" s="203"/>
-      <c r="AE59" s="203"/>
+      <c r="E59" s="185"/>
+      <c r="F59" s="185"/>
+      <c r="G59" s="185"/>
+      <c r="H59" s="185"/>
+      <c r="I59" s="185"/>
+      <c r="J59" s="185"/>
+      <c r="K59" s="185"/>
+      <c r="L59" s="185"/>
+      <c r="M59" s="185"/>
+      <c r="N59" s="185"/>
+      <c r="O59" s="185"/>
+      <c r="P59" s="185"/>
+      <c r="Q59" s="185"/>
+      <c r="R59" s="185"/>
+      <c r="S59" s="185"/>
+      <c r="T59" s="185"/>
+      <c r="U59" s="185"/>
+      <c r="V59" s="185"/>
+      <c r="W59" s="185"/>
+      <c r="X59" s="185"/>
+      <c r="Y59" s="185"/>
+      <c r="Z59" s="185"/>
+      <c r="AA59" s="185"/>
+      <c r="AB59" s="185"/>
+      <c r="AC59" s="185"/>
+      <c r="AD59" s="185"/>
+      <c r="AE59" s="185"/>
     </row>
     <row r="60" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A60" s="177"/>
-      <c r="B60" s="178"/>
-      <c r="C60" s="179"/>
+      <c r="A60" s="191"/>
+      <c r="B60" s="192"/>
+      <c r="C60" s="193"/>
       <c r="D60" s="217"/>
-      <c r="E60" s="203"/>
-      <c r="F60" s="203"/>
-      <c r="G60" s="203"/>
-      <c r="H60" s="203"/>
-      <c r="I60" s="203"/>
-      <c r="J60" s="203"/>
-      <c r="K60" s="203"/>
-      <c r="L60" s="203"/>
-      <c r="M60" s="203"/>
-      <c r="N60" s="203"/>
-      <c r="O60" s="203"/>
-      <c r="P60" s="203"/>
-      <c r="Q60" s="203"/>
-      <c r="R60" s="203"/>
-      <c r="S60" s="203"/>
-      <c r="T60" s="203"/>
-      <c r="U60" s="203"/>
-      <c r="V60" s="203"/>
-      <c r="W60" s="203"/>
-      <c r="X60" s="203"/>
-      <c r="Y60" s="203"/>
-      <c r="Z60" s="203"/>
-      <c r="AA60" s="203"/>
-      <c r="AB60" s="203"/>
-      <c r="AC60" s="203"/>
-      <c r="AD60" s="203"/>
-      <c r="AE60" s="203"/>
+      <c r="E60" s="185"/>
+      <c r="F60" s="185"/>
+      <c r="G60" s="185"/>
+      <c r="H60" s="185"/>
+      <c r="I60" s="185"/>
+      <c r="J60" s="185"/>
+      <c r="K60" s="185"/>
+      <c r="L60" s="185"/>
+      <c r="M60" s="185"/>
+      <c r="N60" s="185"/>
+      <c r="O60" s="185"/>
+      <c r="P60" s="185"/>
+      <c r="Q60" s="185"/>
+      <c r="R60" s="185"/>
+      <c r="S60" s="185"/>
+      <c r="T60" s="185"/>
+      <c r="U60" s="185"/>
+      <c r="V60" s="185"/>
+      <c r="W60" s="185"/>
+      <c r="X60" s="185"/>
+      <c r="Y60" s="185"/>
+      <c r="Z60" s="185"/>
+      <c r="AA60" s="185"/>
+      <c r="AB60" s="185"/>
+      <c r="AC60" s="185"/>
+      <c r="AD60" s="185"/>
+      <c r="AE60" s="185"/>
     </row>
     <row r="61" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A61" s="177"/>
-      <c r="B61" s="178"/>
-      <c r="C61" s="179"/>
+      <c r="A61" s="191"/>
+      <c r="B61" s="192"/>
+      <c r="C61" s="193"/>
       <c r="D61" s="217"/>
-      <c r="E61" s="203"/>
-      <c r="F61" s="203"/>
-      <c r="G61" s="203"/>
-      <c r="H61" s="203"/>
-      <c r="I61" s="203"/>
-      <c r="J61" s="203"/>
-      <c r="K61" s="203"/>
-      <c r="L61" s="203"/>
-      <c r="M61" s="203"/>
-      <c r="N61" s="203"/>
-      <c r="O61" s="203"/>
-      <c r="P61" s="203"/>
-      <c r="Q61" s="203"/>
-      <c r="R61" s="203"/>
-      <c r="S61" s="203"/>
-      <c r="T61" s="203"/>
-      <c r="U61" s="203"/>
-      <c r="V61" s="203"/>
-      <c r="W61" s="203"/>
-      <c r="X61" s="203"/>
-      <c r="Y61" s="203"/>
-      <c r="Z61" s="203"/>
-      <c r="AA61" s="203"/>
-      <c r="AB61" s="203"/>
-      <c r="AC61" s="203"/>
-      <c r="AD61" s="203"/>
-      <c r="AE61" s="203"/>
+      <c r="E61" s="185"/>
+      <c r="F61" s="185"/>
+      <c r="G61" s="185"/>
+      <c r="H61" s="185"/>
+      <c r="I61" s="185"/>
+      <c r="J61" s="185"/>
+      <c r="K61" s="185"/>
+      <c r="L61" s="185"/>
+      <c r="M61" s="185"/>
+      <c r="N61" s="185"/>
+      <c r="O61" s="185"/>
+      <c r="P61" s="185"/>
+      <c r="Q61" s="185"/>
+      <c r="R61" s="185"/>
+      <c r="S61" s="185"/>
+      <c r="T61" s="185"/>
+      <c r="U61" s="185"/>
+      <c r="V61" s="185"/>
+      <c r="W61" s="185"/>
+      <c r="X61" s="185"/>
+      <c r="Y61" s="185"/>
+      <c r="Z61" s="185"/>
+      <c r="AA61" s="185"/>
+      <c r="AB61" s="185"/>
+      <c r="AC61" s="185"/>
+      <c r="AD61" s="185"/>
+      <c r="AE61" s="185"/>
     </row>
     <row r="62" spans="1:31" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A62" s="180"/>
-      <c r="B62" s="181"/>
-      <c r="C62" s="182"/>
+      <c r="A62" s="194"/>
+      <c r="B62" s="195"/>
+      <c r="C62" s="196"/>
       <c r="D62" s="219"/>
       <c r="E62" s="216"/>
       <c r="F62" s="216"/>
@@ -6768,9 +6804,9 @@
       <c r="AE62" s="216"/>
     </row>
     <row r="63" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A63" s="172"/>
-      <c r="B63" s="173"/>
-      <c r="C63" s="176"/>
+      <c r="A63" s="188"/>
+      <c r="B63" s="189"/>
+      <c r="C63" s="190"/>
       <c r="D63" s="218"/>
       <c r="E63" s="214"/>
       <c r="F63" s="214"/>
@@ -6801,108 +6837,108 @@
       <c r="AE63" s="214"/>
     </row>
     <row r="64" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A64" s="177"/>
-      <c r="B64" s="178"/>
-      <c r="C64" s="179"/>
+      <c r="A64" s="191"/>
+      <c r="B64" s="192"/>
+      <c r="C64" s="193"/>
       <c r="D64" s="217"/>
-      <c r="E64" s="203"/>
-      <c r="F64" s="203"/>
-      <c r="G64" s="203"/>
-      <c r="H64" s="203"/>
-      <c r="I64" s="203"/>
-      <c r="J64" s="203"/>
-      <c r="K64" s="203"/>
-      <c r="L64" s="203"/>
-      <c r="M64" s="203"/>
-      <c r="N64" s="203"/>
-      <c r="O64" s="203"/>
-      <c r="P64" s="203"/>
-      <c r="Q64" s="203"/>
-      <c r="R64" s="203"/>
-      <c r="S64" s="203"/>
-      <c r="T64" s="203"/>
-      <c r="U64" s="203"/>
-      <c r="V64" s="203"/>
-      <c r="W64" s="203"/>
-      <c r="X64" s="203"/>
-      <c r="Y64" s="203"/>
-      <c r="Z64" s="203"/>
-      <c r="AA64" s="203"/>
-      <c r="AB64" s="203"/>
-      <c r="AC64" s="203"/>
-      <c r="AD64" s="203"/>
-      <c r="AE64" s="203"/>
+      <c r="E64" s="185"/>
+      <c r="F64" s="185"/>
+      <c r="G64" s="185"/>
+      <c r="H64" s="185"/>
+      <c r="I64" s="185"/>
+      <c r="J64" s="185"/>
+      <c r="K64" s="185"/>
+      <c r="L64" s="185"/>
+      <c r="M64" s="185"/>
+      <c r="N64" s="185"/>
+      <c r="O64" s="185"/>
+      <c r="P64" s="185"/>
+      <c r="Q64" s="185"/>
+      <c r="R64" s="185"/>
+      <c r="S64" s="185"/>
+      <c r="T64" s="185"/>
+      <c r="U64" s="185"/>
+      <c r="V64" s="185"/>
+      <c r="W64" s="185"/>
+      <c r="X64" s="185"/>
+      <c r="Y64" s="185"/>
+      <c r="Z64" s="185"/>
+      <c r="AA64" s="185"/>
+      <c r="AB64" s="185"/>
+      <c r="AC64" s="185"/>
+      <c r="AD64" s="185"/>
+      <c r="AE64" s="185"/>
     </row>
     <row r="65" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A65" s="177"/>
-      <c r="B65" s="178"/>
-      <c r="C65" s="179"/>
+      <c r="A65" s="191"/>
+      <c r="B65" s="192"/>
+      <c r="C65" s="193"/>
       <c r="D65" s="217"/>
-      <c r="E65" s="203"/>
-      <c r="F65" s="203"/>
-      <c r="G65" s="203"/>
-      <c r="H65" s="203"/>
-      <c r="I65" s="203"/>
-      <c r="J65" s="203"/>
-      <c r="K65" s="203"/>
-      <c r="L65" s="203"/>
-      <c r="M65" s="203"/>
-      <c r="N65" s="203"/>
-      <c r="O65" s="203"/>
-      <c r="P65" s="203"/>
-      <c r="Q65" s="203"/>
-      <c r="R65" s="203"/>
-      <c r="S65" s="203"/>
-      <c r="T65" s="203"/>
-      <c r="U65" s="203"/>
-      <c r="V65" s="203"/>
-      <c r="W65" s="203"/>
-      <c r="X65" s="203"/>
-      <c r="Y65" s="203"/>
-      <c r="Z65" s="203"/>
-      <c r="AA65" s="203"/>
-      <c r="AB65" s="203"/>
-      <c r="AC65" s="203"/>
-      <c r="AD65" s="203"/>
-      <c r="AE65" s="203"/>
+      <c r="E65" s="185"/>
+      <c r="F65" s="185"/>
+      <c r="G65" s="185"/>
+      <c r="H65" s="185"/>
+      <c r="I65" s="185"/>
+      <c r="J65" s="185"/>
+      <c r="K65" s="185"/>
+      <c r="L65" s="185"/>
+      <c r="M65" s="185"/>
+      <c r="N65" s="185"/>
+      <c r="O65" s="185"/>
+      <c r="P65" s="185"/>
+      <c r="Q65" s="185"/>
+      <c r="R65" s="185"/>
+      <c r="S65" s="185"/>
+      <c r="T65" s="185"/>
+      <c r="U65" s="185"/>
+      <c r="V65" s="185"/>
+      <c r="W65" s="185"/>
+      <c r="X65" s="185"/>
+      <c r="Y65" s="185"/>
+      <c r="Z65" s="185"/>
+      <c r="AA65" s="185"/>
+      <c r="AB65" s="185"/>
+      <c r="AC65" s="185"/>
+      <c r="AD65" s="185"/>
+      <c r="AE65" s="185"/>
     </row>
     <row r="66" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A66" s="177"/>
-      <c r="B66" s="178"/>
-      <c r="C66" s="179"/>
+      <c r="A66" s="191"/>
+      <c r="B66" s="192"/>
+      <c r="C66" s="193"/>
       <c r="D66" s="217"/>
-      <c r="E66" s="203"/>
-      <c r="F66" s="203"/>
-      <c r="G66" s="203"/>
-      <c r="H66" s="203"/>
-      <c r="I66" s="203"/>
-      <c r="J66" s="203"/>
-      <c r="K66" s="203"/>
-      <c r="L66" s="203"/>
-      <c r="M66" s="203"/>
-      <c r="N66" s="203"/>
-      <c r="O66" s="203"/>
-      <c r="P66" s="203"/>
-      <c r="Q66" s="203"/>
-      <c r="R66" s="203"/>
-      <c r="S66" s="203"/>
-      <c r="T66" s="203"/>
-      <c r="U66" s="203"/>
-      <c r="V66" s="203"/>
-      <c r="W66" s="203"/>
-      <c r="X66" s="203"/>
-      <c r="Y66" s="203"/>
-      <c r="Z66" s="203"/>
-      <c r="AA66" s="203"/>
-      <c r="AB66" s="203"/>
-      <c r="AC66" s="203"/>
-      <c r="AD66" s="203"/>
-      <c r="AE66" s="203"/>
+      <c r="E66" s="185"/>
+      <c r="F66" s="185"/>
+      <c r="G66" s="185"/>
+      <c r="H66" s="185"/>
+      <c r="I66" s="185"/>
+      <c r="J66" s="185"/>
+      <c r="K66" s="185"/>
+      <c r="L66" s="185"/>
+      <c r="M66" s="185"/>
+      <c r="N66" s="185"/>
+      <c r="O66" s="185"/>
+      <c r="P66" s="185"/>
+      <c r="Q66" s="185"/>
+      <c r="R66" s="185"/>
+      <c r="S66" s="185"/>
+      <c r="T66" s="185"/>
+      <c r="U66" s="185"/>
+      <c r="V66" s="185"/>
+      <c r="W66" s="185"/>
+      <c r="X66" s="185"/>
+      <c r="Y66" s="185"/>
+      <c r="Z66" s="185"/>
+      <c r="AA66" s="185"/>
+      <c r="AB66" s="185"/>
+      <c r="AC66" s="185"/>
+      <c r="AD66" s="185"/>
+      <c r="AE66" s="185"/>
     </row>
     <row r="67" spans="1:31" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A67" s="180"/>
-      <c r="B67" s="181"/>
-      <c r="C67" s="182"/>
+      <c r="A67" s="194"/>
+      <c r="B67" s="195"/>
+      <c r="C67" s="196"/>
       <c r="D67" s="219"/>
       <c r="E67" s="216"/>
       <c r="F67" s="216"/>
@@ -6933,9 +6969,9 @@
       <c r="AE67" s="216"/>
     </row>
     <row r="68" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A68" s="172"/>
-      <c r="B68" s="173"/>
-      <c r="C68" s="176"/>
+      <c r="A68" s="188"/>
+      <c r="B68" s="189"/>
+      <c r="C68" s="190"/>
       <c r="D68" s="218"/>
       <c r="E68" s="214"/>
       <c r="F68" s="214"/>
@@ -6966,108 +7002,108 @@
       <c r="AE68" s="214"/>
     </row>
     <row r="69" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A69" s="177"/>
-      <c r="B69" s="178"/>
-      <c r="C69" s="179"/>
+      <c r="A69" s="191"/>
+      <c r="B69" s="192"/>
+      <c r="C69" s="193"/>
       <c r="D69" s="217"/>
-      <c r="E69" s="203"/>
-      <c r="F69" s="203"/>
-      <c r="G69" s="203"/>
-      <c r="H69" s="203"/>
-      <c r="I69" s="203"/>
-      <c r="J69" s="203"/>
-      <c r="K69" s="203"/>
-      <c r="L69" s="203"/>
-      <c r="M69" s="203"/>
-      <c r="N69" s="203"/>
-      <c r="O69" s="203"/>
-      <c r="P69" s="203"/>
-      <c r="Q69" s="203"/>
-      <c r="R69" s="203"/>
-      <c r="S69" s="203"/>
-      <c r="T69" s="203"/>
-      <c r="U69" s="203"/>
-      <c r="V69" s="203"/>
-      <c r="W69" s="203"/>
-      <c r="X69" s="203"/>
-      <c r="Y69" s="203"/>
-      <c r="Z69" s="203"/>
-      <c r="AA69" s="203"/>
-      <c r="AB69" s="203"/>
-      <c r="AC69" s="203"/>
-      <c r="AD69" s="203"/>
-      <c r="AE69" s="203"/>
+      <c r="E69" s="185"/>
+      <c r="F69" s="185"/>
+      <c r="G69" s="185"/>
+      <c r="H69" s="185"/>
+      <c r="I69" s="185"/>
+      <c r="J69" s="185"/>
+      <c r="K69" s="185"/>
+      <c r="L69" s="185"/>
+      <c r="M69" s="185"/>
+      <c r="N69" s="185"/>
+      <c r="O69" s="185"/>
+      <c r="P69" s="185"/>
+      <c r="Q69" s="185"/>
+      <c r="R69" s="185"/>
+      <c r="S69" s="185"/>
+      <c r="T69" s="185"/>
+      <c r="U69" s="185"/>
+      <c r="V69" s="185"/>
+      <c r="W69" s="185"/>
+      <c r="X69" s="185"/>
+      <c r="Y69" s="185"/>
+      <c r="Z69" s="185"/>
+      <c r="AA69" s="185"/>
+      <c r="AB69" s="185"/>
+      <c r="AC69" s="185"/>
+      <c r="AD69" s="185"/>
+      <c r="AE69" s="185"/>
     </row>
     <row r="70" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A70" s="177"/>
-      <c r="B70" s="178"/>
-      <c r="C70" s="179"/>
+      <c r="A70" s="191"/>
+      <c r="B70" s="192"/>
+      <c r="C70" s="193"/>
       <c r="D70" s="217"/>
-      <c r="E70" s="203"/>
-      <c r="F70" s="203"/>
-      <c r="G70" s="203"/>
-      <c r="H70" s="203"/>
-      <c r="I70" s="203"/>
-      <c r="J70" s="203"/>
-      <c r="K70" s="203"/>
-      <c r="L70" s="203"/>
-      <c r="M70" s="203"/>
-      <c r="N70" s="203"/>
-      <c r="O70" s="203"/>
-      <c r="P70" s="203"/>
-      <c r="Q70" s="203"/>
-      <c r="R70" s="203"/>
-      <c r="S70" s="203"/>
-      <c r="T70" s="203"/>
-      <c r="U70" s="203"/>
-      <c r="V70" s="203"/>
-      <c r="W70" s="203"/>
-      <c r="X70" s="203"/>
-      <c r="Y70" s="203"/>
-      <c r="Z70" s="203"/>
-      <c r="AA70" s="203"/>
-      <c r="AB70" s="203"/>
-      <c r="AC70" s="203"/>
-      <c r="AD70" s="203"/>
-      <c r="AE70" s="203"/>
+      <c r="E70" s="185"/>
+      <c r="F70" s="185"/>
+      <c r="G70" s="185"/>
+      <c r="H70" s="185"/>
+      <c r="I70" s="185"/>
+      <c r="J70" s="185"/>
+      <c r="K70" s="185"/>
+      <c r="L70" s="185"/>
+      <c r="M70" s="185"/>
+      <c r="N70" s="185"/>
+      <c r="O70" s="185"/>
+      <c r="P70" s="185"/>
+      <c r="Q70" s="185"/>
+      <c r="R70" s="185"/>
+      <c r="S70" s="185"/>
+      <c r="T70" s="185"/>
+      <c r="U70" s="185"/>
+      <c r="V70" s="185"/>
+      <c r="W70" s="185"/>
+      <c r="X70" s="185"/>
+      <c r="Y70" s="185"/>
+      <c r="Z70" s="185"/>
+      <c r="AA70" s="185"/>
+      <c r="AB70" s="185"/>
+      <c r="AC70" s="185"/>
+      <c r="AD70" s="185"/>
+      <c r="AE70" s="185"/>
     </row>
     <row r="71" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A71" s="177"/>
-      <c r="B71" s="178"/>
-      <c r="C71" s="179"/>
+      <c r="A71" s="191"/>
+      <c r="B71" s="192"/>
+      <c r="C71" s="193"/>
       <c r="D71" s="217"/>
-      <c r="E71" s="203"/>
-      <c r="F71" s="203"/>
-      <c r="G71" s="203"/>
-      <c r="H71" s="203"/>
-      <c r="I71" s="203"/>
-      <c r="J71" s="203"/>
-      <c r="K71" s="203"/>
-      <c r="L71" s="203"/>
-      <c r="M71" s="203"/>
-      <c r="N71" s="203"/>
-      <c r="O71" s="203"/>
-      <c r="P71" s="203"/>
-      <c r="Q71" s="203"/>
-      <c r="R71" s="203"/>
-      <c r="S71" s="203"/>
-      <c r="T71" s="203"/>
-      <c r="U71" s="203"/>
-      <c r="V71" s="203"/>
-      <c r="W71" s="203"/>
-      <c r="X71" s="203"/>
-      <c r="Y71" s="203"/>
-      <c r="Z71" s="203"/>
-      <c r="AA71" s="203"/>
-      <c r="AB71" s="203"/>
-      <c r="AC71" s="203"/>
-      <c r="AD71" s="203"/>
-      <c r="AE71" s="203"/>
+      <c r="E71" s="185"/>
+      <c r="F71" s="185"/>
+      <c r="G71" s="185"/>
+      <c r="H71" s="185"/>
+      <c r="I71" s="185"/>
+      <c r="J71" s="185"/>
+      <c r="K71" s="185"/>
+      <c r="L71" s="185"/>
+      <c r="M71" s="185"/>
+      <c r="N71" s="185"/>
+      <c r="O71" s="185"/>
+      <c r="P71" s="185"/>
+      <c r="Q71" s="185"/>
+      <c r="R71" s="185"/>
+      <c r="S71" s="185"/>
+      <c r="T71" s="185"/>
+      <c r="U71" s="185"/>
+      <c r="V71" s="185"/>
+      <c r="W71" s="185"/>
+      <c r="X71" s="185"/>
+      <c r="Y71" s="185"/>
+      <c r="Z71" s="185"/>
+      <c r="AA71" s="185"/>
+      <c r="AB71" s="185"/>
+      <c r="AC71" s="185"/>
+      <c r="AD71" s="185"/>
+      <c r="AE71" s="185"/>
     </row>
     <row r="72" spans="1:31" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A72" s="180"/>
-      <c r="B72" s="181"/>
-      <c r="C72" s="182"/>
+      <c r="A72" s="194"/>
+      <c r="B72" s="195"/>
+      <c r="C72" s="196"/>
       <c r="D72" s="219"/>
       <c r="E72" s="216"/>
       <c r="F72" s="216"/>
@@ -7098,9 +7134,9 @@
       <c r="AE72" s="216"/>
     </row>
     <row r="73" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A73" s="172"/>
-      <c r="B73" s="173"/>
-      <c r="C73" s="176"/>
+      <c r="A73" s="188"/>
+      <c r="B73" s="189"/>
+      <c r="C73" s="190"/>
       <c r="D73" s="218"/>
       <c r="E73" s="214"/>
       <c r="F73" s="214"/>
@@ -7131,108 +7167,108 @@
       <c r="AE73" s="214"/>
     </row>
     <row r="74" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A74" s="177"/>
-      <c r="B74" s="178"/>
-      <c r="C74" s="179"/>
+      <c r="A74" s="191"/>
+      <c r="B74" s="192"/>
+      <c r="C74" s="193"/>
       <c r="D74" s="217"/>
-      <c r="E74" s="203"/>
-      <c r="F74" s="203"/>
-      <c r="G74" s="203"/>
-      <c r="H74" s="203"/>
-      <c r="I74" s="203"/>
-      <c r="J74" s="203"/>
-      <c r="K74" s="203"/>
-      <c r="L74" s="203"/>
-      <c r="M74" s="203"/>
-      <c r="N74" s="203"/>
-      <c r="O74" s="203"/>
-      <c r="P74" s="203"/>
-      <c r="Q74" s="203"/>
-      <c r="R74" s="203"/>
-      <c r="S74" s="203"/>
-      <c r="T74" s="203"/>
-      <c r="U74" s="203"/>
-      <c r="V74" s="203"/>
-      <c r="W74" s="203"/>
-      <c r="X74" s="203"/>
-      <c r="Y74" s="203"/>
-      <c r="Z74" s="203"/>
-      <c r="AA74" s="203"/>
-      <c r="AB74" s="203"/>
-      <c r="AC74" s="203"/>
-      <c r="AD74" s="203"/>
-      <c r="AE74" s="203"/>
+      <c r="E74" s="185"/>
+      <c r="F74" s="185"/>
+      <c r="G74" s="185"/>
+      <c r="H74" s="185"/>
+      <c r="I74" s="185"/>
+      <c r="J74" s="185"/>
+      <c r="K74" s="185"/>
+      <c r="L74" s="185"/>
+      <c r="M74" s="185"/>
+      <c r="N74" s="185"/>
+      <c r="O74" s="185"/>
+      <c r="P74" s="185"/>
+      <c r="Q74" s="185"/>
+      <c r="R74" s="185"/>
+      <c r="S74" s="185"/>
+      <c r="T74" s="185"/>
+      <c r="U74" s="185"/>
+      <c r="V74" s="185"/>
+      <c r="W74" s="185"/>
+      <c r="X74" s="185"/>
+      <c r="Y74" s="185"/>
+      <c r="Z74" s="185"/>
+      <c r="AA74" s="185"/>
+      <c r="AB74" s="185"/>
+      <c r="AC74" s="185"/>
+      <c r="AD74" s="185"/>
+      <c r="AE74" s="185"/>
     </row>
     <row r="75" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A75" s="177"/>
-      <c r="B75" s="178"/>
-      <c r="C75" s="179"/>
+      <c r="A75" s="191"/>
+      <c r="B75" s="192"/>
+      <c r="C75" s="193"/>
       <c r="D75" s="217"/>
-      <c r="E75" s="203"/>
-      <c r="F75" s="203"/>
-      <c r="G75" s="203"/>
-      <c r="H75" s="203"/>
-      <c r="I75" s="203"/>
-      <c r="J75" s="203"/>
-      <c r="K75" s="203"/>
-      <c r="L75" s="203"/>
-      <c r="M75" s="203"/>
-      <c r="N75" s="203"/>
-      <c r="O75" s="203"/>
-      <c r="P75" s="203"/>
-      <c r="Q75" s="203"/>
-      <c r="R75" s="203"/>
-      <c r="S75" s="203"/>
-      <c r="T75" s="203"/>
-      <c r="U75" s="203"/>
-      <c r="V75" s="203"/>
-      <c r="W75" s="203"/>
-      <c r="X75" s="203"/>
-      <c r="Y75" s="203"/>
-      <c r="Z75" s="203"/>
-      <c r="AA75" s="203"/>
-      <c r="AB75" s="203"/>
-      <c r="AC75" s="203"/>
-      <c r="AD75" s="203"/>
-      <c r="AE75" s="203"/>
+      <c r="E75" s="185"/>
+      <c r="F75" s="185"/>
+      <c r="G75" s="185"/>
+      <c r="H75" s="185"/>
+      <c r="I75" s="185"/>
+      <c r="J75" s="185"/>
+      <c r="K75" s="185"/>
+      <c r="L75" s="185"/>
+      <c r="M75" s="185"/>
+      <c r="N75" s="185"/>
+      <c r="O75" s="185"/>
+      <c r="P75" s="185"/>
+      <c r="Q75" s="185"/>
+      <c r="R75" s="185"/>
+      <c r="S75" s="185"/>
+      <c r="T75" s="185"/>
+      <c r="U75" s="185"/>
+      <c r="V75" s="185"/>
+      <c r="W75" s="185"/>
+      <c r="X75" s="185"/>
+      <c r="Y75" s="185"/>
+      <c r="Z75" s="185"/>
+      <c r="AA75" s="185"/>
+      <c r="AB75" s="185"/>
+      <c r="AC75" s="185"/>
+      <c r="AD75" s="185"/>
+      <c r="AE75" s="185"/>
     </row>
     <row r="76" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A76" s="177"/>
-      <c r="B76" s="178"/>
-      <c r="C76" s="179"/>
+      <c r="A76" s="191"/>
+      <c r="B76" s="192"/>
+      <c r="C76" s="193"/>
       <c r="D76" s="217"/>
-      <c r="E76" s="203"/>
-      <c r="F76" s="203"/>
-      <c r="G76" s="203"/>
-      <c r="H76" s="203"/>
-      <c r="I76" s="203"/>
-      <c r="J76" s="203"/>
-      <c r="K76" s="203"/>
-      <c r="L76" s="203"/>
-      <c r="M76" s="203"/>
-      <c r="N76" s="203"/>
-      <c r="O76" s="203"/>
-      <c r="P76" s="203"/>
-      <c r="Q76" s="203"/>
-      <c r="R76" s="203"/>
-      <c r="S76" s="203"/>
-      <c r="T76" s="203"/>
-      <c r="U76" s="203"/>
-      <c r="V76" s="203"/>
-      <c r="W76" s="203"/>
-      <c r="X76" s="203"/>
-      <c r="Y76" s="203"/>
-      <c r="Z76" s="203"/>
-      <c r="AA76" s="203"/>
-      <c r="AB76" s="203"/>
-      <c r="AC76" s="203"/>
-      <c r="AD76" s="203"/>
-      <c r="AE76" s="203"/>
+      <c r="E76" s="185"/>
+      <c r="F76" s="185"/>
+      <c r="G76" s="185"/>
+      <c r="H76" s="185"/>
+      <c r="I76" s="185"/>
+      <c r="J76" s="185"/>
+      <c r="K76" s="185"/>
+      <c r="L76" s="185"/>
+      <c r="M76" s="185"/>
+      <c r="N76" s="185"/>
+      <c r="O76" s="185"/>
+      <c r="P76" s="185"/>
+      <c r="Q76" s="185"/>
+      <c r="R76" s="185"/>
+      <c r="S76" s="185"/>
+      <c r="T76" s="185"/>
+      <c r="U76" s="185"/>
+      <c r="V76" s="185"/>
+      <c r="W76" s="185"/>
+      <c r="X76" s="185"/>
+      <c r="Y76" s="185"/>
+      <c r="Z76" s="185"/>
+      <c r="AA76" s="185"/>
+      <c r="AB76" s="185"/>
+      <c r="AC76" s="185"/>
+      <c r="AD76" s="185"/>
+      <c r="AE76" s="185"/>
     </row>
     <row r="77" spans="1:31" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A77" s="180"/>
-      <c r="B77" s="181"/>
-      <c r="C77" s="182"/>
+      <c r="A77" s="194"/>
+      <c r="B77" s="195"/>
+      <c r="C77" s="196"/>
       <c r="D77" s="219"/>
       <c r="E77" s="216"/>
       <c r="F77" s="216"/>
@@ -7263,9 +7299,9 @@
       <c r="AE77" s="216"/>
     </row>
     <row r="78" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A78" s="172"/>
-      <c r="B78" s="173"/>
-      <c r="C78" s="176"/>
+      <c r="A78" s="188"/>
+      <c r="B78" s="189"/>
+      <c r="C78" s="190"/>
       <c r="D78" s="218"/>
       <c r="E78" s="214"/>
       <c r="F78" s="214"/>
@@ -7296,108 +7332,108 @@
       <c r="AE78" s="214"/>
     </row>
     <row r="79" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A79" s="177"/>
-      <c r="B79" s="178"/>
-      <c r="C79" s="179"/>
+      <c r="A79" s="191"/>
+      <c r="B79" s="192"/>
+      <c r="C79" s="193"/>
       <c r="D79" s="217"/>
-      <c r="E79" s="203"/>
-      <c r="F79" s="203"/>
-      <c r="G79" s="203"/>
-      <c r="H79" s="203"/>
-      <c r="I79" s="203"/>
-      <c r="J79" s="203"/>
-      <c r="K79" s="203"/>
-      <c r="L79" s="203"/>
-      <c r="M79" s="203"/>
-      <c r="N79" s="203"/>
-      <c r="O79" s="203"/>
-      <c r="P79" s="203"/>
-      <c r="Q79" s="203"/>
-      <c r="R79" s="203"/>
-      <c r="S79" s="203"/>
-      <c r="T79" s="203"/>
-      <c r="U79" s="203"/>
-      <c r="V79" s="203"/>
-      <c r="W79" s="203"/>
-      <c r="X79" s="203"/>
-      <c r="Y79" s="203"/>
-      <c r="Z79" s="203"/>
-      <c r="AA79" s="203"/>
-      <c r="AB79" s="203"/>
-      <c r="AC79" s="203"/>
-      <c r="AD79" s="203"/>
-      <c r="AE79" s="203"/>
+      <c r="E79" s="185"/>
+      <c r="F79" s="185"/>
+      <c r="G79" s="185"/>
+      <c r="H79" s="185"/>
+      <c r="I79" s="185"/>
+      <c r="J79" s="185"/>
+      <c r="K79" s="185"/>
+      <c r="L79" s="185"/>
+      <c r="M79" s="185"/>
+      <c r="N79" s="185"/>
+      <c r="O79" s="185"/>
+      <c r="P79" s="185"/>
+      <c r="Q79" s="185"/>
+      <c r="R79" s="185"/>
+      <c r="S79" s="185"/>
+      <c r="T79" s="185"/>
+      <c r="U79" s="185"/>
+      <c r="V79" s="185"/>
+      <c r="W79" s="185"/>
+      <c r="X79" s="185"/>
+      <c r="Y79" s="185"/>
+      <c r="Z79" s="185"/>
+      <c r="AA79" s="185"/>
+      <c r="AB79" s="185"/>
+      <c r="AC79" s="185"/>
+      <c r="AD79" s="185"/>
+      <c r="AE79" s="185"/>
     </row>
     <row r="80" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A80" s="177"/>
-      <c r="B80" s="178"/>
-      <c r="C80" s="179"/>
+      <c r="A80" s="191"/>
+      <c r="B80" s="192"/>
+      <c r="C80" s="193"/>
       <c r="D80" s="217"/>
-      <c r="E80" s="203"/>
-      <c r="F80" s="203"/>
-      <c r="G80" s="203"/>
-      <c r="H80" s="203"/>
-      <c r="I80" s="203"/>
-      <c r="J80" s="203"/>
-      <c r="K80" s="203"/>
-      <c r="L80" s="203"/>
-      <c r="M80" s="203"/>
-      <c r="N80" s="203"/>
-      <c r="O80" s="203"/>
-      <c r="P80" s="203"/>
-      <c r="Q80" s="203"/>
-      <c r="R80" s="203"/>
-      <c r="S80" s="203"/>
-      <c r="T80" s="203"/>
-      <c r="U80" s="203"/>
-      <c r="V80" s="203"/>
-      <c r="W80" s="203"/>
-      <c r="X80" s="203"/>
-      <c r="Y80" s="203"/>
-      <c r="Z80" s="203"/>
-      <c r="AA80" s="203"/>
-      <c r="AB80" s="203"/>
-      <c r="AC80" s="203"/>
-      <c r="AD80" s="203"/>
-      <c r="AE80" s="203"/>
+      <c r="E80" s="185"/>
+      <c r="F80" s="185"/>
+      <c r="G80" s="185"/>
+      <c r="H80" s="185"/>
+      <c r="I80" s="185"/>
+      <c r="J80" s="185"/>
+      <c r="K80" s="185"/>
+      <c r="L80" s="185"/>
+      <c r="M80" s="185"/>
+      <c r="N80" s="185"/>
+      <c r="O80" s="185"/>
+      <c r="P80" s="185"/>
+      <c r="Q80" s="185"/>
+      <c r="R80" s="185"/>
+      <c r="S80" s="185"/>
+      <c r="T80" s="185"/>
+      <c r="U80" s="185"/>
+      <c r="V80" s="185"/>
+      <c r="W80" s="185"/>
+      <c r="X80" s="185"/>
+      <c r="Y80" s="185"/>
+      <c r="Z80" s="185"/>
+      <c r="AA80" s="185"/>
+      <c r="AB80" s="185"/>
+      <c r="AC80" s="185"/>
+      <c r="AD80" s="185"/>
+      <c r="AE80" s="185"/>
     </row>
     <row r="81" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A81" s="177"/>
-      <c r="B81" s="178"/>
-      <c r="C81" s="179"/>
+      <c r="A81" s="191"/>
+      <c r="B81" s="192"/>
+      <c r="C81" s="193"/>
       <c r="D81" s="217"/>
-      <c r="E81" s="203"/>
-      <c r="F81" s="203"/>
-      <c r="G81" s="203"/>
-      <c r="H81" s="203"/>
-      <c r="I81" s="203"/>
-      <c r="J81" s="203"/>
-      <c r="K81" s="203"/>
-      <c r="L81" s="203"/>
-      <c r="M81" s="203"/>
-      <c r="N81" s="203"/>
-      <c r="O81" s="203"/>
-      <c r="P81" s="203"/>
-      <c r="Q81" s="203"/>
-      <c r="R81" s="203"/>
-      <c r="S81" s="203"/>
-      <c r="T81" s="203"/>
-      <c r="U81" s="203"/>
-      <c r="V81" s="203"/>
-      <c r="W81" s="203"/>
-      <c r="X81" s="203"/>
-      <c r="Y81" s="203"/>
-      <c r="Z81" s="203"/>
-      <c r="AA81" s="203"/>
-      <c r="AB81" s="203"/>
-      <c r="AC81" s="203"/>
-      <c r="AD81" s="203"/>
-      <c r="AE81" s="203"/>
+      <c r="E81" s="185"/>
+      <c r="F81" s="185"/>
+      <c r="G81" s="185"/>
+      <c r="H81" s="185"/>
+      <c r="I81" s="185"/>
+      <c r="J81" s="185"/>
+      <c r="K81" s="185"/>
+      <c r="L81" s="185"/>
+      <c r="M81" s="185"/>
+      <c r="N81" s="185"/>
+      <c r="O81" s="185"/>
+      <c r="P81" s="185"/>
+      <c r="Q81" s="185"/>
+      <c r="R81" s="185"/>
+      <c r="S81" s="185"/>
+      <c r="T81" s="185"/>
+      <c r="U81" s="185"/>
+      <c r="V81" s="185"/>
+      <c r="W81" s="185"/>
+      <c r="X81" s="185"/>
+      <c r="Y81" s="185"/>
+      <c r="Z81" s="185"/>
+      <c r="AA81" s="185"/>
+      <c r="AB81" s="185"/>
+      <c r="AC81" s="185"/>
+      <c r="AD81" s="185"/>
+      <c r="AE81" s="185"/>
     </row>
     <row r="82" spans="1:31" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A82" s="180"/>
-      <c r="B82" s="181"/>
-      <c r="C82" s="182"/>
+      <c r="A82" s="194"/>
+      <c r="B82" s="195"/>
+      <c r="C82" s="196"/>
       <c r="D82" s="219"/>
       <c r="E82" s="216"/>
       <c r="F82" s="216"/>
@@ -7428,9 +7464,9 @@
       <c r="AE82" s="216"/>
     </row>
     <row r="83" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A83" s="172"/>
-      <c r="B83" s="173"/>
-      <c r="C83" s="176"/>
+      <c r="A83" s="188"/>
+      <c r="B83" s="189"/>
+      <c r="C83" s="190"/>
       <c r="D83" s="218"/>
       <c r="E83" s="214"/>
       <c r="F83" s="214"/>
@@ -7461,108 +7497,108 @@
       <c r="AE83" s="214"/>
     </row>
     <row r="84" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A84" s="177"/>
-      <c r="B84" s="178"/>
-      <c r="C84" s="179"/>
+      <c r="A84" s="191"/>
+      <c r="B84" s="192"/>
+      <c r="C84" s="193"/>
       <c r="D84" s="217"/>
-      <c r="E84" s="203"/>
-      <c r="F84" s="203"/>
-      <c r="G84" s="203"/>
-      <c r="H84" s="203"/>
-      <c r="I84" s="203"/>
-      <c r="J84" s="203"/>
-      <c r="K84" s="203"/>
-      <c r="L84" s="203"/>
-      <c r="M84" s="203"/>
-      <c r="N84" s="203"/>
-      <c r="O84" s="203"/>
-      <c r="P84" s="203"/>
-      <c r="Q84" s="203"/>
-      <c r="R84" s="203"/>
-      <c r="S84" s="203"/>
-      <c r="T84" s="203"/>
-      <c r="U84" s="203"/>
-      <c r="V84" s="203"/>
-      <c r="W84" s="203"/>
-      <c r="X84" s="203"/>
-      <c r="Y84" s="203"/>
-      <c r="Z84" s="203"/>
-      <c r="AA84" s="203"/>
-      <c r="AB84" s="203"/>
-      <c r="AC84" s="203"/>
-      <c r="AD84" s="203"/>
-      <c r="AE84" s="203"/>
+      <c r="E84" s="185"/>
+      <c r="F84" s="185"/>
+      <c r="G84" s="185"/>
+      <c r="H84" s="185"/>
+      <c r="I84" s="185"/>
+      <c r="J84" s="185"/>
+      <c r="K84" s="185"/>
+      <c r="L84" s="185"/>
+      <c r="M84" s="185"/>
+      <c r="N84" s="185"/>
+      <c r="O84" s="185"/>
+      <c r="P84" s="185"/>
+      <c r="Q84" s="185"/>
+      <c r="R84" s="185"/>
+      <c r="S84" s="185"/>
+      <c r="T84" s="185"/>
+      <c r="U84" s="185"/>
+      <c r="V84" s="185"/>
+      <c r="W84" s="185"/>
+      <c r="X84" s="185"/>
+      <c r="Y84" s="185"/>
+      <c r="Z84" s="185"/>
+      <c r="AA84" s="185"/>
+      <c r="AB84" s="185"/>
+      <c r="AC84" s="185"/>
+      <c r="AD84" s="185"/>
+      <c r="AE84" s="185"/>
     </row>
     <row r="85" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A85" s="177"/>
-      <c r="B85" s="178"/>
-      <c r="C85" s="179"/>
+      <c r="A85" s="191"/>
+      <c r="B85" s="192"/>
+      <c r="C85" s="193"/>
       <c r="D85" s="217"/>
-      <c r="E85" s="203"/>
-      <c r="F85" s="203"/>
-      <c r="G85" s="203"/>
-      <c r="H85" s="203"/>
-      <c r="I85" s="203"/>
-      <c r="J85" s="203"/>
-      <c r="K85" s="203"/>
-      <c r="L85" s="203"/>
-      <c r="M85" s="203"/>
-      <c r="N85" s="203"/>
-      <c r="O85" s="203"/>
-      <c r="P85" s="203"/>
-      <c r="Q85" s="203"/>
-      <c r="R85" s="203"/>
-      <c r="S85" s="203"/>
-      <c r="T85" s="203"/>
-      <c r="U85" s="203"/>
-      <c r="V85" s="203"/>
-      <c r="W85" s="203"/>
-      <c r="X85" s="203"/>
-      <c r="Y85" s="203"/>
-      <c r="Z85" s="203"/>
-      <c r="AA85" s="203"/>
-      <c r="AB85" s="203"/>
-      <c r="AC85" s="203"/>
-      <c r="AD85" s="203"/>
-      <c r="AE85" s="203"/>
+      <c r="E85" s="185"/>
+      <c r="F85" s="185"/>
+      <c r="G85" s="185"/>
+      <c r="H85" s="185"/>
+      <c r="I85" s="185"/>
+      <c r="J85" s="185"/>
+      <c r="K85" s="185"/>
+      <c r="L85" s="185"/>
+      <c r="M85" s="185"/>
+      <c r="N85" s="185"/>
+      <c r="O85" s="185"/>
+      <c r="P85" s="185"/>
+      <c r="Q85" s="185"/>
+      <c r="R85" s="185"/>
+      <c r="S85" s="185"/>
+      <c r="T85" s="185"/>
+      <c r="U85" s="185"/>
+      <c r="V85" s="185"/>
+      <c r="W85" s="185"/>
+      <c r="X85" s="185"/>
+      <c r="Y85" s="185"/>
+      <c r="Z85" s="185"/>
+      <c r="AA85" s="185"/>
+      <c r="AB85" s="185"/>
+      <c r="AC85" s="185"/>
+      <c r="AD85" s="185"/>
+      <c r="AE85" s="185"/>
     </row>
     <row r="86" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A86" s="177"/>
-      <c r="B86" s="178"/>
-      <c r="C86" s="179"/>
+      <c r="A86" s="191"/>
+      <c r="B86" s="192"/>
+      <c r="C86" s="193"/>
       <c r="D86" s="217"/>
-      <c r="E86" s="203"/>
-      <c r="F86" s="203"/>
-      <c r="G86" s="203"/>
-      <c r="H86" s="203"/>
-      <c r="I86" s="203"/>
-      <c r="J86" s="203"/>
-      <c r="K86" s="203"/>
-      <c r="L86" s="203"/>
-      <c r="M86" s="203"/>
-      <c r="N86" s="203"/>
-      <c r="O86" s="203"/>
-      <c r="P86" s="203"/>
-      <c r="Q86" s="203"/>
-      <c r="R86" s="203"/>
-      <c r="S86" s="203"/>
-      <c r="T86" s="203"/>
-      <c r="U86" s="203"/>
-      <c r="V86" s="203"/>
-      <c r="W86" s="203"/>
-      <c r="X86" s="203"/>
-      <c r="Y86" s="203"/>
-      <c r="Z86" s="203"/>
-      <c r="AA86" s="203"/>
-      <c r="AB86" s="203"/>
-      <c r="AC86" s="203"/>
-      <c r="AD86" s="203"/>
-      <c r="AE86" s="203"/>
+      <c r="E86" s="185"/>
+      <c r="F86" s="185"/>
+      <c r="G86" s="185"/>
+      <c r="H86" s="185"/>
+      <c r="I86" s="185"/>
+      <c r="J86" s="185"/>
+      <c r="K86" s="185"/>
+      <c r="L86" s="185"/>
+      <c r="M86" s="185"/>
+      <c r="N86" s="185"/>
+      <c r="O86" s="185"/>
+      <c r="P86" s="185"/>
+      <c r="Q86" s="185"/>
+      <c r="R86" s="185"/>
+      <c r="S86" s="185"/>
+      <c r="T86" s="185"/>
+      <c r="U86" s="185"/>
+      <c r="V86" s="185"/>
+      <c r="W86" s="185"/>
+      <c r="X86" s="185"/>
+      <c r="Y86" s="185"/>
+      <c r="Z86" s="185"/>
+      <c r="AA86" s="185"/>
+      <c r="AB86" s="185"/>
+      <c r="AC86" s="185"/>
+      <c r="AD86" s="185"/>
+      <c r="AE86" s="185"/>
     </row>
     <row r="87" spans="1:31" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A87" s="180"/>
-      <c r="B87" s="181"/>
-      <c r="C87" s="182"/>
+      <c r="A87" s="194"/>
+      <c r="B87" s="195"/>
+      <c r="C87" s="196"/>
       <c r="D87" s="219"/>
       <c r="E87" s="216"/>
       <c r="F87" s="216"/>
@@ -7593,9 +7629,9 @@
       <c r="AE87" s="216"/>
     </row>
     <row r="88" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A88" s="172"/>
-      <c r="B88" s="173"/>
-      <c r="C88" s="176"/>
+      <c r="A88" s="188"/>
+      <c r="B88" s="189"/>
+      <c r="C88" s="190"/>
       <c r="D88" s="218"/>
       <c r="E88" s="214"/>
       <c r="F88" s="214"/>
@@ -7626,108 +7662,108 @@
       <c r="AE88" s="214"/>
     </row>
     <row r="89" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A89" s="177"/>
-      <c r="B89" s="178"/>
-      <c r="C89" s="179"/>
+      <c r="A89" s="191"/>
+      <c r="B89" s="192"/>
+      <c r="C89" s="193"/>
       <c r="D89" s="217"/>
-      <c r="E89" s="203"/>
-      <c r="F89" s="203"/>
-      <c r="G89" s="203"/>
-      <c r="H89" s="203"/>
-      <c r="I89" s="203"/>
-      <c r="J89" s="203"/>
-      <c r="K89" s="203"/>
-      <c r="L89" s="203"/>
-      <c r="M89" s="203"/>
-      <c r="N89" s="203"/>
-      <c r="O89" s="203"/>
-      <c r="P89" s="203"/>
-      <c r="Q89" s="203"/>
-      <c r="R89" s="203"/>
-      <c r="S89" s="203"/>
-      <c r="T89" s="203"/>
-      <c r="U89" s="203"/>
-      <c r="V89" s="203"/>
-      <c r="W89" s="203"/>
-      <c r="X89" s="203"/>
-      <c r="Y89" s="203"/>
-      <c r="Z89" s="203"/>
-      <c r="AA89" s="203"/>
-      <c r="AB89" s="203"/>
-      <c r="AC89" s="203"/>
-      <c r="AD89" s="203"/>
-      <c r="AE89" s="203"/>
+      <c r="E89" s="185"/>
+      <c r="F89" s="185"/>
+      <c r="G89" s="185"/>
+      <c r="H89" s="185"/>
+      <c r="I89" s="185"/>
+      <c r="J89" s="185"/>
+      <c r="K89" s="185"/>
+      <c r="L89" s="185"/>
+      <c r="M89" s="185"/>
+      <c r="N89" s="185"/>
+      <c r="O89" s="185"/>
+      <c r="P89" s="185"/>
+      <c r="Q89" s="185"/>
+      <c r="R89" s="185"/>
+      <c r="S89" s="185"/>
+      <c r="T89" s="185"/>
+      <c r="U89" s="185"/>
+      <c r="V89" s="185"/>
+      <c r="W89" s="185"/>
+      <c r="X89" s="185"/>
+      <c r="Y89" s="185"/>
+      <c r="Z89" s="185"/>
+      <c r="AA89" s="185"/>
+      <c r="AB89" s="185"/>
+      <c r="AC89" s="185"/>
+      <c r="AD89" s="185"/>
+      <c r="AE89" s="185"/>
     </row>
     <row r="90" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A90" s="177"/>
-      <c r="B90" s="178"/>
-      <c r="C90" s="179"/>
+      <c r="A90" s="191"/>
+      <c r="B90" s="192"/>
+      <c r="C90" s="193"/>
       <c r="D90" s="217"/>
-      <c r="E90" s="203"/>
-      <c r="F90" s="203"/>
-      <c r="G90" s="203"/>
-      <c r="H90" s="203"/>
-      <c r="I90" s="203"/>
-      <c r="J90" s="203"/>
-      <c r="K90" s="203"/>
-      <c r="L90" s="203"/>
-      <c r="M90" s="203"/>
-      <c r="N90" s="203"/>
-      <c r="O90" s="203"/>
-      <c r="P90" s="203"/>
-      <c r="Q90" s="203"/>
-      <c r="R90" s="203"/>
-      <c r="S90" s="203"/>
-      <c r="T90" s="203"/>
-      <c r="U90" s="203"/>
-      <c r="V90" s="203"/>
-      <c r="W90" s="203"/>
-      <c r="X90" s="203"/>
-      <c r="Y90" s="203"/>
-      <c r="Z90" s="203"/>
-      <c r="AA90" s="203"/>
-      <c r="AB90" s="203"/>
-      <c r="AC90" s="203"/>
-      <c r="AD90" s="203"/>
-      <c r="AE90" s="203"/>
+      <c r="E90" s="185"/>
+      <c r="F90" s="185"/>
+      <c r="G90" s="185"/>
+      <c r="H90" s="185"/>
+      <c r="I90" s="185"/>
+      <c r="J90" s="185"/>
+      <c r="K90" s="185"/>
+      <c r="L90" s="185"/>
+      <c r="M90" s="185"/>
+      <c r="N90" s="185"/>
+      <c r="O90" s="185"/>
+      <c r="P90" s="185"/>
+      <c r="Q90" s="185"/>
+      <c r="R90" s="185"/>
+      <c r="S90" s="185"/>
+      <c r="T90" s="185"/>
+      <c r="U90" s="185"/>
+      <c r="V90" s="185"/>
+      <c r="W90" s="185"/>
+      <c r="X90" s="185"/>
+      <c r="Y90" s="185"/>
+      <c r="Z90" s="185"/>
+      <c r="AA90" s="185"/>
+      <c r="AB90" s="185"/>
+      <c r="AC90" s="185"/>
+      <c r="AD90" s="185"/>
+      <c r="AE90" s="185"/>
     </row>
     <row r="91" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A91" s="177"/>
-      <c r="B91" s="178"/>
-      <c r="C91" s="179"/>
+      <c r="A91" s="191"/>
+      <c r="B91" s="192"/>
+      <c r="C91" s="193"/>
       <c r="D91" s="217"/>
-      <c r="E91" s="203"/>
-      <c r="F91" s="203"/>
-      <c r="G91" s="203"/>
-      <c r="H91" s="203"/>
-      <c r="I91" s="203"/>
-      <c r="J91" s="203"/>
-      <c r="K91" s="203"/>
-      <c r="L91" s="203"/>
-      <c r="M91" s="203"/>
-      <c r="N91" s="203"/>
-      <c r="O91" s="203"/>
-      <c r="P91" s="203"/>
-      <c r="Q91" s="203"/>
-      <c r="R91" s="203"/>
-      <c r="S91" s="203"/>
-      <c r="T91" s="203"/>
-      <c r="U91" s="203"/>
-      <c r="V91" s="203"/>
-      <c r="W91" s="203"/>
-      <c r="X91" s="203"/>
-      <c r="Y91" s="203"/>
-      <c r="Z91" s="203"/>
-      <c r="AA91" s="203"/>
-      <c r="AB91" s="203"/>
-      <c r="AC91" s="203"/>
-      <c r="AD91" s="203"/>
-      <c r="AE91" s="203"/>
+      <c r="E91" s="185"/>
+      <c r="F91" s="185"/>
+      <c r="G91" s="185"/>
+      <c r="H91" s="185"/>
+      <c r="I91" s="185"/>
+      <c r="J91" s="185"/>
+      <c r="K91" s="185"/>
+      <c r="L91" s="185"/>
+      <c r="M91" s="185"/>
+      <c r="N91" s="185"/>
+      <c r="O91" s="185"/>
+      <c r="P91" s="185"/>
+      <c r="Q91" s="185"/>
+      <c r="R91" s="185"/>
+      <c r="S91" s="185"/>
+      <c r="T91" s="185"/>
+      <c r="U91" s="185"/>
+      <c r="V91" s="185"/>
+      <c r="W91" s="185"/>
+      <c r="X91" s="185"/>
+      <c r="Y91" s="185"/>
+      <c r="Z91" s="185"/>
+      <c r="AA91" s="185"/>
+      <c r="AB91" s="185"/>
+      <c r="AC91" s="185"/>
+      <c r="AD91" s="185"/>
+      <c r="AE91" s="185"/>
     </row>
     <row r="92" spans="1:31" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A92" s="180"/>
-      <c r="B92" s="181"/>
-      <c r="C92" s="182"/>
+      <c r="A92" s="194"/>
+      <c r="B92" s="195"/>
+      <c r="C92" s="196"/>
       <c r="D92" s="219"/>
       <c r="E92" s="216"/>
       <c r="F92" s="216"/>
@@ -7758,9 +7794,9 @@
       <c r="AE92" s="216"/>
     </row>
     <row r="93" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A93" s="172"/>
-      <c r="B93" s="173"/>
-      <c r="C93" s="176"/>
+      <c r="A93" s="188"/>
+      <c r="B93" s="189"/>
+      <c r="C93" s="190"/>
       <c r="D93" s="218"/>
       <c r="E93" s="214"/>
       <c r="F93" s="214"/>
@@ -7791,108 +7827,108 @@
       <c r="AE93" s="214"/>
     </row>
     <row r="94" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A94" s="177"/>
-      <c r="B94" s="178"/>
-      <c r="C94" s="179"/>
+      <c r="A94" s="191"/>
+      <c r="B94" s="192"/>
+      <c r="C94" s="193"/>
       <c r="D94" s="217"/>
-      <c r="E94" s="203"/>
-      <c r="F94" s="203"/>
-      <c r="G94" s="203"/>
-      <c r="H94" s="203"/>
-      <c r="I94" s="203"/>
-      <c r="J94" s="203"/>
-      <c r="K94" s="203"/>
-      <c r="L94" s="203"/>
-      <c r="M94" s="203"/>
-      <c r="N94" s="203"/>
-      <c r="O94" s="203"/>
-      <c r="P94" s="203"/>
-      <c r="Q94" s="203"/>
-      <c r="R94" s="203"/>
-      <c r="S94" s="203"/>
-      <c r="T94" s="203"/>
-      <c r="U94" s="203"/>
-      <c r="V94" s="203"/>
-      <c r="W94" s="203"/>
-      <c r="X94" s="203"/>
-      <c r="Y94" s="203"/>
-      <c r="Z94" s="203"/>
-      <c r="AA94" s="203"/>
-      <c r="AB94" s="203"/>
-      <c r="AC94" s="203"/>
-      <c r="AD94" s="203"/>
-      <c r="AE94" s="203"/>
+      <c r="E94" s="185"/>
+      <c r="F94" s="185"/>
+      <c r="G94" s="185"/>
+      <c r="H94" s="185"/>
+      <c r="I94" s="185"/>
+      <c r="J94" s="185"/>
+      <c r="K94" s="185"/>
+      <c r="L94" s="185"/>
+      <c r="M94" s="185"/>
+      <c r="N94" s="185"/>
+      <c r="O94" s="185"/>
+      <c r="P94" s="185"/>
+      <c r="Q94" s="185"/>
+      <c r="R94" s="185"/>
+      <c r="S94" s="185"/>
+      <c r="T94" s="185"/>
+      <c r="U94" s="185"/>
+      <c r="V94" s="185"/>
+      <c r="W94" s="185"/>
+      <c r="X94" s="185"/>
+      <c r="Y94" s="185"/>
+      <c r="Z94" s="185"/>
+      <c r="AA94" s="185"/>
+      <c r="AB94" s="185"/>
+      <c r="AC94" s="185"/>
+      <c r="AD94" s="185"/>
+      <c r="AE94" s="185"/>
     </row>
     <row r="95" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A95" s="177"/>
-      <c r="B95" s="178"/>
-      <c r="C95" s="179"/>
+      <c r="A95" s="191"/>
+      <c r="B95" s="192"/>
+      <c r="C95" s="193"/>
       <c r="D95" s="217"/>
-      <c r="E95" s="203"/>
-      <c r="F95" s="203"/>
-      <c r="G95" s="203"/>
-      <c r="H95" s="203"/>
-      <c r="I95" s="203"/>
-      <c r="J95" s="203"/>
-      <c r="K95" s="203"/>
-      <c r="L95" s="203"/>
-      <c r="M95" s="203"/>
-      <c r="N95" s="203"/>
-      <c r="O95" s="203"/>
-      <c r="P95" s="203"/>
-      <c r="Q95" s="203"/>
-      <c r="R95" s="203"/>
-      <c r="S95" s="203"/>
-      <c r="T95" s="203"/>
-      <c r="U95" s="203"/>
-      <c r="V95" s="203"/>
-      <c r="W95" s="203"/>
-      <c r="X95" s="203"/>
-      <c r="Y95" s="203"/>
-      <c r="Z95" s="203"/>
-      <c r="AA95" s="203"/>
-      <c r="AB95" s="203"/>
-      <c r="AC95" s="203"/>
-      <c r="AD95" s="203"/>
-      <c r="AE95" s="203"/>
+      <c r="E95" s="185"/>
+      <c r="F95" s="185"/>
+      <c r="G95" s="185"/>
+      <c r="H95" s="185"/>
+      <c r="I95" s="185"/>
+      <c r="J95" s="185"/>
+      <c r="K95" s="185"/>
+      <c r="L95" s="185"/>
+      <c r="M95" s="185"/>
+      <c r="N95" s="185"/>
+      <c r="O95" s="185"/>
+      <c r="P95" s="185"/>
+      <c r="Q95" s="185"/>
+      <c r="R95" s="185"/>
+      <c r="S95" s="185"/>
+      <c r="T95" s="185"/>
+      <c r="U95" s="185"/>
+      <c r="V95" s="185"/>
+      <c r="W95" s="185"/>
+      <c r="X95" s="185"/>
+      <c r="Y95" s="185"/>
+      <c r="Z95" s="185"/>
+      <c r="AA95" s="185"/>
+      <c r="AB95" s="185"/>
+      <c r="AC95" s="185"/>
+      <c r="AD95" s="185"/>
+      <c r="AE95" s="185"/>
     </row>
     <row r="96" spans="1:31" ht="11.25" customHeight="1">
-      <c r="A96" s="177"/>
-      <c r="B96" s="178"/>
-      <c r="C96" s="179"/>
+      <c r="A96" s="191"/>
+      <c r="B96" s="192"/>
+      <c r="C96" s="193"/>
       <c r="D96" s="217"/>
-      <c r="E96" s="203"/>
-      <c r="F96" s="203"/>
-      <c r="G96" s="203"/>
-      <c r="H96" s="203"/>
-      <c r="I96" s="203"/>
-      <c r="J96" s="203"/>
-      <c r="K96" s="203"/>
-      <c r="L96" s="203"/>
-      <c r="M96" s="203"/>
-      <c r="N96" s="203"/>
-      <c r="O96" s="203"/>
-      <c r="P96" s="203"/>
-      <c r="Q96" s="203"/>
-      <c r="R96" s="203"/>
-      <c r="S96" s="203"/>
-      <c r="T96" s="203"/>
-      <c r="U96" s="203"/>
-      <c r="V96" s="203"/>
-      <c r="W96" s="203"/>
-      <c r="X96" s="203"/>
-      <c r="Y96" s="203"/>
-      <c r="Z96" s="203"/>
-      <c r="AA96" s="203"/>
-      <c r="AB96" s="203"/>
-      <c r="AC96" s="203"/>
-      <c r="AD96" s="203"/>
-      <c r="AE96" s="203"/>
+      <c r="E96" s="185"/>
+      <c r="F96" s="185"/>
+      <c r="G96" s="185"/>
+      <c r="H96" s="185"/>
+      <c r="I96" s="185"/>
+      <c r="J96" s="185"/>
+      <c r="K96" s="185"/>
+      <c r="L96" s="185"/>
+      <c r="M96" s="185"/>
+      <c r="N96" s="185"/>
+      <c r="O96" s="185"/>
+      <c r="P96" s="185"/>
+      <c r="Q96" s="185"/>
+      <c r="R96" s="185"/>
+      <c r="S96" s="185"/>
+      <c r="T96" s="185"/>
+      <c r="U96" s="185"/>
+      <c r="V96" s="185"/>
+      <c r="W96" s="185"/>
+      <c r="X96" s="185"/>
+      <c r="Y96" s="185"/>
+      <c r="Z96" s="185"/>
+      <c r="AA96" s="185"/>
+      <c r="AB96" s="185"/>
+      <c r="AC96" s="185"/>
+      <c r="AD96" s="185"/>
+      <c r="AE96" s="185"/>
     </row>
     <row r="97" spans="1:31" ht="11.25" customHeight="1" thickBot="1">
-      <c r="A97" s="180"/>
-      <c r="B97" s="181"/>
-      <c r="C97" s="182"/>
+      <c r="A97" s="194"/>
+      <c r="B97" s="195"/>
+      <c r="C97" s="196"/>
       <c r="D97" s="219"/>
       <c r="E97" s="216"/>
       <c r="F97" s="216"/>
@@ -8006,6 +8042,7 @@
     <mergeCell ref="T30:U30"/>
     <mergeCell ref="X30:Y30"/>
     <mergeCell ref="V30:W30"/>
+    <mergeCell ref="P31:U31"/>
     <mergeCell ref="F52:G52"/>
     <mergeCell ref="D51:E51"/>
     <mergeCell ref="R52:S52"/>
@@ -8619,20 +8656,6 @@
     <mergeCell ref="T87:U87"/>
     <mergeCell ref="V87:W87"/>
     <mergeCell ref="X87:Y87"/>
-    <mergeCell ref="AB53:AC53"/>
-    <mergeCell ref="R51:S51"/>
-    <mergeCell ref="AD51:AE51"/>
-    <mergeCell ref="AD49:AE49"/>
-    <mergeCell ref="AD48:AE48"/>
-    <mergeCell ref="AB49:AC49"/>
-    <mergeCell ref="Z49:AA49"/>
-    <mergeCell ref="L48:M48"/>
-    <mergeCell ref="L47:M47"/>
-    <mergeCell ref="N47:O47"/>
-    <mergeCell ref="AB48:AC48"/>
-    <mergeCell ref="V49:W49"/>
-    <mergeCell ref="X49:Y49"/>
-    <mergeCell ref="AB51:AC51"/>
     <mergeCell ref="AB52:AC52"/>
     <mergeCell ref="X52:Y52"/>
     <mergeCell ref="V52:W52"/>
@@ -8643,7 +8666,15 @@
     <mergeCell ref="L52:M52"/>
     <mergeCell ref="N52:O52"/>
     <mergeCell ref="T52:U52"/>
-    <mergeCell ref="P31:U31"/>
+    <mergeCell ref="AB49:AC49"/>
+    <mergeCell ref="Z49:AA49"/>
+    <mergeCell ref="L48:M48"/>
+    <mergeCell ref="L47:M47"/>
+    <mergeCell ref="N47:O47"/>
+    <mergeCell ref="AB48:AC48"/>
+    <mergeCell ref="V49:W49"/>
+    <mergeCell ref="X49:Y49"/>
+    <mergeCell ref="AB51:AC51"/>
     <mergeCell ref="X31:Y31"/>
     <mergeCell ref="AB31:AC31"/>
     <mergeCell ref="Z39:AA39"/>
@@ -8694,6 +8725,11 @@
     <mergeCell ref="H49:I49"/>
     <mergeCell ref="J49:K49"/>
     <mergeCell ref="P49:Q49"/>
+    <mergeCell ref="AB53:AC53"/>
+    <mergeCell ref="R51:S51"/>
+    <mergeCell ref="AD51:AE51"/>
+    <mergeCell ref="AD49:AE49"/>
+    <mergeCell ref="AD48:AE48"/>
     <mergeCell ref="V29:AE29"/>
     <mergeCell ref="P28:AE28"/>
     <mergeCell ref="AD31:AE31"/>
@@ -8853,34 +8889,34 @@
         <v>27</v>
       </c>
       <c r="B4" s="25"/>
-      <c r="C4" s="260"/>
+      <c r="C4" s="261"/>
       <c r="D4" s="257"/>
-      <c r="E4" s="261"/>
+      <c r="E4" s="259"/>
       <c r="F4" s="257"/>
-      <c r="G4" s="261"/>
+      <c r="G4" s="259"/>
       <c r="H4" s="257"/>
-      <c r="I4" s="261"/>
+      <c r="I4" s="259"/>
       <c r="J4" s="257"/>
-      <c r="K4" s="261"/>
+      <c r="K4" s="259"/>
       <c r="L4" s="257"/>
-      <c r="M4" s="261"/>
+      <c r="M4" s="259"/>
       <c r="N4" s="257"/>
-      <c r="O4" s="261"/>
+      <c r="O4" s="259"/>
       <c r="P4" s="257"/>
-      <c r="Q4" s="261"/>
+      <c r="Q4" s="259"/>
       <c r="R4" s="257"/>
-      <c r="S4" s="261"/>
+      <c r="S4" s="259"/>
       <c r="T4" s="257"/>
-      <c r="U4" s="261"/>
+      <c r="U4" s="259"/>
       <c r="V4" s="257"/>
       <c r="W4" s="21"/>
       <c r="X4" s="16"/>
-      <c r="Y4" s="261"/>
+      <c r="Y4" s="259"/>
       <c r="Z4" s="257"/>
-      <c r="AA4" s="261"/>
+      <c r="AA4" s="259"/>
       <c r="AB4" s="257"/>
-      <c r="AC4" s="261"/>
-      <c r="AD4" s="268"/>
+      <c r="AC4" s="259"/>
+      <c r="AD4" s="260"/>
     </row>
     <row r="5" spans="1:30" s="1" customFormat="1" ht="20" customHeight="1">
       <c r="A5" s="18" t="s">
@@ -9158,33 +9194,33 @@
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="267"/>
-      <c r="D13" s="259"/>
-      <c r="E13" s="259"/>
-      <c r="F13" s="259"/>
-      <c r="G13" s="259"/>
-      <c r="H13" s="259"/>
-      <c r="I13" s="259"/>
-      <c r="J13" s="259"/>
-      <c r="K13" s="259"/>
-      <c r="L13" s="259"/>
-      <c r="M13" s="259"/>
-      <c r="N13" s="259"/>
-      <c r="O13" s="259"/>
-      <c r="P13" s="259"/>
-      <c r="Q13" s="259"/>
-      <c r="R13" s="259"/>
-      <c r="S13" s="259"/>
-      <c r="T13" s="259"/>
-      <c r="U13" s="259"/>
-      <c r="V13" s="259"/>
+      <c r="D13" s="264"/>
+      <c r="E13" s="264"/>
+      <c r="F13" s="264"/>
+      <c r="G13" s="264"/>
+      <c r="H13" s="264"/>
+      <c r="I13" s="264"/>
+      <c r="J13" s="264"/>
+      <c r="K13" s="264"/>
+      <c r="L13" s="264"/>
+      <c r="M13" s="264"/>
+      <c r="N13" s="264"/>
+      <c r="O13" s="264"/>
+      <c r="P13" s="264"/>
+      <c r="Q13" s="264"/>
+      <c r="R13" s="264"/>
+      <c r="S13" s="264"/>
+      <c r="T13" s="264"/>
+      <c r="U13" s="264"/>
+      <c r="V13" s="264"/>
       <c r="W13" s="32"/>
       <c r="X13" s="19"/>
-      <c r="Y13" s="259"/>
-      <c r="Z13" s="259"/>
-      <c r="AA13" s="259"/>
-      <c r="AB13" s="259"/>
-      <c r="AC13" s="259"/>
-      <c r="AD13" s="269"/>
+      <c r="Y13" s="264"/>
+      <c r="Z13" s="264"/>
+      <c r="AA13" s="264"/>
+      <c r="AB13" s="264"/>
+      <c r="AC13" s="264"/>
+      <c r="AD13" s="268"/>
     </row>
     <row r="14" spans="1:30" s="1" customFormat="1" ht="20" customHeight="1" thickBot="1">
       <c r="A14" s="59" t="s">
@@ -9192,33 +9228,33 @@
       </c>
       <c r="B14" s="60"/>
       <c r="C14" s="266"/>
-      <c r="D14" s="264"/>
-      <c r="E14" s="264"/>
-      <c r="F14" s="264"/>
-      <c r="G14" s="264"/>
-      <c r="H14" s="264"/>
-      <c r="I14" s="264"/>
-      <c r="J14" s="264"/>
-      <c r="K14" s="264"/>
-      <c r="L14" s="264"/>
-      <c r="M14" s="264"/>
-      <c r="N14" s="264"/>
-      <c r="O14" s="264"/>
-      <c r="P14" s="264"/>
-      <c r="Q14" s="264"/>
-      <c r="R14" s="264"/>
-      <c r="S14" s="264"/>
-      <c r="T14" s="264"/>
-      <c r="U14" s="264"/>
-      <c r="V14" s="264"/>
+      <c r="D14" s="265"/>
+      <c r="E14" s="265"/>
+      <c r="F14" s="265"/>
+      <c r="G14" s="265"/>
+      <c r="H14" s="265"/>
+      <c r="I14" s="265"/>
+      <c r="J14" s="265"/>
+      <c r="K14" s="265"/>
+      <c r="L14" s="265"/>
+      <c r="M14" s="265"/>
+      <c r="N14" s="265"/>
+      <c r="O14" s="265"/>
+      <c r="P14" s="265"/>
+      <c r="Q14" s="265"/>
+      <c r="R14" s="265"/>
+      <c r="S14" s="265"/>
+      <c r="T14" s="265"/>
+      <c r="U14" s="265"/>
+      <c r="V14" s="265"/>
       <c r="W14" s="62"/>
       <c r="X14" s="61"/>
-      <c r="Y14" s="264"/>
-      <c r="Z14" s="264"/>
-      <c r="AA14" s="264"/>
-      <c r="AB14" s="264"/>
-      <c r="AC14" s="264"/>
-      <c r="AD14" s="265"/>
+      <c r="Y14" s="265"/>
+      <c r="Z14" s="265"/>
+      <c r="AA14" s="265"/>
+      <c r="AB14" s="265"/>
+      <c r="AC14" s="265"/>
+      <c r="AD14" s="269"/>
     </row>
     <row r="15" spans="1:30" s="1" customFormat="1" ht="18" customHeight="1">
       <c r="B15" s="15"/>
@@ -9321,7 +9357,7 @@
       <c r="D18" s="248"/>
       <c r="E18" s="248"/>
       <c r="F18" s="248"/>
-      <c r="G18" s="261"/>
+      <c r="G18" s="259"/>
       <c r="H18" s="257"/>
       <c r="I18" s="248"/>
       <c r="J18" s="248"/>
@@ -10629,13 +10665,6 @@
     <mergeCell ref="Q25:R25"/>
     <mergeCell ref="S25:T25"/>
     <mergeCell ref="U25:V25"/>
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="E23:F23"/>
-    <mergeCell ref="G23:H23"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="M23:N23"/>
-    <mergeCell ref="U24:V24"/>
     <mergeCell ref="W25:X25"/>
     <mergeCell ref="Y25:Z25"/>
     <mergeCell ref="Y23:Z23"/>
@@ -10648,7 +10677,6 @@
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="Q24:R24"/>
     <mergeCell ref="S24:T24"/>
-    <mergeCell ref="AC18:AD18"/>
     <mergeCell ref="G24:H24"/>
     <mergeCell ref="I24:J24"/>
     <mergeCell ref="K24:L24"/>
@@ -10657,6 +10685,13 @@
     <mergeCell ref="AC23:AD23"/>
     <mergeCell ref="AA24:AB24"/>
     <mergeCell ref="AC24:AD24"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="G23:H23"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="M23:N23"/>
+    <mergeCell ref="U24:V24"/>
     <mergeCell ref="AC13:AD13"/>
     <mergeCell ref="S13:T13"/>
     <mergeCell ref="U13:V13"/>
@@ -10666,6 +10701,8 @@
     <mergeCell ref="S23:T23"/>
     <mergeCell ref="U23:V23"/>
     <mergeCell ref="W23:X23"/>
+    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="AC18:AD18"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="E18:F18"/>
     <mergeCell ref="G18:H18"/>
@@ -10700,7 +10737,8 @@
     <mergeCell ref="M14:N14"/>
     <mergeCell ref="O14:P14"/>
     <mergeCell ref="Q14:R14"/>
-    <mergeCell ref="AC14:AD14"/>
+    <mergeCell ref="Y13:Z13"/>
+    <mergeCell ref="AA13:AB13"/>
     <mergeCell ref="AC12:AD12"/>
     <mergeCell ref="C12:D12"/>
     <mergeCell ref="E12:F12"/>
@@ -10714,17 +10752,6 @@
     <mergeCell ref="U12:V12"/>
     <mergeCell ref="Y12:Z12"/>
     <mergeCell ref="AA12:AB12"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="AA13:AB13"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:J4"/>
-    <mergeCell ref="K11:L11"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AD3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="S3:T3"/>
@@ -10737,13 +10764,6 @@
     <mergeCell ref="M4:N4"/>
     <mergeCell ref="O4:P4"/>
     <mergeCell ref="Q4:R4"/>
-    <mergeCell ref="Q9:R9"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="G11:H11"/>
-    <mergeCell ref="I11:J11"/>
-    <mergeCell ref="Q10:R10"/>
-    <mergeCell ref="U10:V10"/>
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="G10:H10"/>
@@ -10753,6 +10773,9 @@
     <mergeCell ref="Q11:R11"/>
     <mergeCell ref="O10:P10"/>
     <mergeCell ref="M10:N10"/>
+    <mergeCell ref="K11:L11"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="E11:F11"/>
     <mergeCell ref="AC7:AD7"/>
     <mergeCell ref="AC9:AD9"/>
     <mergeCell ref="Y10:Z10"/>
@@ -10764,6 +10787,8 @@
     <mergeCell ref="Y3:Z3"/>
     <mergeCell ref="Y9:Z9"/>
     <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AD3"/>
     <mergeCell ref="C7:D7"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="G7:H7"/>
@@ -10782,6 +10807,12 @@
     <mergeCell ref="U7:V7"/>
     <mergeCell ref="U6:V6"/>
     <mergeCell ref="S7:T7"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:J4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="E8:F8"/>
@@ -10830,6 +10861,11 @@
     <mergeCell ref="O8:P8"/>
     <mergeCell ref="M9:N9"/>
     <mergeCell ref="O9:P9"/>
+    <mergeCell ref="G11:H11"/>
+    <mergeCell ref="I11:J11"/>
+    <mergeCell ref="Q10:R10"/>
+    <mergeCell ref="U10:V10"/>
+    <mergeCell ref="Q9:R9"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.23" right="0.24" top="0.18" bottom="0.17" header="0.17" footer="0.11811023622047245"/>
